--- a/autocrword/models/chapter_8/土建用量表.xlsx
+++ b/autocrword/models/chapter_8/土建用量表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\Odoo_addons_NB\autocrword\models\chapter_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00512D48-51B5-4E08-9FAC-46D0033116D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE47163-148A-4500-8583-75896D3BBE49}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="990" windowWidth="27450" windowHeight="13830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="成果输出" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="407">
   <si>
     <t>项目</t>
   </si>
@@ -2284,6 +2284,10 @@
   </si>
   <si>
     <t>{{numbers_4}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料仓库</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -7665,8 +7669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P136" sqref="P136:P141"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7683,7 +7687,7 @@
     <col min="11" max="11" width="16.25" customWidth="1"/>
     <col min="12" max="12" width="17.75" customWidth="1"/>
     <col min="13" max="13" width="32.375" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
     <col min="15" max="15" width="29.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25.625" customWidth="1"/>
     <col min="17" max="17" width="10.75" customWidth="1"/>
@@ -9458,7 +9462,7 @@
         <v>5</v>
       </c>
       <c r="O103" s="80" t="str">
-        <f t="shared" ref="O103:O141" si="3">"{{"&amp;M103&amp;"_1}}"</f>
+        <f t="shared" ref="O103:O109" si="3">"{{"&amp;M103&amp;"_1}}"</f>
         <v>{{石方开挖_1}}</v>
       </c>
       <c r="P103" s="80" t="str">
@@ -10896,7 +10900,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="105" t="s">
         <v>85</v>
       </c>
@@ -10912,8 +10916,23 @@
       <c r="E145" s="61" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L145" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="M145" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="N145" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="O145" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="P145" s="61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="25">
         <v>1</v>
       </c>
@@ -10931,8 +10950,25 @@
       <c r="E146" s="27" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L146" s="25">
+        <v>1</v>
+      </c>
+      <c r="M146" s="124" t="s">
+        <v>406</v>
+      </c>
+      <c r="N146" s="26" t="str">
+        <f>"{{"&amp;M146&amp;"_1}}"</f>
+        <v>{{材料仓库_1}}</v>
+      </c>
+      <c r="O146" s="108" t="str">
+        <f>"{{"&amp;M146&amp;"_2}}"</f>
+        <v>{{材料仓库_2}}</v>
+      </c>
+      <c r="P146" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="25">
         <v>2</v>
       </c>
@@ -10950,8 +10986,25 @@
       <c r="E147" s="27" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L147" s="25">
+        <v>2</v>
+      </c>
+      <c r="M147" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="N147" s="26" t="str">
+        <f t="shared" ref="N147:N150" si="14">"{{"&amp;M147&amp;"_1}}"</f>
+        <v>{{临时住宅及办公室施工生活区_1}}</v>
+      </c>
+      <c r="O147" s="108" t="str">
+        <f t="shared" ref="O147:O151" si="15">"{{"&amp;M147&amp;"_2}}"</f>
+        <v>{{临时住宅及办公室施工生活区_2}}</v>
+      </c>
+      <c r="P147" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="25">
         <v>3</v>
       </c>
@@ -10969,8 +11022,25 @@
       <c r="E148" s="27" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L148" s="25">
+        <v>3</v>
+      </c>
+      <c r="M148" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="N148" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v>{{钢筋加工厂_1}}</v>
+      </c>
+      <c r="O148" s="108" t="str">
+        <f t="shared" si="15"/>
+        <v>{{钢筋加工厂_2}}</v>
+      </c>
+      <c r="P148" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="25">
         <v>4</v>
       </c>
@@ -10988,8 +11058,25 @@
       <c r="E149" s="27" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L149" s="25">
+        <v>4</v>
+      </c>
+      <c r="M149" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="N149" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v>{{设备存放场_1}}</v>
+      </c>
+      <c r="O149" s="108" t="str">
+        <f t="shared" si="15"/>
+        <v>{{设备存放场_2}}</v>
+      </c>
+      <c r="P149" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="25">
         <v>5</v>
       </c>
@@ -11005,8 +11092,23 @@
         <v>1200</v>
       </c>
       <c r="E150" s="27"/>
-    </row>
-    <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L150" s="25">
+        <v>5</v>
+      </c>
+      <c r="M150" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="N150" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v>{{施工机械停放场_1}}</v>
+      </c>
+      <c r="O150" s="108" t="str">
+        <f t="shared" si="15"/>
+        <v>{{施工机械停放场_2}}</v>
+      </c>
+      <c r="P150" s="27"/>
+    </row>
+    <row r="151" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A151" s="106">
         <v>6</v>
       </c>
@@ -11022,15 +11124,30 @@
         <v>10500</v>
       </c>
       <c r="E151" s="30"/>
-    </row>
-    <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L151" s="106">
+        <v>6</v>
+      </c>
+      <c r="M151" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="N151" s="26" t="str">
+        <f>"{{"&amp;M151&amp;"_1}}"</f>
+        <v>{{合计_1}}</v>
+      </c>
+      <c r="O151" s="108" t="str">
+        <f t="shared" si="15"/>
+        <v>{{合计_2}}</v>
+      </c>
+      <c r="P151" s="30"/>
+    </row>
+    <row r="152" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="110" t="s">
         <v>85</v>
       </c>
@@ -11047,7 +11164,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="114">
         <v>1</v>
       </c>
@@ -11067,7 +11184,7 @@
         <v>10419.80810276195</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="114">
         <v>2</v>
       </c>
@@ -11083,11 +11200,11 @@
         <v>6152.7564999999995</v>
       </c>
       <c r="E157" s="116">
-        <f t="shared" ref="E157:E161" si="14">C157-D157</f>
+        <f t="shared" ref="E157:E161" si="16">C157-D157</f>
         <v>30763.782499999998</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="114">
         <v>3</v>
       </c>
@@ -11103,11 +11220,11 @@
         <v>58000</v>
       </c>
       <c r="E158" s="116">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>139500</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="114">
         <v>4</v>
       </c>
@@ -11123,11 +11240,11 @@
         <v>13500</v>
       </c>
       <c r="E159" s="116">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>67500</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="114">
         <v>5</v>
       </c>
@@ -11143,7 +11260,7 @@
         <v>10000</v>
       </c>
       <c r="E160" s="116">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5000</v>
       </c>
     </row>
@@ -11163,7 +11280,7 @@
         <v>101731.11605807937</v>
       </c>
       <c r="E161" s="122">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>253183.59060276195</v>
       </c>
     </row>

--- a/autocrword/models/chapter_8/土建用量表.xlsx
+++ b/autocrword/models/chapter_8/土建用量表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\Odoo_addons_NB\autocrword\models\chapter_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE47163-148A-4500-8583-75896D3BBE49}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AADAEBF-7EC7-4891-8046-7F2C0CC51AE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="990" windowWidth="27450" windowHeight="13830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="11925" yWindow="12960" windowWidth="27450" windowHeight="13830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="成果输出" sheetId="1" r:id="rId1"/>
@@ -7669,8 +7669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F158" sqref="F158"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -12077,7 +12077,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="11">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>风机基础数据!$B$1:$B$4</xm:f>
@@ -12154,7 +12154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V105"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>

--- a/autocrword/models/chapter_8/土建用量表.xlsx
+++ b/autocrword/models/chapter_8/土建用量表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\Odoo_addons_NB\autocrword\models\chapter_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AADAEBF-7EC7-4891-8046-7F2C0CC51AE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DCAFB9-10CF-4053-874C-D038BA6DCAAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11925" yWindow="12960" windowWidth="27450" windowHeight="13830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="成果输出" sheetId="1" r:id="rId1"/>
@@ -7669,8 +7669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11200,7 +11200,7 @@
         <v>6152.7564999999995</v>
       </c>
       <c r="E157" s="116">
-        <f t="shared" ref="E157:E161" si="16">C157-D157</f>
+        <f>C157-D157</f>
         <v>30763.782499999998</v>
       </c>
     </row>
@@ -11220,7 +11220,7 @@
         <v>58000</v>
       </c>
       <c r="E158" s="116">
-        <f t="shared" si="16"/>
+        <f>C158-D158</f>
         <v>139500</v>
       </c>
     </row>
@@ -11240,7 +11240,7 @@
         <v>13500</v>
       </c>
       <c r="E159" s="116">
-        <f t="shared" si="16"/>
+        <f>C159-D159</f>
         <v>67500</v>
       </c>
     </row>
@@ -11260,7 +11260,7 @@
         <v>10000</v>
       </c>
       <c r="E160" s="116">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="E157:E161" si="16">C160-D160</f>
         <v>5000</v>
       </c>
     </row>
@@ -18539,7 +18539,7 @@
   <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/autocrword/models/chapter_8/土建用量表.xlsx
+++ b/autocrword/models/chapter_8/土建用量表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\Odoo_addons_NB\autocrword\models\chapter_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DCAFB9-10CF-4053-874C-D038BA6DCAAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB7CD3B-10A6-401C-950E-612AE523D587}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="410">
   <si>
     <t>项目</t>
   </si>
@@ -866,9 +866,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>陡坡低山</t>
-  </si>
-  <si>
     <r>
       <t>C</t>
     </r>
@@ -2288,6 +2285,22 @@
   </si>
   <si>
     <t>材料仓库</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>风机基础及箱变</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>集电线路</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陡坡低山</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3762,9 +3775,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="20" fillId="6" borderId="43" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3777,9 +3787,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="20" fillId="6" borderId="45" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4165,6 +4172,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4177,6 +4190,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4196,7 +4277,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4534,210 +4615,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
-        <v>364</v>
+      <c r="A1" s="145" t="s">
+        <v>363</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="121" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="174" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="176" t="s">
+      <c r="C2" s="174" t="s">
         <v>313</v>
       </c>
-      <c r="C2" s="176" t="s">
+      <c r="D2" s="174" t="s">
         <v>314</v>
       </c>
-      <c r="D2" s="176" t="s">
+      <c r="E2" s="174" t="s">
         <v>315</v>
       </c>
-      <c r="E2" s="176" t="s">
+      <c r="F2" s="174" t="s">
         <v>316</v>
       </c>
-      <c r="F2" s="176" t="s">
+      <c r="G2" s="177" t="s">
         <v>317</v>
       </c>
-      <c r="G2" s="179" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="178" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="180" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="177">
+      <c r="B3" s="175">
         <f>条件输入!B13</f>
         <v>588.5</v>
       </c>
-      <c r="C3" s="177">
+      <c r="C3" s="175">
         <f>条件输入!C13</f>
         <v>0</v>
       </c>
-      <c r="D3" s="177">
+      <c r="D3" s="175">
         <f>条件输入!D13</f>
         <v>4316.8</v>
       </c>
-      <c r="E3" s="177">
+      <c r="E3" s="175">
         <f>条件输入!E13</f>
         <v>45321.2</v>
       </c>
-      <c r="F3" s="177">
+      <c r="F3" s="175">
         <f>条件输入!F13</f>
         <v>0</v>
       </c>
-      <c r="G3" s="181">
+      <c r="G3" s="179">
         <f>条件输入!G13</f>
         <v>1598.3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="180" t="s">
-        <v>320</v>
-      </c>
-      <c r="B4" s="177">
+      <c r="A4" s="178" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="175">
         <f>条件输入!B14</f>
         <v>803.5</v>
       </c>
-      <c r="C4" s="177">
+      <c r="C4" s="175">
         <f>条件输入!C14</f>
         <v>0</v>
       </c>
-      <c r="D4" s="177">
+      <c r="D4" s="175">
         <f>条件输入!D14</f>
         <v>4285.2</v>
       </c>
-      <c r="E4" s="177">
+      <c r="E4" s="175">
         <f>条件输入!E14</f>
         <v>64398.8</v>
       </c>
-      <c r="F4" s="177">
+      <c r="F4" s="175">
         <f>条件输入!F14</f>
         <v>0</v>
       </c>
-      <c r="G4" s="181">
+      <c r="G4" s="179">
         <f>条件输入!G14</f>
         <v>96.3</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="180" t="s">
-        <v>321</v>
-      </c>
-      <c r="B5" s="177">
+      <c r="A5" s="178" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="175">
         <f>条件输入!B15</f>
         <v>801.79899999999998</v>
       </c>
-      <c r="C5" s="177">
+      <c r="C5" s="175">
         <f>条件输入!C15</f>
         <v>0</v>
       </c>
-      <c r="D5" s="177">
+      <c r="D5" s="175">
         <f>条件输入!D15</f>
         <v>4194.4669999999996</v>
       </c>
-      <c r="E5" s="177">
+      <c r="E5" s="175">
         <f>条件输入!E15</f>
         <v>46936.474000000002</v>
       </c>
-      <c r="F5" s="177">
+      <c r="F5" s="175">
         <f>条件输入!F15</f>
         <v>0</v>
       </c>
-      <c r="G5" s="181">
+      <c r="G5" s="179">
         <f>条件输入!G15</f>
         <v>1598.3</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="180" t="s">
-        <v>322</v>
-      </c>
-      <c r="B6" s="177">
+      <c r="A6" s="178" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="175">
         <f>条件输入!B16</f>
         <v>1908.0029999999999</v>
       </c>
-      <c r="C6" s="177">
+      <c r="C6" s="175">
         <f>条件输入!C16</f>
         <v>0</v>
       </c>
-      <c r="D6" s="177">
+      <c r="D6" s="175">
         <f>条件输入!D16</f>
         <v>3560.0259999999998</v>
       </c>
-      <c r="E6" s="177">
+      <c r="E6" s="175">
         <f>条件输入!E16</f>
         <v>55861.254000000001</v>
       </c>
-      <c r="F6" s="177">
+      <c r="F6" s="175">
         <f>条件输入!F16</f>
         <v>0</v>
       </c>
-      <c r="G6" s="181">
+      <c r="G6" s="179">
         <f>条件输入!G16</f>
         <v>1598.3</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="180" t="s">
-        <v>323</v>
-      </c>
-      <c r="B7" s="177">
+      <c r="A7" s="178" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="175">
         <f>条件输入!B17</f>
         <v>345</v>
       </c>
-      <c r="C7" s="177">
+      <c r="C7" s="175">
         <f>条件输入!C17</f>
         <v>248.6</v>
       </c>
-      <c r="D7" s="177">
+      <c r="D7" s="175">
         <f>条件输入!D17</f>
         <v>136.19999999999999</v>
       </c>
-      <c r="E7" s="177">
+      <c r="E7" s="175">
         <f>条件输入!E17</f>
         <v>10685.4</v>
       </c>
-      <c r="F7" s="177">
+      <c r="F7" s="175">
         <f>条件输入!F17</f>
         <v>28881.3</v>
       </c>
-      <c r="G7" s="181">
+      <c r="G7" s="179">
         <f>条件输入!G17</f>
         <v>5033.3</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="182" t="s">
-        <v>324</v>
-      </c>
-      <c r="B8" s="178">
+      <c r="A8" s="180" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="176">
         <f>条件输入!B18</f>
         <v>283.5</v>
       </c>
-      <c r="C8" s="178">
+      <c r="C8" s="176">
         <f>条件输入!C18</f>
         <v>194.7</v>
       </c>
-      <c r="D8" s="178">
+      <c r="D8" s="176">
         <f>条件输入!D18</f>
         <v>106</v>
       </c>
-      <c r="E8" s="178">
+      <c r="E8" s="176">
         <f>条件输入!E18</f>
         <v>8481.4</v>
       </c>
-      <c r="F8" s="178">
+      <c r="F8" s="176">
         <f>条件输入!F18</f>
         <v>19153.400000000001</v>
       </c>
-      <c r="G8" s="183">
+      <c r="G8" s="181">
         <f>条件输入!G18</f>
         <v>3734.3</v>
       </c>
@@ -4745,243 +4826,243 @@
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="147" t="s">
-        <v>366</v>
+      <c r="A11" s="145" t="s">
+        <v>365</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="121" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="174" t="s">
         <v>327</v>
       </c>
-      <c r="B12" s="176" t="s">
+      <c r="C12" s="174" t="s">
         <v>328</v>
       </c>
-      <c r="C12" s="176" t="s">
+      <c r="D12" s="174" t="s">
+        <v>341</v>
+      </c>
+      <c r="E12" s="174" t="s">
         <v>329</v>
       </c>
-      <c r="D12" s="176" t="s">
-        <v>342</v>
-      </c>
-      <c r="E12" s="176" t="s">
+      <c r="F12" s="174" t="s">
         <v>330</v>
       </c>
-      <c r="F12" s="176" t="s">
+      <c r="G12" s="174" t="s">
         <v>331</v>
       </c>
-      <c r="G12" s="176" t="s">
+      <c r="H12" s="174" t="s">
         <v>332</v>
       </c>
-      <c r="H12" s="176" t="s">
+      <c r="I12" s="174" t="s">
         <v>333</v>
       </c>
-      <c r="I12" s="176" t="s">
+      <c r="J12" s="174" t="s">
         <v>334</v>
       </c>
-      <c r="J12" s="176" t="s">
+      <c r="K12" s="174" t="s">
         <v>335</v>
       </c>
-      <c r="K12" s="176" t="s">
+      <c r="L12" s="177" t="s">
         <v>336</v>
       </c>
-      <c r="L12" s="179" t="s">
+    </row>
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="178">
+        <v>1</v>
+      </c>
+      <c r="B13" s="175" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="180">
-        <v>1</v>
-      </c>
-      <c r="B13" s="177" t="s">
-        <v>338</v>
-      </c>
-      <c r="C13" s="177">
+      <c r="C13" s="175">
         <f>条件输入!C23</f>
         <v>3</v>
       </c>
-      <c r="D13" s="177">
+      <c r="D13" s="175">
         <f>条件输入!D23</f>
         <v>18</v>
       </c>
-      <c r="E13" s="177">
+      <c r="E13" s="175">
         <f>条件输入!E23</f>
         <v>5</v>
       </c>
-      <c r="F13" s="177">
+      <c r="F13" s="175">
         <f>条件输入!F23</f>
         <v>10</v>
       </c>
-      <c r="G13" s="177">
+      <c r="G13" s="175">
         <f>条件输入!G23</f>
         <v>18</v>
       </c>
-      <c r="H13" s="177">
+      <c r="H13" s="175">
         <f>条件输入!H23</f>
         <v>120</v>
       </c>
-      <c r="I13" s="177">
+      <c r="I13" s="175">
         <f>条件输入!I23</f>
         <v>3</v>
       </c>
-      <c r="J13" s="177">
+      <c r="J13" s="175">
         <f>条件输入!J23</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="K13" s="177">
+      <c r="K13" s="175">
         <f>条件输入!K23</f>
         <v>1.5</v>
       </c>
-      <c r="L13" s="181">
+      <c r="L13" s="179">
         <f>条件输入!L23</f>
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="180">
+      <c r="A14" s="178">
         <v>2</v>
       </c>
-      <c r="B14" s="177" t="s">
-        <v>339</v>
-      </c>
-      <c r="C14" s="177">
+      <c r="B14" s="175" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" s="175">
         <f>条件输入!C24</f>
         <v>20</v>
       </c>
-      <c r="D14" s="177">
+      <c r="D14" s="175">
         <f>条件输入!D24</f>
         <v>19</v>
       </c>
-      <c r="E14" s="177">
+      <c r="E14" s="175">
         <f>条件输入!E24</f>
         <v>10</v>
       </c>
-      <c r="F14" s="177">
+      <c r="F14" s="175">
         <f>条件输入!F24</f>
         <v>10</v>
       </c>
-      <c r="G14" s="177">
+      <c r="G14" s="175">
         <f>条件输入!G24</f>
         <v>20</v>
       </c>
-      <c r="H14" s="177">
+      <c r="H14" s="175">
         <f>条件输入!H24</f>
         <v>160</v>
       </c>
-      <c r="I14" s="177">
+      <c r="I14" s="175">
         <f>条件输入!I24</f>
         <v>3</v>
       </c>
-      <c r="J14" s="177">
+      <c r="J14" s="175">
         <f>条件输入!J24</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="K14" s="177">
+      <c r="K14" s="175">
         <f>条件输入!K24</f>
         <v>1.5</v>
       </c>
-      <c r="L14" s="181">
+      <c r="L14" s="179">
         <f>条件输入!L24</f>
         <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="180">
+      <c r="A15" s="178">
         <v>3</v>
       </c>
-      <c r="B15" s="177" t="s">
-        <v>340</v>
-      </c>
-      <c r="C15" s="177">
+      <c r="B15" s="175" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="175">
         <f>条件输入!C25</f>
         <v>0</v>
       </c>
-      <c r="D15" s="177">
+      <c r="D15" s="175">
         <f>条件输入!D25</f>
         <v>0</v>
       </c>
-      <c r="E15" s="177">
+      <c r="E15" s="175">
         <f>条件输入!E25</f>
         <v>0</v>
       </c>
-      <c r="F15" s="177">
+      <c r="F15" s="175">
         <f>条件输入!F25</f>
         <v>0</v>
       </c>
-      <c r="G15" s="177">
+      <c r="G15" s="175">
         <f>条件输入!G25</f>
         <v>0</v>
       </c>
-      <c r="H15" s="177">
+      <c r="H15" s="175">
         <f>条件输入!H25</f>
         <v>0</v>
       </c>
-      <c r="I15" s="177">
+      <c r="I15" s="175">
         <f>条件输入!I25</f>
         <v>0</v>
       </c>
-      <c r="J15" s="177">
+      <c r="J15" s="175">
         <f>条件输入!J25</f>
         <v>0</v>
       </c>
-      <c r="K15" s="177">
+      <c r="K15" s="175">
         <f>条件输入!K25</f>
         <v>0</v>
       </c>
-      <c r="L15" s="181">
+      <c r="L15" s="179">
         <f>条件输入!L25</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="182">
+      <c r="A16" s="180">
         <v>4</v>
       </c>
-      <c r="B16" s="178" t="s">
-        <v>341</v>
-      </c>
-      <c r="C16" s="178">
+      <c r="B16" s="176" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" s="176">
         <f>条件输入!C26</f>
         <v>0</v>
       </c>
-      <c r="D16" s="178">
+      <c r="D16" s="176">
         <f>条件输入!D26</f>
         <v>0</v>
       </c>
-      <c r="E16" s="178">
+      <c r="E16" s="176">
         <f>条件输入!E26</f>
         <v>0</v>
       </c>
-      <c r="F16" s="178">
+      <c r="F16" s="176">
         <f>条件输入!F26</f>
         <v>0</v>
       </c>
-      <c r="G16" s="178">
+      <c r="G16" s="176">
         <f>条件输入!G26</f>
         <v>0</v>
       </c>
-      <c r="H16" s="178">
+      <c r="H16" s="176">
         <f>条件输入!H26</f>
         <v>0</v>
       </c>
-      <c r="I16" s="178">
+      <c r="I16" s="176">
         <f>条件输入!I26</f>
         <v>0</v>
       </c>
-      <c r="J16" s="178">
+      <c r="J16" s="176">
         <f>条件输入!J26</f>
         <v>0</v>
       </c>
-      <c r="K16" s="178">
+      <c r="K16" s="176">
         <f>条件输入!K26</f>
         <v>0</v>
       </c>
-      <c r="L16" s="183">
+      <c r="L16" s="181">
         <f>条件输入!L26</f>
         <v>0</v>
       </c>
@@ -4990,292 +5071,292 @@
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>368</v>
-      </c>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="121" t="s">
+        <v>343</v>
+      </c>
+      <c r="B20" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="240" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" s="241"/>
+      <c r="E20" s="240" t="s">
+        <v>319</v>
+      </c>
+      <c r="F20" s="241"/>
+      <c r="G20" s="177" t="s">
         <v>344</v>
       </c>
-      <c r="B20" s="176" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>319</v>
-      </c>
-      <c r="D20" s="243"/>
-      <c r="E20" s="242" t="s">
-        <v>320</v>
-      </c>
-      <c r="F20" s="243"/>
-      <c r="G20" s="179" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="178"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="175" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="180"/>
-      <c r="B21" s="177"/>
-      <c r="C21" s="177" t="s">
+      <c r="D21" s="175" t="s">
         <v>346</v>
       </c>
-      <c r="D21" s="177" t="s">
+      <c r="E21" s="175" t="s">
+        <v>345</v>
+      </c>
+      <c r="F21" s="175" t="s">
+        <v>346</v>
+      </c>
+      <c r="G21" s="179"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="242" t="s">
         <v>347</v>
       </c>
-      <c r="E21" s="177" t="s">
-        <v>346</v>
-      </c>
-      <c r="F21" s="177" t="s">
-        <v>347</v>
-      </c>
-      <c r="G21" s="181"/>
-    </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="244" t="s">
+      <c r="B22" s="243"/>
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="243"/>
+      <c r="F22" s="243"/>
+      <c r="G22" s="244"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="178" t="s">
         <v>348</v>
       </c>
-      <c r="B22" s="245"/>
-      <c r="C22" s="245"/>
-      <c r="D22" s="245"/>
-      <c r="E22" s="245"/>
-      <c r="F22" s="245"/>
-      <c r="G22" s="246"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="180" t="s">
-        <v>349</v>
-      </c>
-      <c r="B23" s="177"/>
-      <c r="C23" s="177">
+      <c r="B23" s="175"/>
+      <c r="C23" s="175">
         <f>条件输入!C33</f>
         <v>0.23799999999999999</v>
       </c>
-      <c r="D23" s="177">
+      <c r="D23" s="175">
         <f>条件输入!D33</f>
         <v>0.25</v>
       </c>
-      <c r="E23" s="177">
+      <c r="E23" s="175">
         <f>条件输入!E33</f>
         <v>0.33800000000000002</v>
       </c>
-      <c r="F23" s="177">
+      <c r="F23" s="175">
         <f>条件输入!F33</f>
         <v>0.43</v>
       </c>
-      <c r="G23" s="181"/>
+      <c r="G23" s="179"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="180" t="s">
+      <c r="A24" s="178" t="s">
+        <v>349</v>
+      </c>
+      <c r="B24" s="175"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="179"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="178" t="s">
         <v>350</v>
       </c>
-      <c r="B24" s="177"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="181"/>
-    </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="180" t="s">
+      <c r="B25" s="175" t="s">
         <v>351</v>
       </c>
-      <c r="B25" s="177" t="s">
-        <v>352</v>
-      </c>
-      <c r="C25" s="177">
+      <c r="C25" s="175">
         <f>条件输入!C35</f>
         <v>85.85</v>
       </c>
-      <c r="D25" s="177">
+      <c r="D25" s="175">
         <f>条件输入!D35</f>
         <v>529</v>
       </c>
-      <c r="E25" s="177">
+      <c r="E25" s="175">
         <f>条件输入!E35</f>
         <v>94.634</v>
       </c>
-      <c r="F25" s="177">
+      <c r="F25" s="175">
         <f>条件输入!F35</f>
         <v>529</v>
       </c>
-      <c r="G25" s="181"/>
+      <c r="G25" s="179"/>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="180" t="s">
-        <v>353</v>
-      </c>
-      <c r="B26" s="177" t="s">
+      <c r="A26" s="178" t="s">
         <v>352</v>
       </c>
-      <c r="C26" s="177">
+      <c r="B26" s="175" t="s">
+        <v>351</v>
+      </c>
+      <c r="C26" s="175">
         <f>条件输入!C36</f>
         <v>167.44399999999999</v>
       </c>
-      <c r="D26" s="177">
+      <c r="D26" s="175">
         <f>条件输入!D36</f>
         <v>634.79999999999995</v>
       </c>
-      <c r="E26" s="177">
+      <c r="E26" s="175">
         <f>条件输入!E36</f>
         <v>204.95699999999999</v>
       </c>
-      <c r="F26" s="177">
+      <c r="F26" s="175">
         <f>条件输入!F36</f>
         <v>634.79999999999995</v>
       </c>
-      <c r="G26" s="181"/>
+      <c r="G26" s="179"/>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="244" t="s">
+      <c r="A27" s="242" t="s">
+        <v>353</v>
+      </c>
+      <c r="B27" s="243"/>
+      <c r="C27" s="243"/>
+      <c r="D27" s="243"/>
+      <c r="E27" s="243"/>
+      <c r="F27" s="243"/>
+      <c r="G27" s="244"/>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="178" t="s">
         <v>354</v>
       </c>
-      <c r="B27" s="245"/>
-      <c r="C27" s="245"/>
-      <c r="D27" s="245"/>
-      <c r="E27" s="245"/>
-      <c r="F27" s="245"/>
-      <c r="G27" s="246"/>
-    </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="180" t="s">
+      <c r="B28" s="175" t="s">
         <v>355</v>
       </c>
-      <c r="B28" s="177" t="s">
-        <v>356</v>
-      </c>
-      <c r="C28" s="177">
+      <c r="C28" s="175">
         <f>条件输入!C38</f>
         <v>21.475000000000001</v>
       </c>
-      <c r="D28" s="177">
+      <c r="D28" s="175">
         <f>条件输入!D38</f>
         <v>100</v>
       </c>
-      <c r="E28" s="177">
+      <c r="E28" s="175">
         <f>条件输入!E38</f>
         <v>21.978999999999999</v>
       </c>
-      <c r="F28" s="177">
+      <c r="F28" s="175">
         <f>条件输入!F38</f>
         <v>100</v>
       </c>
-      <c r="G28" s="181"/>
+      <c r="G28" s="179"/>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="180" t="s">
-        <v>357</v>
-      </c>
-      <c r="B29" s="177"/>
-      <c r="C29" s="177">
+      <c r="A29" s="178" t="s">
+        <v>356</v>
+      </c>
+      <c r="B29" s="175"/>
+      <c r="C29" s="175">
         <f>条件输入!C39</f>
         <v>1E-3</v>
       </c>
-      <c r="D29" s="177">
+      <c r="D29" s="175">
         <f>条件输入!D39</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E29" s="177">
+      <c r="E29" s="175">
         <f>条件输入!E39</f>
         <v>1E-3</v>
       </c>
-      <c r="F29" s="177">
+      <c r="F29" s="175">
         <f>条件输入!F39</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G29" s="181"/>
+      <c r="G29" s="179"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="244" t="s">
+      <c r="A30" s="242" t="s">
+        <v>357</v>
+      </c>
+      <c r="B30" s="243"/>
+      <c r="C30" s="243"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="243"/>
+      <c r="F30" s="243"/>
+      <c r="G30" s="244"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="178" t="s">
         <v>358</v>
       </c>
-      <c r="B30" s="245"/>
-      <c r="C30" s="245"/>
-      <c r="D30" s="245"/>
-      <c r="E30" s="245"/>
-      <c r="F30" s="245"/>
-      <c r="G30" s="246"/>
-    </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="180" t="s">
-        <v>359</v>
-      </c>
-      <c r="B31" s="177"/>
-      <c r="C31" s="177">
+      <c r="B31" s="175"/>
+      <c r="C31" s="175">
         <f>条件输入!C41</f>
         <v>3.9729999999999999</v>
       </c>
-      <c r="D31" s="177">
+      <c r="D31" s="175">
         <f>条件输入!D41</f>
         <v>1.6</v>
       </c>
-      <c r="E31" s="177">
+      <c r="E31" s="175">
         <f>条件输入!E41</f>
         <v>2.7970000000000002</v>
       </c>
-      <c r="F31" s="177">
+      <c r="F31" s="175">
         <f>条件输入!F41</f>
         <v>1.6</v>
       </c>
-      <c r="G31" s="181"/>
+      <c r="G31" s="179"/>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="182" t="s">
-        <v>360</v>
-      </c>
-      <c r="B32" s="178"/>
-      <c r="C32" s="178">
+      <c r="A32" s="180" t="s">
+        <v>359</v>
+      </c>
+      <c r="B32" s="176"/>
+      <c r="C32" s="176">
         <f>条件输入!C42</f>
         <v>11.586</v>
       </c>
-      <c r="D32" s="178">
+      <c r="D32" s="176">
         <f>条件输入!D42</f>
         <v>1.3</v>
       </c>
-      <c r="E32" s="178">
+      <c r="E32" s="176">
         <f>条件输入!E42</f>
         <v>3.9729999999999999</v>
       </c>
-      <c r="F32" s="178">
+      <c r="F32" s="176">
         <f>条件输入!F42</f>
         <v>1.3</v>
       </c>
-      <c r="G32" s="183"/>
+      <c r="G32" s="181"/>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B35" s="195"/>
-      <c r="C35" s="195" t="s">
-        <v>369</v>
-      </c>
-      <c r="D35" s="195"/>
-      <c r="E35" s="195"/>
-      <c r="F35" s="195"/>
+        <v>385</v>
+      </c>
+      <c r="B35" s="193"/>
+      <c r="C35" s="193" t="s">
+        <v>368</v>
+      </c>
+      <c r="D35" s="193"/>
+      <c r="E35" s="193"/>
+      <c r="F35" s="193"/>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="203" t="s">
+      <c r="A36" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="196" t="s">
+      <c r="B36" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="196" t="s">
+      <c r="C36" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="197" t="str">
+      <c r="D36" s="195" t="str">
         <f>条件输入!D46</f>
         <v>单台</v>
       </c>
-      <c r="E36" s="197">
+      <c r="E36" s="195">
         <f>条件输入!E46</f>
         <v>15</v>
       </c>
-      <c r="F36" s="198" t="s">
+      <c r="F36" s="196" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5289,11 +5370,11 @@
       <c r="C37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="197">
         <f>条件输入!D47</f>
         <v>1257.2889419115372</v>
       </c>
-      <c r="E37" s="199">
+      <c r="E37" s="197">
         <f>条件输入!E47</f>
         <v>18859.334128673057</v>
       </c>
@@ -5309,11 +5390,11 @@
       <c r="C38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="197">
         <f>条件输入!D48</f>
         <v>314.32223547788419</v>
       </c>
-      <c r="E38" s="199">
+      <c r="E38" s="197">
         <f>条件输入!E48</f>
         <v>4714.8335321682625</v>
       </c>
@@ -5329,11 +5410,11 @@
       <c r="C39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="197">
         <f>条件输入!D49</f>
         <v>920.15730387195788</v>
       </c>
-      <c r="E39" s="199">
+      <c r="E39" s="197">
         <f>条件输入!E49</f>
         <v>13802.359558079368</v>
       </c>
@@ -5344,16 +5425,16 @@
         <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="197">
         <f>条件输入!D50</f>
         <v>600.97358466233754</v>
       </c>
-      <c r="E40" s="199">
+      <c r="E40" s="197">
         <f>条件输入!E50</f>
         <v>9014.6037699350636</v>
       </c>
@@ -5369,11 +5450,11 @@
       <c r="C41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="197">
         <f>条件输入!D51</f>
         <v>50.480288855125885</v>
       </c>
-      <c r="E41" s="199">
+      <c r="E41" s="197">
         <f>条件输入!E51</f>
         <v>757.20433282688828</v>
       </c>
@@ -5389,11 +5470,11 @@
       <c r="C42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="197">
         <f>条件输入!D52</f>
         <v>60.097358466233757</v>
       </c>
-      <c r="E42" s="199">
+      <c r="E42" s="197">
         <f>条件输入!E52</f>
         <v>901.46037699350632</v>
       </c>
@@ -5457,7 +5538,7 @@
         <f>条件输入!E55</f>
         <v>0</v>
       </c>
-      <c r="F45" s="200"/>
+      <c r="F45" s="198"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="74">
@@ -5477,184 +5558,184 @@
         <f>条件输入!E56</f>
         <v>8280</v>
       </c>
-      <c r="F46" s="201"/>
+      <c r="F46" s="199"/>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C49" s="50" t="s">
         <v>370</v>
       </c>
-      <c r="C49" s="50" t="s">
-        <v>371</v>
-      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="123" t="s">
+      <c r="A50" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="176" t="s">
+      <c r="B50" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="176" t="s">
+      <c r="C50" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="204" t="str">
+      <c r="D50" s="202" t="str">
         <f>条件输入!D61</f>
         <v>单台</v>
       </c>
-      <c r="E50" s="204">
+      <c r="E50" s="202">
         <f>条件输入!E61</f>
         <v>15</v>
       </c>
-      <c r="F50" s="179" t="s">
+      <c r="F50" s="177" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="180">
+      <c r="A51" s="178">
         <v>1</v>
       </c>
-      <c r="B51" s="177" t="s">
+      <c r="B51" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="177" t="s">
+      <c r="C51" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="D51" s="205">
+      <c r="D51" s="203">
         <f>条件输入!D62</f>
         <v>49.28</v>
       </c>
-      <c r="E51" s="205">
+      <c r="E51" s="203">
         <f>条件输入!E62</f>
         <v>739.2</v>
       </c>
-      <c r="F51" s="181"/>
+      <c r="F51" s="179"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="180">
+      <c r="A52" s="178">
         <v>2</v>
       </c>
-      <c r="B52" s="177" t="s">
+      <c r="B52" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="177" t="s">
+      <c r="C52" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="205">
+      <c r="D52" s="203">
         <f>条件输入!D63</f>
         <v>12.319999999999997</v>
       </c>
-      <c r="E52" s="205">
+      <c r="E52" s="203">
         <f>条件输入!E63</f>
         <v>184.79999999999995</v>
       </c>
-      <c r="F52" s="181"/>
+      <c r="F52" s="179"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="180">
+      <c r="A53" s="178">
         <v>3</v>
       </c>
-      <c r="B53" s="177" t="s">
+      <c r="B53" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="177" t="s">
+      <c r="C53" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="D53" s="205">
+      <c r="D53" s="203">
         <f>条件输入!D64</f>
         <v>18.399999999999991</v>
       </c>
-      <c r="E53" s="205">
+      <c r="E53" s="203">
         <f>条件输入!E64</f>
         <v>275.99999999999989</v>
       </c>
-      <c r="F53" s="181"/>
+      <c r="F53" s="179"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="180">
+      <c r="A54" s="178">
         <v>4</v>
       </c>
-      <c r="B54" s="177" t="s">
+      <c r="B54" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="177" t="s">
+      <c r="C54" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="D54" s="205">
+      <c r="D54" s="203">
         <f>条件输入!D65</f>
         <v>2.5</v>
       </c>
-      <c r="E54" s="205">
+      <c r="E54" s="203">
         <f>条件输入!E65</f>
         <v>37.5</v>
       </c>
-      <c r="F54" s="181"/>
+      <c r="F54" s="179"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="180">
+      <c r="A55" s="178">
         <v>5</v>
       </c>
-      <c r="B55" s="177" t="s">
+      <c r="B55" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="177" t="s">
+      <c r="C55" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="D55" s="205">
+      <c r="D55" s="203">
         <f>条件输入!D66</f>
         <v>5.7749999999999995</v>
       </c>
-      <c r="E55" s="205">
+      <c r="E55" s="203">
         <f>条件输入!E66</f>
         <v>86.624999999999986</v>
       </c>
-      <c r="F55" s="181"/>
+      <c r="F55" s="179"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="180">
+      <c r="A56" s="178">
         <v>6</v>
       </c>
-      <c r="B56" s="177" t="s">
+      <c r="B56" s="175" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="177" t="s">
+      <c r="C56" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="D56" s="205">
+      <c r="D56" s="203">
         <f>条件输入!D67</f>
         <v>6.5</v>
       </c>
-      <c r="E56" s="205">
+      <c r="E56" s="203">
         <f>条件输入!E67</f>
         <v>97.5</v>
       </c>
-      <c r="F56" s="181"/>
+      <c r="F56" s="179"/>
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="182">
+      <c r="A57" s="180">
         <v>7</v>
       </c>
-      <c r="B57" s="178" t="s">
+      <c r="B57" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="178" t="s">
+      <c r="C57" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="206">
+      <c r="D57" s="204">
         <f>条件输入!D68</f>
         <v>0.25</v>
       </c>
-      <c r="E57" s="206">
+      <c r="E57" s="204">
         <f>条件输入!E68</f>
         <v>3.75</v>
       </c>
-      <c r="F57" s="183"/>
+      <c r="F57" s="181"/>
     </row>
     <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -5667,7 +5748,7 @@
       <c r="C61" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="207" t="str">
+      <c r="D61" s="205" t="str">
         <f>条件输入!D72</f>
         <v>工程量</v>
       </c>
@@ -5676,57 +5757,57 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="208">
+      <c r="A62" s="206">
         <v>1</v>
       </c>
       <c r="B62" s="93" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C62" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="D62" s="209">
+      <c r="D62" s="207">
         <f>条件输入!D73</f>
         <v>10186.413</v>
       </c>
       <c r="E62" s="95"/>
     </row>
     <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="208">
+      <c r="A63" s="206">
         <v>2</v>
       </c>
       <c r="B63" s="93" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C63" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="209">
+      <c r="D63" s="207">
         <f>条件输入!D74</f>
         <v>12305.512999999999</v>
       </c>
       <c r="E63" s="95"/>
     </row>
     <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="208">
+      <c r="A64" s="206">
         <v>3</v>
       </c>
       <c r="B64" s="93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C64" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="D64" s="209">
+      <c r="D64" s="207">
         <f>条件输入!D75</f>
         <v>403.82</v>
       </c>
       <c r="E64" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="208">
+      <c r="A65" s="206">
         <v>4</v>
       </c>
       <c r="B65" s="93" t="s">
@@ -5735,14 +5816,14 @@
       <c r="C65" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="209">
+      <c r="D65" s="207">
         <f>条件输入!D76</f>
         <v>29533.231199999998</v>
       </c>
       <c r="E65" s="96"/>
     </row>
     <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="208">
+      <c r="A66" s="206">
         <v>5</v>
       </c>
       <c r="B66" s="93" t="s">
@@ -5751,46 +5832,46 @@
       <c r="C66" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="209">
+      <c r="D66" s="207">
         <f>条件输入!D77</f>
         <v>7383.3077999999978</v>
       </c>
       <c r="E66" s="95"/>
     </row>
     <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="208">
+      <c r="A67" s="206">
         <v>6</v>
       </c>
       <c r="B67" s="93" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C67" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="209">
+      <c r="D67" s="207">
         <f>条件输入!D78</f>
         <v>6152.7564999999995</v>
       </c>
       <c r="E67" s="95"/>
     </row>
     <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="208">
+      <c r="A68" s="206">
         <v>7</v>
       </c>
       <c r="B68" s="93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C68" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="209">
+      <c r="D68" s="207">
         <f>条件输入!D79</f>
         <v>403.82</v>
       </c>
       <c r="E68" s="95"/>
     </row>
     <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="208">
+      <c r="A69" s="206">
         <v>8</v>
       </c>
       <c r="B69" s="93" t="s">
@@ -5799,265 +5880,265 @@
       <c r="C69" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="209">
+      <c r="D69" s="207">
         <f>条件输入!D80</f>
         <v>201.91</v>
       </c>
       <c r="E69" s="95" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="206">
+        <v>9</v>
+      </c>
+      <c r="B70" s="93" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="208">
-        <v>9</v>
-      </c>
-      <c r="B70" s="93" t="s">
-        <v>219</v>
       </c>
       <c r="C70" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="D70" s="209">
+      <c r="D70" s="207">
         <f>条件输入!D81</f>
         <v>1993.67</v>
       </c>
       <c r="E70" s="95" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="208">
+      <c r="A71" s="206">
         <v>10</v>
       </c>
       <c r="B71" s="93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C71" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="209">
+      <c r="D71" s="207">
         <f>条件输入!D82</f>
         <v>1200</v>
       </c>
       <c r="E71" s="95"/>
     </row>
     <row r="72" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="208">
+      <c r="A72" s="206">
         <v>11</v>
       </c>
       <c r="B72" s="93" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C72" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="D72" s="209">
+      <c r="D72" s="207">
         <f>条件输入!D83</f>
         <v>1316.8</v>
       </c>
       <c r="E72" s="95"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="208">
+      <c r="A73" s="206">
         <v>12</v>
       </c>
       <c r="B73" s="93" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C73" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="D73" s="209">
+      <c r="D73" s="207">
         <f>条件输入!D84</f>
         <v>510</v>
       </c>
       <c r="E73" s="95"/>
     </row>
     <row r="74" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="208">
+      <c r="A74" s="206">
         <v>13</v>
       </c>
       <c r="B74" s="93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C74" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="D74" s="209">
+      <c r="D74" s="207">
         <f>条件输入!D85</f>
         <v>370.44</v>
       </c>
       <c r="E74" s="95"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="208">
+      <c r="A75" s="206">
         <v>14</v>
       </c>
       <c r="B75" s="93" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C75" s="94"/>
-      <c r="D75" s="209">
+      <c r="D75" s="207">
         <f>条件输入!D86</f>
         <v>0</v>
       </c>
       <c r="E75" s="95"/>
     </row>
     <row r="76" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="208">
+      <c r="A76" s="206">
         <v>15</v>
       </c>
       <c r="B76" s="93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C76" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="209">
+      <c r="D76" s="207">
         <f>条件输入!D87</f>
         <v>120</v>
       </c>
       <c r="E76" s="95"/>
     </row>
     <row r="77" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A77" s="208">
+      <c r="A77" s="206">
         <v>16</v>
       </c>
       <c r="B77" s="93" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C77" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="209">
+      <c r="D77" s="207">
         <f>条件输入!D88</f>
         <v>20</v>
       </c>
       <c r="E77" s="95"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="208">
+      <c r="A78" s="206">
         <v>17</v>
       </c>
       <c r="B78" s="93" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C78" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="209">
+      <c r="D78" s="207">
         <f>条件输入!D89</f>
         <v>10</v>
       </c>
       <c r="E78" s="95"/>
     </row>
     <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="208">
+      <c r="A79" s="206">
         <v>18</v>
       </c>
       <c r="B79" s="93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C79" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="209">
+      <c r="D79" s="207">
         <f>条件输入!D90</f>
         <v>60</v>
       </c>
       <c r="E79" s="95"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="208">
+      <c r="A80" s="206">
         <v>19</v>
       </c>
       <c r="B80" s="93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C80" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="209">
+      <c r="D80" s="207">
         <f>条件输入!D91</f>
         <v>10</v>
       </c>
       <c r="E80" s="95"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="208">
+      <c r="A81" s="206">
         <v>20</v>
       </c>
       <c r="B81" s="93" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C81" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="209">
+      <c r="D81" s="207">
         <f>条件输入!D92</f>
         <v>2</v>
       </c>
       <c r="E81" s="95"/>
     </row>
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="208">
+      <c r="A82" s="206">
         <v>21</v>
       </c>
       <c r="B82" s="93" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D82" s="209">
+      <c r="D82" s="207">
         <f>条件输入!D93</f>
         <v>200</v>
       </c>
       <c r="E82" s="95"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="208">
+      <c r="A83" s="206">
         <v>22</v>
       </c>
       <c r="B83" s="93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C83" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="209">
+      <c r="D83" s="207">
         <f>条件输入!D94</f>
         <v>5</v>
       </c>
       <c r="E83" s="95"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="208">
+      <c r="A84" s="206">
         <v>23</v>
       </c>
       <c r="B84" s="93" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C84" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="D84" s="209">
+      <c r="D84" s="207">
         <f>条件输入!D95</f>
         <v>150</v>
       </c>
       <c r="E84" s="95"/>
     </row>
     <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="210">
+      <c r="A85" s="208">
         <v>24</v>
       </c>
       <c r="B85" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="C85" s="99" t="s">
-        <v>233</v>
-      </c>
-      <c r="D85" s="209">
+      <c r="D85" s="207">
         <f>条件输入!D96</f>
         <v>2</v>
       </c>
@@ -6065,1589 +6146,1589 @@
     </row>
     <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C88" s="193" t="s">
-        <v>392</v>
+        <v>373</v>
+      </c>
+      <c r="C88" s="191" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="123" t="s">
+      <c r="A89" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="B89" s="211" t="s">
+      <c r="B89" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="211" t="s">
+      <c r="C89" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="D89" s="212" t="str">
+      <c r="D89" s="210" t="str">
         <f>条件输入!D100</f>
         <v>数量/km</v>
       </c>
-      <c r="E89" s="212" t="str">
+      <c r="E89" s="210" t="str">
         <f>条件输入!E100</f>
         <v>合计</v>
       </c>
-      <c r="F89" s="213" t="s">
+      <c r="F89" s="211" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="180" t="s">
+      <c r="A90" s="178" t="s">
         <v>127</v>
       </c>
-      <c r="B90" s="184" t="s">
+      <c r="B90" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="185" t="s">
+      <c r="C90" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="214">
+      <c r="D90" s="212">
         <f>条件输入!D101</f>
         <v>0</v>
       </c>
-      <c r="E90" s="214">
+      <c r="E90" s="212">
         <f>条件输入!E101</f>
         <v>5</v>
       </c>
-      <c r="F90" s="189"/>
+      <c r="F90" s="187"/>
     </row>
     <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="180">
+      <c r="A91" s="178">
         <v>1</v>
       </c>
-      <c r="B91" s="184" t="s">
+      <c r="B91" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="185" t="s">
+      <c r="C91" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="214">
+      <c r="D91" s="212">
         <f>条件输入!D102</f>
         <v>4000</v>
       </c>
-      <c r="E91" s="214">
+      <c r="E91" s="212">
         <f>条件输入!E102</f>
         <v>20000</v>
       </c>
-      <c r="F91" s="186"/>
+      <c r="F91" s="184"/>
     </row>
     <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="180">
+      <c r="A92" s="178">
         <v>2</v>
       </c>
-      <c r="B92" s="184" t="s">
+      <c r="B92" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="185" t="s">
+      <c r="C92" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D92" s="214">
+      <c r="D92" s="212">
         <f>条件输入!D103</f>
         <v>999.99999999999977</v>
       </c>
-      <c r="E92" s="214">
+      <c r="E92" s="212">
         <f>条件输入!E103</f>
         <v>4999.9999999999991</v>
       </c>
-      <c r="F92" s="186"/>
+      <c r="F92" s="184"/>
     </row>
     <row r="93" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="180">
+      <c r="A93" s="178">
         <v>3</v>
       </c>
-      <c r="B93" s="184" t="s">
+      <c r="B93" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="185" t="s">
+      <c r="C93" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="214">
+      <c r="D93" s="212">
         <f>条件输入!D104</f>
         <v>1250</v>
       </c>
-      <c r="E93" s="214">
+      <c r="E93" s="212">
         <f>条件输入!E104</f>
         <v>6250</v>
       </c>
-      <c r="F93" s="186"/>
+      <c r="F93" s="184"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="180">
+      <c r="A94" s="178">
         <v>4</v>
       </c>
-      <c r="B94" s="184" t="s">
-        <v>393</v>
-      </c>
-      <c r="C94" s="185" t="s">
+      <c r="B94" s="182" t="s">
+        <v>392</v>
+      </c>
+      <c r="C94" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="214">
+      <c r="D94" s="212">
         <f>条件输入!D105</f>
         <v>2500</v>
       </c>
-      <c r="E94" s="214">
+      <c r="E94" s="212">
         <f>条件输入!E105</f>
         <v>12500</v>
       </c>
-      <c r="F94" s="186"/>
+      <c r="F94" s="184"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="180">
+      <c r="A95" s="178">
         <v>5</v>
       </c>
-      <c r="B95" s="187" t="s">
-        <v>394</v>
-      </c>
-      <c r="C95" s="185" t="s">
+      <c r="B95" s="185" t="s">
+        <v>393</v>
+      </c>
+      <c r="C95" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="D95" s="214">
+      <c r="D95" s="212">
         <f>条件输入!D106</f>
         <v>0</v>
       </c>
-      <c r="E95" s="214">
+      <c r="E95" s="212">
         <f>条件输入!E106</f>
         <v>0</v>
       </c>
-      <c r="F95" s="186"/>
+      <c r="F95" s="184"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A96" s="180">
+      <c r="A96" s="178">
         <v>6</v>
       </c>
-      <c r="B96" s="184" t="s">
+      <c r="B96" s="182" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="185" t="s">
+      <c r="C96" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="214">
+      <c r="D96" s="212">
         <f>条件输入!D107</f>
         <v>475</v>
       </c>
-      <c r="E96" s="214">
+      <c r="E96" s="212">
         <f>条件输入!E107</f>
         <v>2375</v>
       </c>
-      <c r="F96" s="186"/>
+      <c r="F96" s="184"/>
     </row>
     <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A97" s="180">
+      <c r="A97" s="178">
         <v>7</v>
       </c>
-      <c r="B97" s="187" t="s">
-        <v>395</v>
-      </c>
-      <c r="C97" s="185" t="s">
+      <c r="B97" s="185" t="s">
+        <v>394</v>
+      </c>
+      <c r="C97" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="214">
+      <c r="D97" s="212">
         <f>条件输入!D108</f>
         <v>150</v>
       </c>
-      <c r="E97" s="214">
+      <c r="E97" s="212">
         <f>条件输入!E108</f>
         <v>750</v>
       </c>
-      <c r="F97" s="186"/>
+      <c r="F97" s="184"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A98" s="180">
+      <c r="A98" s="178">
         <v>8</v>
       </c>
-      <c r="B98" s="184" t="s">
+      <c r="B98" s="182" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="185" t="s">
+      <c r="C98" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="D98" s="214">
+      <c r="D98" s="212">
         <f>条件输入!D109</f>
         <v>2000</v>
       </c>
-      <c r="E98" s="214">
+      <c r="E98" s="212">
         <f>条件输入!E109</f>
         <v>10000</v>
       </c>
-      <c r="F98" s="186"/>
+      <c r="F98" s="184"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" s="180" t="s">
+      <c r="A99" s="178" t="s">
         <v>128</v>
       </c>
-      <c r="B99" s="184" t="s">
+      <c r="B99" s="182" t="s">
         <v>92</v>
       </c>
-      <c r="C99" s="185" t="s">
+      <c r="C99" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="D99" s="214">
+      <c r="D99" s="212">
         <f>条件输入!D110</f>
         <v>0</v>
       </c>
-      <c r="E99" s="214">
+      <c r="E99" s="212">
         <f>条件输入!E110</f>
         <v>1.5</v>
       </c>
-      <c r="F99" s="186"/>
+      <c r="F99" s="184"/>
     </row>
     <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A100" s="180">
+      <c r="A100" s="178">
         <v>1</v>
       </c>
-      <c r="B100" s="184" t="s">
+      <c r="B100" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="C100" s="185" t="s">
+      <c r="C100" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="214">
+      <c r="D100" s="212">
         <f>条件输入!D111</f>
         <v>12000</v>
       </c>
-      <c r="E100" s="214">
+      <c r="E100" s="212">
         <f>条件输入!E111</f>
         <v>18000</v>
       </c>
-      <c r="F100" s="186"/>
+      <c r="F100" s="184"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A101" s="180">
+      <c r="A101" s="178">
         <v>2</v>
       </c>
-      <c r="B101" s="184" t="s">
+      <c r="B101" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="185" t="s">
+      <c r="C101" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="214">
+      <c r="D101" s="212">
         <f>条件输入!D112</f>
         <v>2999.9999999999995</v>
       </c>
-      <c r="E101" s="214">
+      <c r="E101" s="212">
         <f>条件输入!E112</f>
         <v>4499.9999999999991</v>
       </c>
-      <c r="F101" s="186"/>
+      <c r="F101" s="184"/>
     </row>
     <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A102" s="180">
+      <c r="A102" s="178">
         <v>3</v>
       </c>
-      <c r="B102" s="184" t="s">
+      <c r="B102" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="185" t="s">
+      <c r="C102" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D102" s="214">
+      <c r="D102" s="212">
         <f>条件输入!D113</f>
         <v>4500</v>
       </c>
-      <c r="E102" s="214">
+      <c r="E102" s="212">
         <f>条件输入!E113</f>
         <v>6750</v>
       </c>
-      <c r="F102" s="186"/>
+      <c r="F102" s="184"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="180">
+      <c r="A103" s="178">
         <v>4</v>
       </c>
-      <c r="B103" s="184" t="s">
-        <v>396</v>
-      </c>
-      <c r="C103" s="185" t="s">
+      <c r="B103" s="182" t="s">
+        <v>395</v>
+      </c>
+      <c r="C103" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="D103" s="214">
+      <c r="D103" s="212">
         <f>条件输入!D114</f>
         <v>6500</v>
       </c>
-      <c r="E103" s="214">
+      <c r="E103" s="212">
         <f>条件输入!E114</f>
         <v>9750</v>
       </c>
-      <c r="F103" s="186"/>
+      <c r="F103" s="184"/>
     </row>
     <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="180">
+      <c r="A104" s="178">
         <v>5</v>
       </c>
-      <c r="B104" s="184" t="s">
-        <v>387</v>
-      </c>
-      <c r="C104" s="185" t="s">
+      <c r="B104" s="182" t="s">
+        <v>386</v>
+      </c>
+      <c r="C104" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="D104" s="214">
+      <c r="D104" s="212">
         <f>条件输入!D115</f>
         <v>6000</v>
       </c>
-      <c r="E104" s="214">
+      <c r="E104" s="212">
         <f>条件输入!E115</f>
         <v>9000</v>
       </c>
-      <c r="F104" s="186"/>
+      <c r="F104" s="184"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A105" s="180">
+      <c r="A105" s="178">
         <v>6</v>
       </c>
-      <c r="B105" s="187" t="s">
-        <v>394</v>
-      </c>
-      <c r="C105" s="185" t="s">
+      <c r="B105" s="185" t="s">
+        <v>393</v>
+      </c>
+      <c r="C105" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="214">
+      <c r="D105" s="212">
         <f>条件输入!D116</f>
         <v>20</v>
       </c>
-      <c r="E105" s="214">
+      <c r="E105" s="212">
         <f>条件输入!E116</f>
         <v>30</v>
       </c>
-      <c r="F105" s="186"/>
+      <c r="F105" s="184"/>
     </row>
     <row r="106" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A106" s="180">
+      <c r="A106" s="178">
         <v>7</v>
       </c>
-      <c r="B106" s="184" t="s">
+      <c r="B106" s="182" t="s">
         <v>102</v>
       </c>
-      <c r="C106" s="185" t="s">
+      <c r="C106" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D106" s="214">
+      <c r="D106" s="212">
         <f>条件输入!D117</f>
         <v>475</v>
       </c>
-      <c r="E106" s="214">
+      <c r="E106" s="212">
         <f>条件输入!E117</f>
         <v>712.5</v>
       </c>
-      <c r="F106" s="186"/>
+      <c r="F106" s="184"/>
     </row>
     <row r="107" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A107" s="180">
+      <c r="A107" s="178">
         <v>8</v>
       </c>
-      <c r="B107" s="187" t="s">
-        <v>397</v>
-      </c>
-      <c r="C107" s="185" t="s">
+      <c r="B107" s="185" t="s">
+        <v>396</v>
+      </c>
+      <c r="C107" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D107" s="214">
+      <c r="D107" s="212">
         <f>条件输入!D118</f>
         <v>300</v>
       </c>
-      <c r="E107" s="214">
+      <c r="E107" s="212">
         <f>条件输入!E118</f>
         <v>450</v>
       </c>
-      <c r="F107" s="186"/>
+      <c r="F107" s="184"/>
     </row>
     <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A108" s="180">
+      <c r="A108" s="178">
         <v>9</v>
       </c>
-      <c r="B108" s="184" t="s">
+      <c r="B108" s="182" t="s">
         <v>104</v>
       </c>
-      <c r="C108" s="185" t="s">
+      <c r="C108" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="D108" s="214">
+      <c r="D108" s="212">
         <f>条件输入!D119</f>
         <v>6000</v>
       </c>
-      <c r="E108" s="214">
+      <c r="E108" s="212">
         <f>条件输入!E119</f>
         <v>9000</v>
       </c>
-      <c r="F108" s="186"/>
+      <c r="F108" s="184"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A109" s="180">
+      <c r="A109" s="178">
         <v>10</v>
       </c>
-      <c r="B109" s="184" t="s">
+      <c r="B109" s="182" t="s">
         <v>147</v>
       </c>
-      <c r="C109" s="188" t="s">
+      <c r="C109" s="186" t="s">
         <v>149</v>
       </c>
-      <c r="D109" s="214">
+      <c r="D109" s="212">
         <f>条件输入!D120</f>
         <v>2</v>
       </c>
-      <c r="E109" s="214">
+      <c r="E109" s="212">
         <f>条件输入!E120</f>
         <v>3</v>
       </c>
-      <c r="F109" s="186"/>
+      <c r="F109" s="184"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A110" s="180">
+      <c r="A110" s="178">
         <v>11</v>
       </c>
-      <c r="B110" s="184" t="s">
+      <c r="B110" s="182" t="s">
         <v>148</v>
       </c>
-      <c r="C110" s="185" t="s">
+      <c r="C110" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="D110" s="214">
+      <c r="D110" s="212">
         <f>条件输入!D121</f>
         <v>200</v>
       </c>
-      <c r="E110" s="214">
+      <c r="E110" s="212">
         <f>条件输入!E121</f>
         <v>300</v>
       </c>
-      <c r="F110" s="186"/>
+      <c r="F110" s="184"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A111" s="180" t="s">
+      <c r="A111" s="178" t="s">
         <v>129</v>
       </c>
-      <c r="B111" s="184" t="s">
+      <c r="B111" s="182" t="s">
         <v>105</v>
       </c>
-      <c r="C111" s="185" t="s">
+      <c r="C111" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="D111" s="214">
+      <c r="D111" s="212">
         <f>条件输入!D122</f>
         <v>0</v>
       </c>
-      <c r="E111" s="214">
+      <c r="E111" s="212">
         <f>条件输入!E122</f>
         <v>10</v>
       </c>
-      <c r="F111" s="186"/>
+      <c r="F111" s="184"/>
     </row>
     <row r="112" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A112" s="180">
+      <c r="A112" s="178">
         <v>1</v>
       </c>
-      <c r="B112" s="184" t="s">
+      <c r="B112" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="C112" s="185" t="s">
+      <c r="C112" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D112" s="214">
+      <c r="D112" s="212">
         <f>条件输入!D123</f>
         <v>12000</v>
       </c>
-      <c r="E112" s="214">
+      <c r="E112" s="212">
         <f>条件输入!E123</f>
         <v>120000</v>
       </c>
-      <c r="F112" s="189"/>
+      <c r="F112" s="187"/>
     </row>
     <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A113" s="180">
+      <c r="A113" s="178">
         <v>2</v>
       </c>
-      <c r="B113" s="184" t="s">
+      <c r="B113" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="185" t="s">
+      <c r="C113" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D113" s="214">
+      <c r="D113" s="212">
         <f>条件输入!D124</f>
         <v>2999.9999999999995</v>
       </c>
-      <c r="E113" s="214">
+      <c r="E113" s="212">
         <f>条件输入!E124</f>
         <v>29999.999999999996</v>
       </c>
-      <c r="F113" s="189"/>
+      <c r="F113" s="187"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A114" s="180">
+      <c r="A114" s="178">
         <v>3</v>
       </c>
-      <c r="B114" s="184" t="s">
+      <c r="B114" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="C114" s="185" t="s">
+      <c r="C114" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D114" s="214">
+      <c r="D114" s="212">
         <f>条件输入!D125</f>
         <v>4500</v>
       </c>
-      <c r="E114" s="214">
+      <c r="E114" s="212">
         <f>条件输入!E125</f>
         <v>45000</v>
       </c>
-      <c r="F114" s="189"/>
+      <c r="F114" s="187"/>
     </row>
     <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="180">
+      <c r="A115" s="178">
         <v>4</v>
       </c>
-      <c r="B115" s="184" t="s">
+      <c r="B115" s="182" t="s">
         <v>120</v>
       </c>
-      <c r="C115" s="185" t="s">
+      <c r="C115" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="D115" s="214">
+      <c r="D115" s="212">
         <f>条件输入!D126</f>
         <v>6000</v>
       </c>
-      <c r="E115" s="214">
+      <c r="E115" s="212">
         <f>条件输入!E126</f>
         <v>60000</v>
       </c>
-      <c r="F115" s="189"/>
+      <c r="F115" s="187"/>
     </row>
     <row r="116" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="180">
+      <c r="A116" s="178">
         <v>5</v>
       </c>
-      <c r="B116" s="184" t="s">
-        <v>388</v>
-      </c>
-      <c r="C116" s="185" t="s">
+      <c r="B116" s="182" t="s">
+        <v>387</v>
+      </c>
+      <c r="C116" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="D116" s="214">
+      <c r="D116" s="212">
         <f>条件输入!D127</f>
         <v>0</v>
       </c>
-      <c r="E116" s="214">
+      <c r="E116" s="212">
         <f>条件输入!E127</f>
         <v>0</v>
       </c>
-      <c r="F116" s="189"/>
+      <c r="F116" s="187"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A117" s="180">
+      <c r="A117" s="178">
         <v>6</v>
       </c>
-      <c r="B117" s="187" t="s">
-        <v>398</v>
-      </c>
-      <c r="C117" s="185" t="s">
+      <c r="B117" s="185" t="s">
+        <v>397</v>
+      </c>
+      <c r="C117" s="183" t="s">
         <v>101</v>
       </c>
-      <c r="D117" s="214">
+      <c r="D117" s="212">
         <f>条件输入!D128</f>
         <v>20</v>
       </c>
-      <c r="E117" s="214">
+      <c r="E117" s="212">
         <f>条件输入!E128</f>
         <v>200</v>
       </c>
-      <c r="F117" s="189"/>
+      <c r="F117" s="187"/>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="180">
+      <c r="A118" s="178">
         <v>7</v>
       </c>
-      <c r="B118" s="184" t="s">
+      <c r="B118" s="182" t="s">
         <v>107</v>
       </c>
-      <c r="C118" s="185" t="s">
+      <c r="C118" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D118" s="214">
+      <c r="D118" s="212">
         <f>条件输入!D129</f>
         <v>475</v>
       </c>
-      <c r="E118" s="214">
+      <c r="E118" s="212">
         <f>条件输入!E129</f>
         <v>4750</v>
       </c>
-      <c r="F118" s="189"/>
+      <c r="F118" s="187"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A119" s="180">
+      <c r="A119" s="178">
         <v>8</v>
       </c>
-      <c r="B119" s="187" t="s">
-        <v>395</v>
-      </c>
-      <c r="C119" s="185" t="s">
+      <c r="B119" s="185" t="s">
+        <v>394</v>
+      </c>
+      <c r="C119" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D119" s="214">
+      <c r="D119" s="212">
         <f>条件输入!D130</f>
         <v>300</v>
       </c>
-      <c r="E119" s="214">
+      <c r="E119" s="212">
         <f>条件输入!E130</f>
         <v>3000</v>
       </c>
-      <c r="F119" s="189"/>
+      <c r="F119" s="187"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A120" s="180">
+      <c r="A120" s="178">
         <v>9</v>
       </c>
-      <c r="B120" s="184" t="s">
+      <c r="B120" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="C120" s="185" t="s">
+      <c r="C120" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="D120" s="214">
+      <c r="D120" s="212">
         <f>条件输入!D131</f>
         <v>6000</v>
       </c>
-      <c r="E120" s="214">
+      <c r="E120" s="212">
         <f>条件输入!E131</f>
         <v>60000</v>
       </c>
-      <c r="F120" s="189"/>
+      <c r="F120" s="187"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A121" s="180">
+      <c r="A121" s="178">
         <v>10</v>
       </c>
-      <c r="B121" s="184" t="s">
+      <c r="B121" s="182" t="s">
         <v>147</v>
       </c>
-      <c r="C121" s="188" t="s">
+      <c r="C121" s="186" t="s">
         <v>149</v>
       </c>
-      <c r="D121" s="214">
+      <c r="D121" s="212">
         <f>条件输入!D132</f>
         <v>4</v>
       </c>
-      <c r="E121" s="214">
+      <c r="E121" s="212">
         <f>条件输入!E132</f>
         <v>40</v>
       </c>
-      <c r="F121" s="189"/>
+      <c r="F121" s="187"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A122" s="180">
+      <c r="A122" s="178">
         <v>11</v>
       </c>
-      <c r="B122" s="184" t="s">
+      <c r="B122" s="182" t="s">
         <v>148</v>
       </c>
-      <c r="C122" s="185" t="s">
+      <c r="C122" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="D122" s="214">
+      <c r="D122" s="212">
         <f>条件输入!D133</f>
         <v>200</v>
       </c>
-      <c r="E122" s="214">
+      <c r="E122" s="212">
         <f>条件输入!E133</f>
         <v>2000</v>
       </c>
-      <c r="F122" s="189"/>
+      <c r="F122" s="187"/>
     </row>
     <row r="123" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A123" s="180">
+      <c r="A123" s="178">
         <v>12</v>
       </c>
-      <c r="B123" s="184" t="s">
+      <c r="B123" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="C123" s="185" t="s">
+      <c r="C123" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="D123" s="214" t="str">
+      <c r="D123" s="212" t="str">
         <f>条件输入!D134</f>
         <v/>
       </c>
-      <c r="E123" s="214" t="str">
+      <c r="E123" s="212" t="str">
         <f>条件输入!E134</f>
         <v/>
       </c>
-      <c r="F123" s="189"/>
+      <c r="F123" s="187"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A124" s="180" t="s">
+      <c r="A124" s="178" t="s">
         <v>130</v>
       </c>
-      <c r="B124" s="184" t="s">
+      <c r="B124" s="182" t="s">
         <v>111</v>
       </c>
-      <c r="C124" s="188" t="s">
+      <c r="C124" s="186" t="s">
         <v>124</v>
       </c>
-      <c r="D124" s="214">
+      <c r="D124" s="212">
         <f>条件输入!D135</f>
         <v>0</v>
       </c>
-      <c r="E124" s="214">
+      <c r="E124" s="212">
         <f>条件输入!E135</f>
         <v>15</v>
       </c>
-      <c r="F124" s="186"/>
+      <c r="F124" s="184"/>
     </row>
     <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="180">
+      <c r="A125" s="178">
         <v>1</v>
       </c>
-      <c r="B125" s="184" t="s">
+      <c r="B125" s="182" t="s">
         <v>112</v>
       </c>
-      <c r="C125" s="185" t="s">
+      <c r="C125" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="D125" s="214">
+      <c r="D125" s="212">
         <f>条件输入!D136</f>
         <v>1800</v>
       </c>
-      <c r="E125" s="214">
+      <c r="E125" s="212">
         <f>条件输入!E136</f>
         <v>27000</v>
       </c>
-      <c r="F125" s="186"/>
+      <c r="F125" s="184"/>
     </row>
     <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A126" s="180">
+      <c r="A126" s="178">
         <v>2</v>
       </c>
-      <c r="B126" s="184" t="s">
+      <c r="B126" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="C126" s="185" t="s">
+      <c r="C126" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D126" s="214">
+      <c r="D126" s="212">
         <f>条件输入!D137</f>
         <v>4320</v>
       </c>
-      <c r="E126" s="214">
+      <c r="E126" s="212">
         <f>条件输入!E137</f>
         <v>64800</v>
       </c>
-      <c r="F126" s="186"/>
+      <c r="F126" s="184"/>
     </row>
     <row r="127" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="180">
+      <c r="A127" s="178">
         <v>3</v>
       </c>
-      <c r="B127" s="184" t="s">
+      <c r="B127" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="C127" s="185" t="s">
+      <c r="C127" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D127" s="214">
+      <c r="D127" s="212">
         <f>条件输入!D138</f>
         <v>1079.9999999999998</v>
       </c>
-      <c r="E127" s="214">
+      <c r="E127" s="212">
         <f>条件输入!E138</f>
         <v>16199.999999999996</v>
       </c>
-      <c r="F127" s="186"/>
+      <c r="F127" s="184"/>
     </row>
     <row r="128" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A128" s="180">
+      <c r="A128" s="178">
         <v>4</v>
       </c>
-      <c r="B128" s="184" t="s">
+      <c r="B128" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="C128" s="185" t="s">
+      <c r="C128" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D128" s="214">
+      <c r="D128" s="212">
         <f>条件输入!D139</f>
         <v>900</v>
       </c>
-      <c r="E128" s="214">
+      <c r="E128" s="212">
         <f>条件输入!E139</f>
         <v>13500</v>
       </c>
-      <c r="F128" s="186"/>
+      <c r="F128" s="184"/>
     </row>
     <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A129" s="180">
+      <c r="A129" s="178">
         <v>5</v>
       </c>
-      <c r="B129" s="184" t="s">
+      <c r="B129" s="182" t="s">
         <v>102</v>
       </c>
-      <c r="C129" s="185" t="s">
+      <c r="C129" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="D129" s="214">
+      <c r="D129" s="212">
         <f>条件输入!D140</f>
         <v>19</v>
       </c>
-      <c r="E129" s="214">
+      <c r="E129" s="212">
         <f>条件输入!E140</f>
         <v>285</v>
       </c>
-      <c r="F129" s="186"/>
+      <c r="F129" s="184"/>
     </row>
     <row r="130" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="182">
+      <c r="A130" s="180">
         <v>6</v>
       </c>
-      <c r="B130" s="190" t="s">
+      <c r="B130" s="188" t="s">
         <v>113</v>
       </c>
-      <c r="C130" s="191" t="s">
+      <c r="C130" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="D130" s="215">
+      <c r="D130" s="213">
         <f>条件输入!D141</f>
         <v>50</v>
       </c>
-      <c r="E130" s="215">
+      <c r="E130" s="213">
         <f>条件输入!E141</f>
         <v>750</v>
       </c>
-      <c r="F130" s="192"/>
+      <c r="F130" s="190"/>
     </row>
     <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C133" s="194" t="s">
-        <v>399</v>
+        <v>374</v>
+      </c>
+      <c r="C133" s="192" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A134" s="123" t="s">
+      <c r="A134" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="B134" s="176" t="s">
+      <c r="B134" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="C134" s="176" t="str">
+      <c r="C134" s="174" t="str">
         <f>条件输入!C145</f>
         <v>建筑面积（m2）</v>
       </c>
-      <c r="D134" s="176" t="str">
+      <c r="D134" s="174" t="str">
         <f>条件输入!D145</f>
         <v>占地面积（m2）</v>
       </c>
-      <c r="E134" s="179" t="s">
+      <c r="E134" s="177" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A135" s="180">
+      <c r="A135" s="178">
         <v>1</v>
       </c>
-      <c r="B135" s="177" t="s">
-        <v>237</v>
-      </c>
-      <c r="C135" s="177">
+      <c r="B135" s="175" t="s">
+        <v>236</v>
+      </c>
+      <c r="C135" s="175">
         <f>条件输入!C146</f>
         <v>200</v>
       </c>
-      <c r="D135" s="177">
+      <c r="D135" s="175">
         <f>条件输入!D146</f>
         <v>1000</v>
       </c>
-      <c r="E135" s="181"/>
+      <c r="E135" s="179"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A136" s="180">
+      <c r="A136" s="178">
         <v>2</v>
       </c>
-      <c r="B136" s="177" t="s">
-        <v>239</v>
-      </c>
-      <c r="C136" s="177">
+      <c r="B136" s="175" t="s">
+        <v>238</v>
+      </c>
+      <c r="C136" s="175">
         <f>条件输入!C147</f>
         <v>1800</v>
       </c>
-      <c r="D136" s="177">
+      <c r="D136" s="175">
         <f>条件输入!D147</f>
         <v>3000</v>
       </c>
-      <c r="E136" s="181"/>
+      <c r="E136" s="179"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A137" s="180">
+      <c r="A137" s="178">
         <v>3</v>
       </c>
-      <c r="B137" s="177" t="s">
-        <v>240</v>
-      </c>
-      <c r="C137" s="177">
+      <c r="B137" s="175" t="s">
+        <v>239</v>
+      </c>
+      <c r="C137" s="175">
         <f>条件输入!C148</f>
         <v>150</v>
       </c>
-      <c r="D137" s="177">
+      <c r="D137" s="175">
         <f>条件输入!D148</f>
         <v>800</v>
       </c>
-      <c r="E137" s="181"/>
+      <c r="E137" s="179"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A138" s="180">
+      <c r="A138" s="178">
         <v>4</v>
       </c>
-      <c r="B138" s="177" t="s">
-        <v>241</v>
-      </c>
-      <c r="C138" s="177">
+      <c r="B138" s="175" t="s">
+        <v>240</v>
+      </c>
+      <c r="C138" s="175">
         <f>条件输入!C149</f>
         <v>100</v>
       </c>
-      <c r="D138" s="177">
+      <c r="D138" s="175">
         <f>条件输入!D149</f>
         <v>4500</v>
       </c>
-      <c r="E138" s="181"/>
+      <c r="E138" s="179"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A139" s="180">
+      <c r="A139" s="178">
         <v>5</v>
       </c>
-      <c r="B139" s="177" t="s">
-        <v>242</v>
-      </c>
-      <c r="C139" s="177">
+      <c r="B139" s="175" t="s">
+        <v>241</v>
+      </c>
+      <c r="C139" s="175">
         <f>条件输入!C150</f>
         <v>100</v>
       </c>
-      <c r="D139" s="177">
+      <c r="D139" s="175">
         <f>条件输入!D150</f>
         <v>1200</v>
       </c>
-      <c r="E139" s="181"/>
+      <c r="E139" s="179"/>
     </row>
     <row r="140" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="182">
+      <c r="A140" s="180">
         <v>6</v>
       </c>
-      <c r="B140" s="178" t="s">
-        <v>243</v>
-      </c>
-      <c r="C140" s="178">
+      <c r="B140" s="176" t="s">
+        <v>242</v>
+      </c>
+      <c r="C140" s="176">
         <f>条件输入!C151</f>
         <v>2350</v>
       </c>
-      <c r="D140" s="178">
+      <c r="D140" s="176">
         <f>条件输入!D151</f>
         <v>10500</v>
       </c>
-      <c r="E140" s="183"/>
+      <c r="E140" s="181"/>
     </row>
     <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A144" s="216" t="s">
+      <c r="A144" s="214" t="s">
         <v>85</v>
       </c>
-      <c r="B144" s="217" t="s">
+      <c r="B144" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="C144" s="218" t="str">
+      <c r="C144" s="216" t="str">
         <f>条件输入!C155</f>
         <v>开挖（m3）</v>
       </c>
-      <c r="D144" s="218" t="str">
+      <c r="D144" s="216" t="str">
         <f>条件输入!D155</f>
         <v>回填（m3）</v>
       </c>
-      <c r="E144" s="219" t="str">
+      <c r="E144" s="217" t="str">
         <f>条件输入!E155</f>
         <v>弃土（m3）</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A145" s="220">
+      <c r="A145" s="218">
         <v>1</v>
       </c>
-      <c r="B145" s="202" t="s">
-        <v>246</v>
-      </c>
-      <c r="C145" s="221">
+      <c r="B145" s="200" t="s">
+        <v>245</v>
+      </c>
+      <c r="C145" s="219">
         <f>条件输入!C156</f>
         <v>24498.167660841318</v>
       </c>
-      <c r="D145" s="221">
+      <c r="D145" s="219">
         <f>条件输入!D156</f>
         <v>14078.359558079368</v>
       </c>
-      <c r="E145" s="222">
+      <c r="E145" s="220">
         <f>条件输入!E156</f>
         <v>10419.80810276195</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A146" s="220">
+      <c r="A146" s="218">
         <v>2</v>
       </c>
-      <c r="B146" s="202" t="s">
-        <v>251</v>
-      </c>
-      <c r="C146" s="221">
+      <c r="B146" s="200" t="s">
+        <v>250</v>
+      </c>
+      <c r="C146" s="219">
         <f>条件输入!C157</f>
         <v>36916.538999999997</v>
       </c>
-      <c r="D146" s="221">
+      <c r="D146" s="219">
         <f>条件输入!D157</f>
         <v>6152.7564999999995</v>
       </c>
-      <c r="E146" s="222">
+      <c r="E146" s="220">
         <f>条件输入!E157</f>
         <v>30763.782499999998</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A147" s="220">
+      <c r="A147" s="218">
         <v>3</v>
       </c>
-      <c r="B147" s="202" t="s">
-        <v>252</v>
-      </c>
-      <c r="C147" s="221">
+      <c r="B147" s="200" t="s">
+        <v>251</v>
+      </c>
+      <c r="C147" s="219">
         <f>条件输入!C158</f>
         <v>197500</v>
       </c>
-      <c r="D147" s="221">
+      <c r="D147" s="219">
         <f>条件输入!D158</f>
         <v>58000</v>
       </c>
-      <c r="E147" s="222">
+      <c r="E147" s="220">
         <f>条件输入!E158</f>
         <v>139500</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A148" s="220">
+      <c r="A148" s="218">
         <v>4</v>
       </c>
-      <c r="B148" s="202" t="s">
-        <v>250</v>
-      </c>
-      <c r="C148" s="221">
+      <c r="B148" s="200" t="s">
+        <v>249</v>
+      </c>
+      <c r="C148" s="219">
         <f>条件输入!C159</f>
         <v>81000</v>
       </c>
-      <c r="D148" s="221">
+      <c r="D148" s="219">
         <f>条件输入!D159</f>
         <v>13500</v>
       </c>
-      <c r="E148" s="222">
+      <c r="E148" s="220">
         <f>条件输入!E159</f>
         <v>67500</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A149" s="220">
+      <c r="A149" s="218">
         <v>5</v>
       </c>
-      <c r="B149" s="202" t="s">
-        <v>247</v>
-      </c>
-      <c r="C149" s="221">
+      <c r="B149" s="200" t="s">
+        <v>246</v>
+      </c>
+      <c r="C149" s="219">
         <f>条件输入!C160</f>
         <v>15000</v>
       </c>
-      <c r="D149" s="221">
+      <c r="D149" s="219">
         <f>条件输入!D160</f>
         <v>10000</v>
       </c>
-      <c r="E149" s="222">
+      <c r="E149" s="220">
         <f>条件输入!E160</f>
         <v>5000</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="223">
+      <c r="A150" s="221">
         <v>6</v>
       </c>
-      <c r="B150" s="224" t="s">
-        <v>243</v>
-      </c>
-      <c r="C150" s="225">
+      <c r="B150" s="222" t="s">
+        <v>242</v>
+      </c>
+      <c r="C150" s="223">
         <f>条件输入!C161</f>
         <v>354914.7066608413</v>
       </c>
-      <c r="D150" s="225">
+      <c r="D150" s="223">
         <f>条件输入!D161</f>
         <v>101731.11605807937</v>
       </c>
-      <c r="E150" s="226">
+      <c r="E150" s="224">
         <f>条件输入!E161</f>
         <v>253183.59060276195</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A154" s="227" t="s">
+      <c r="A154" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="B154" s="228" t="s">
+      <c r="B154" s="226" t="s">
+        <v>399</v>
+      </c>
+      <c r="C154" s="226" t="s">
+        <v>279</v>
+      </c>
+      <c r="D154" s="226" t="s">
         <v>400</v>
       </c>
-      <c r="C154" s="228" t="s">
+      <c r="E154" s="226" t="s">
+        <v>281</v>
+      </c>
+      <c r="F154" s="226" t="s">
+        <v>282</v>
+      </c>
+      <c r="G154" s="227" t="s">
         <v>280</v>
       </c>
-      <c r="D154" s="228" t="s">
-        <v>401</v>
-      </c>
-      <c r="E154" s="228" t="s">
-        <v>282</v>
-      </c>
-      <c r="F154" s="228" t="s">
-        <v>283</v>
-      </c>
-      <c r="G154" s="229" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="155" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="230">
+      <c r="A155" s="228">
         <v>1</v>
       </c>
-      <c r="B155" s="231">
+      <c r="B155" s="229">
         <f>条件输入!B166</f>
         <v>30000</v>
       </c>
-      <c r="C155" s="231">
+      <c r="C155" s="229">
         <f>条件输入!C166</f>
         <v>300000</v>
       </c>
-      <c r="D155" s="231">
+      <c r="D155" s="229">
         <f>条件输入!D166</f>
         <v>37500</v>
       </c>
-      <c r="E155" s="231">
+      <c r="E155" s="229">
         <f>条件输入!E166</f>
         <v>1125</v>
       </c>
-      <c r="F155" s="231">
+      <c r="F155" s="229">
         <f>条件输入!F166</f>
         <v>503.99999999999994</v>
       </c>
-      <c r="G155" s="232">
+      <c r="G155" s="230">
         <f>条件输入!G166</f>
         <v>1140</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A159" s="123" t="s">
+      <c r="A159" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B159" s="176" t="s">
+      <c r="B159" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="C159" s="233" t="str">
+      <c r="C159" s="231" t="str">
         <f>条件输入!C170</f>
         <v>用地面积（m2）</v>
       </c>
-      <c r="D159" s="179" t="s">
+      <c r="D159" s="177" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A160" s="180">
+      <c r="A160" s="178">
         <v>1</v>
       </c>
-      <c r="B160" s="177" t="s">
-        <v>256</v>
-      </c>
-      <c r="C160" s="234">
+      <c r="B160" s="175" t="s">
+        <v>255</v>
+      </c>
+      <c r="C160" s="232">
         <f>条件输入!C171</f>
         <v>330.06357816777762</v>
       </c>
-      <c r="D160" s="181"/>
+      <c r="D160" s="179"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="180">
+      <c r="A161" s="178">
         <v>2</v>
       </c>
-      <c r="B161" s="177" t="s">
-        <v>255</v>
-      </c>
-      <c r="C161" s="234">
+      <c r="B161" s="175" t="s">
+        <v>254</v>
+      </c>
+      <c r="C161" s="232">
         <f>条件输入!C172</f>
         <v>27</v>
       </c>
-      <c r="D161" s="181"/>
+      <c r="D161" s="179"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="180">
+      <c r="A162" s="178">
         <v>3</v>
       </c>
-      <c r="B162" s="177" t="s">
-        <v>254</v>
-      </c>
-      <c r="C162" s="234">
+      <c r="B162" s="175" t="s">
+        <v>253</v>
+      </c>
+      <c r="C162" s="232">
         <f>条件输入!C173</f>
         <v>12305.512999999999</v>
       </c>
-      <c r="D162" s="181" t="s">
-        <v>257</v>
+      <c r="D162" s="179" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="182">
+      <c r="A163" s="180">
         <v>4</v>
       </c>
-      <c r="B163" s="178" t="s">
-        <v>243</v>
-      </c>
-      <c r="C163" s="235">
+      <c r="B163" s="176" t="s">
+        <v>242</v>
+      </c>
+      <c r="C163" s="233">
         <f>条件输入!C174</f>
         <v>12662.576578167776</v>
       </c>
-      <c r="D163" s="236">
+      <c r="D163" s="234">
         <f>C163/666.667</f>
         <v>18.993855370323978</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A167" s="123" t="s">
+      <c r="A167" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="B167" s="176" t="s">
+      <c r="B167" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="C167" s="204" t="str">
+      <c r="C167" s="202" t="str">
         <f>条件输入!C178</f>
         <v>用地面积（m2）</v>
       </c>
-      <c r="D167" s="179" t="s">
+      <c r="D167" s="177" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A168" s="180">
+      <c r="A168" s="178">
         <v>1</v>
       </c>
-      <c r="B168" s="177" t="s">
-        <v>267</v>
-      </c>
-      <c r="C168" s="205">
+      <c r="B168" s="175" t="s">
+        <v>266</v>
+      </c>
+      <c r="C168" s="203">
         <f>条件输入!C179</f>
         <v>10500</v>
       </c>
-      <c r="D168" s="181"/>
+      <c r="D168" s="179"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="180">
+      <c r="A169" s="178">
         <v>2</v>
       </c>
-      <c r="B169" s="177" t="s">
-        <v>268</v>
-      </c>
-      <c r="C169" s="234">
+      <c r="B169" s="175" t="s">
+        <v>267</v>
+      </c>
+      <c r="C169" s="232">
         <f>条件输入!C180</f>
         <v>26642.936421832223</v>
       </c>
-      <c r="D169" s="181"/>
+      <c r="D169" s="179"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="180">
+      <c r="A170" s="178">
         <v>3</v>
       </c>
-      <c r="B170" s="177" t="s">
-        <v>269</v>
-      </c>
-      <c r="C170" s="205">
+      <c r="B170" s="175" t="s">
+        <v>268</v>
+      </c>
+      <c r="C170" s="203">
         <f>条件输入!C181</f>
         <v>132500</v>
       </c>
-      <c r="D170" s="181"/>
+      <c r="D170" s="179"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="180">
+      <c r="A171" s="178">
         <v>4</v>
       </c>
-      <c r="B171" s="177" t="s">
-        <v>270</v>
-      </c>
-      <c r="C171" s="205">
+      <c r="B171" s="175" t="s">
+        <v>269</v>
+      </c>
+      <c r="C171" s="203">
         <f>条件输入!C182</f>
         <v>30000</v>
       </c>
-      <c r="D171" s="181"/>
+      <c r="D171" s="179"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="180">
+      <c r="A172" s="178">
         <v>5</v>
       </c>
-      <c r="B172" s="177" t="s">
-        <v>271</v>
-      </c>
-      <c r="C172" s="205">
+      <c r="B172" s="175" t="s">
+        <v>270</v>
+      </c>
+      <c r="C172" s="203">
         <f>条件输入!C183</f>
         <v>18000</v>
       </c>
-      <c r="D172" s="181"/>
+      <c r="D172" s="179"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="180">
+      <c r="A173" s="178">
         <v>6</v>
       </c>
-      <c r="B173" s="177" t="s">
-        <v>274</v>
-      </c>
-      <c r="C173" s="205">
+      <c r="B173" s="175" t="s">
+        <v>273</v>
+      </c>
+      <c r="C173" s="203">
         <f>条件输入!C184</f>
         <v>1500</v>
       </c>
-      <c r="D173" s="181"/>
+      <c r="D173" s="179"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A174" s="180">
+      <c r="A174" s="178">
         <v>7</v>
       </c>
-      <c r="B174" s="177" t="s">
-        <v>272</v>
-      </c>
-      <c r="C174" s="205">
+      <c r="B174" s="175" t="s">
+        <v>271</v>
+      </c>
+      <c r="C174" s="203">
         <f>条件输入!C185</f>
         <v>3000</v>
       </c>
-      <c r="D174" s="181"/>
+      <c r="D174" s="179"/>
     </row>
     <row r="175" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="182">
+      <c r="A175" s="180">
         <v>8</v>
       </c>
-      <c r="B175" s="178" t="s">
-        <v>243</v>
-      </c>
-      <c r="C175" s="235">
+      <c r="B175" s="176" t="s">
+        <v>242</v>
+      </c>
+      <c r="C175" s="233">
         <f>条件输入!C186</f>
         <v>222142.93642183222</v>
       </c>
-      <c r="D175" s="236">
+      <c r="D175" s="234">
         <f>C175/666.667</f>
         <v>333.2142380256293</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B178" s="14"/>
       <c r="C178" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A179" s="123" t="s">
+      <c r="A179" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="B179" s="176" t="s">
+      <c r="B179" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="C179" s="176" t="s">
+      <c r="C179" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="D179" s="204" t="str">
+      <c r="D179" s="202" t="str">
         <f>条件输入!D190</f>
         <v>数量</v>
       </c>
-      <c r="E179" s="179" t="s">
+      <c r="E179" s="177" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A180" s="180">
+      <c r="A180" s="178">
         <v>1</v>
       </c>
-      <c r="B180" s="177" t="s">
+      <c r="B180" s="175" t="s">
+        <v>287</v>
+      </c>
+      <c r="C180" s="175" t="s">
         <v>288</v>
       </c>
-      <c r="C180" s="177" t="s">
-        <v>289</v>
-      </c>
-      <c r="D180" s="205">
+      <c r="D180" s="203">
         <f>条件输入!D191</f>
         <v>15</v>
       </c>
-      <c r="E180" s="181"/>
+      <c r="E180" s="179"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A181" s="180">
+      <c r="A181" s="178">
         <v>2</v>
       </c>
-      <c r="B181" s="177" t="s">
+      <c r="B181" s="175" t="s">
+        <v>289</v>
+      </c>
+      <c r="C181" s="175" t="s">
         <v>290</v>
       </c>
-      <c r="C181" s="177" t="s">
-        <v>291</v>
-      </c>
-      <c r="D181" s="205">
+      <c r="D181" s="203">
         <f>条件输入!D192</f>
         <v>2197.2399999999998</v>
       </c>
-      <c r="E181" s="181"/>
+      <c r="E181" s="179"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A182" s="180">
+      <c r="A182" s="178">
         <v>3</v>
       </c>
-      <c r="B182" s="177" t="s">
-        <v>292</v>
-      </c>
-      <c r="C182" s="177" t="s">
-        <v>289</v>
-      </c>
-      <c r="D182" s="205">
+      <c r="B182" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="C182" s="175" t="s">
+        <v>288</v>
+      </c>
+      <c r="D182" s="203">
         <f>条件输入!D193</f>
         <v>2</v>
       </c>
-      <c r="E182" s="181"/>
+      <c r="E182" s="179"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A183" s="180">
+      <c r="A183" s="178">
         <v>4</v>
       </c>
-      <c r="B183" s="177" t="s">
-        <v>274</v>
-      </c>
-      <c r="C183" s="177" t="s">
-        <v>300</v>
-      </c>
-      <c r="D183" s="205">
+      <c r="B183" s="175" t="s">
+        <v>273</v>
+      </c>
+      <c r="C183" s="175" t="s">
+        <v>299</v>
+      </c>
+      <c r="D183" s="203">
         <f>条件输入!D194</f>
         <v>20</v>
       </c>
-      <c r="E183" s="181"/>
+      <c r="E183" s="179"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A184" s="180">
+      <c r="A184" s="178">
         <v>5</v>
       </c>
-      <c r="B184" s="177" t="s">
-        <v>298</v>
-      </c>
-      <c r="C184" s="177" t="s">
+      <c r="B184" s="175" t="s">
+        <v>297</v>
+      </c>
+      <c r="C184" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="D184" s="205">
+      <c r="D184" s="203">
         <f>条件输入!D195</f>
         <v>2</v>
       </c>
-      <c r="E184" s="181"/>
+      <c r="E184" s="179"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A185" s="180">
+      <c r="A185" s="178">
         <v>6</v>
       </c>
-      <c r="B185" s="177" t="s">
+      <c r="B185" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="C185" s="175" t="s">
         <v>293</v>
       </c>
-      <c r="C185" s="177" t="s">
-        <v>294</v>
-      </c>
-      <c r="D185" s="234">
+      <c r="D185" s="232">
         <f>条件输入!D196</f>
         <v>35.491470666084133</v>
       </c>
-      <c r="E185" s="181"/>
+      <c r="E185" s="179"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A186" s="180">
+      <c r="A186" s="178">
         <v>7</v>
       </c>
-      <c r="B186" s="177" t="s">
+      <c r="B186" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="C186" s="177" t="s">
-        <v>294</v>
-      </c>
-      <c r="D186" s="234">
+      <c r="C186" s="175" t="s">
+        <v>293</v>
+      </c>
+      <c r="D186" s="232">
         <f>条件输入!D197</f>
         <v>10.173111605807936</v>
       </c>
-      <c r="E186" s="181"/>
+      <c r="E186" s="179"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A187" s="180">
+      <c r="A187" s="178">
         <v>8</v>
       </c>
-      <c r="B187" s="177" t="s">
-        <v>295</v>
-      </c>
-      <c r="C187" s="177" t="s">
+      <c r="B187" s="175" t="s">
         <v>294</v>
       </c>
-      <c r="D187" s="234">
+      <c r="C187" s="175" t="s">
+        <v>293</v>
+      </c>
+      <c r="D187" s="232">
         <f>条件输入!D198</f>
         <v>1.2135933102761951</v>
       </c>
-      <c r="E187" s="181"/>
+      <c r="E187" s="179"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A188" s="180">
+      <c r="A188" s="178">
         <v>9</v>
       </c>
-      <c r="B188" s="177" t="s">
+      <c r="B188" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="C188" s="177" t="s">
+      <c r="C188" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="D188" s="234">
+      <c r="D188" s="232">
         <f>条件输入!D199</f>
         <v>919.21037699350632</v>
       </c>
-      <c r="E188" s="181"/>
+      <c r="E188" s="179"/>
     </row>
     <row r="189" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="182">
+      <c r="A189" s="180">
         <v>10</v>
       </c>
-      <c r="B189" s="178" t="s">
-        <v>296</v>
-      </c>
-      <c r="C189" s="178" t="s">
-        <v>294</v>
-      </c>
-      <c r="D189" s="235">
+      <c r="B189" s="176" t="s">
+        <v>295</v>
+      </c>
+      <c r="C189" s="176" t="s">
+        <v>293</v>
+      </c>
+      <c r="D189" s="233">
         <f>条件输入!D200</f>
         <v>1.5841499999999999</v>
       </c>
-      <c r="E189" s="183"/>
+      <c r="E189" s="181"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
@@ -7667,10 +7748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q523"/>
+  <dimension ref="A1:R523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H193" sqref="H193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7687,11 +7768,11 @@
     <col min="11" max="11" width="16.25" customWidth="1"/>
     <col min="12" max="12" width="17.75" customWidth="1"/>
     <col min="13" max="13" width="32.375" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="14" max="14" width="37.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25.625" customWidth="1"/>
     <col min="17" max="17" width="10.75" customWidth="1"/>
-    <col min="18" max="18" width="11.25" customWidth="1"/>
+    <col min="18" max="18" width="32.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7719,8 +7800,8 @@
       <c r="H1" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="140" t="s">
-        <v>304</v>
+      <c r="M1" s="138" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7730,33 +7811,33 @@
       <c r="B2" s="22">
         <v>180</v>
       </c>
-      <c r="C2" s="146">
+      <c r="C2" s="144">
         <v>3</v>
       </c>
       <c r="D2" s="23">
         <v>15</v>
       </c>
-      <c r="E2" s="152" t="s">
+      <c r="E2" s="150" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="23">
         <v>70000</v>
       </c>
-      <c r="G2" s="174">
+      <c r="G2" s="172">
         <v>0.8</v>
       </c>
-      <c r="H2" s="175">
+      <c r="H2" s="173">
         <f>1-G2</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="M2" s="139" t="s">
-        <v>305</v>
+      <c r="M2" s="137" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="10"/>
-      <c r="M3" s="142" t="s">
-        <v>306</v>
+      <c r="M3" s="140" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7779,27 +7860,27 @@
         <v>118</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>68</v>
       </c>
       <c r="I4" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>203</v>
-      </c>
       <c r="K4" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="M4" s="144" t="s">
-        <v>307</v>
+        <v>302</v>
+      </c>
+      <c r="M4" s="142" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="23" t="s">
-        <v>156</v>
+      <c r="A5" s="249" t="s">
+        <v>409</v>
       </c>
       <c r="B5" s="32">
         <v>5</v>
@@ -7810,70 +7891,70 @@
       <c r="D5" s="32">
         <v>10</v>
       </c>
-      <c r="E5" s="174">
+      <c r="E5" s="172">
         <v>0.8</v>
       </c>
-      <c r="F5" s="175">
+      <c r="F5" s="173">
         <f>1-E5</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" s="143" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="141" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="143">
+      <c r="I5" s="141">
         <v>110</v>
       </c>
-      <c r="J5" s="143">
+      <c r="J5" s="141">
         <v>100</v>
       </c>
-      <c r="K5" s="143">
+      <c r="K5" s="141">
         <v>2</v>
       </c>
-      <c r="M5" s="145" t="s">
-        <v>308</v>
+      <c r="M5" s="143" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E7" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="141">
+      <c r="A8" s="139">
         <v>15000</v>
       </c>
-      <c r="B8" s="141">
+      <c r="B8" s="139">
         <v>10000</v>
       </c>
-      <c r="C8" s="141">
+      <c r="C8" s="139">
         <v>1500</v>
       </c>
-      <c r="D8" s="141">
+      <c r="D8" s="139">
         <v>3000</v>
       </c>
-      <c r="E8" s="141">
+      <c r="E8" s="139">
         <v>20</v>
       </c>
-      <c r="F8" s="141">
+      <c r="F8" s="139">
         <v>2</v>
       </c>
     </row>
@@ -7894,8 +7975,8 @@
       <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="147" t="s">
-        <v>325</v>
+      <c r="A11" s="145" t="s">
+        <v>324</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -7904,163 +7985,163 @@
       <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="167" t="s">
+      <c r="A12" s="165" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="166" t="s">
         <v>312</v>
       </c>
-      <c r="B12" s="168" t="s">
+      <c r="C12" s="166" t="s">
         <v>313</v>
       </c>
-      <c r="C12" s="168" t="s">
+      <c r="D12" s="166" t="s">
         <v>314</v>
       </c>
-      <c r="D12" s="168" t="s">
+      <c r="E12" s="166" t="s">
         <v>315</v>
       </c>
-      <c r="E12" s="168" t="s">
+      <c r="F12" s="166" t="s">
         <v>316</v>
       </c>
-      <c r="F12" s="168" t="s">
+      <c r="G12" s="167" t="s">
         <v>317</v>
       </c>
-      <c r="G12" s="169" t="s">
+    </row>
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="168" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="170" t="s">
+      <c r="B13" s="146">
+        <v>588.5</v>
+      </c>
+      <c r="C13" s="146">
+        <v>0</v>
+      </c>
+      <c r="D13" s="146">
+        <v>4316.8</v>
+      </c>
+      <c r="E13" s="146">
+        <v>45321.2</v>
+      </c>
+      <c r="F13" s="146">
+        <v>0</v>
+      </c>
+      <c r="G13" s="147">
+        <v>1598.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="168" t="s">
         <v>319</v>
       </c>
-      <c r="B13" s="148">
-        <v>588.5</v>
-      </c>
-      <c r="C13" s="148">
+      <c r="B14" s="146">
+        <v>803.5</v>
+      </c>
+      <c r="C14" s="146">
         <v>0</v>
       </c>
-      <c r="D13" s="148">
-        <v>4316.8</v>
-      </c>
-      <c r="E13" s="148">
-        <v>45321.2</v>
-      </c>
-      <c r="F13" s="148">
+      <c r="D14" s="146">
+        <v>4285.2</v>
+      </c>
+      <c r="E14" s="146">
+        <v>64398.8</v>
+      </c>
+      <c r="F14" s="146">
         <v>0</v>
       </c>
-      <c r="G13" s="149">
+      <c r="G14" s="147">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="168" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" s="146">
+        <v>801.79899999999998</v>
+      </c>
+      <c r="C15" s="146">
+        <v>0</v>
+      </c>
+      <c r="D15" s="146">
+        <v>4194.4669999999996</v>
+      </c>
+      <c r="E15" s="146">
+        <v>46936.474000000002</v>
+      </c>
+      <c r="F15" s="146">
+        <v>0</v>
+      </c>
+      <c r="G15" s="147">
         <v>1598.3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="170" t="s">
-        <v>320</v>
-      </c>
-      <c r="B14" s="148">
-        <v>803.5</v>
-      </c>
-      <c r="C14" s="148">
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="168" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" s="146">
+        <v>1908.0029999999999</v>
+      </c>
+      <c r="C16" s="146">
         <v>0</v>
       </c>
-      <c r="D14" s="148">
-        <v>4285.2</v>
-      </c>
-      <c r="E14" s="148">
-        <v>64398.8</v>
-      </c>
-      <c r="F14" s="148">
+      <c r="D16" s="146">
+        <v>3560.0259999999998</v>
+      </c>
+      <c r="E16" s="146">
+        <v>55861.254000000001</v>
+      </c>
+      <c r="F16" s="146">
         <v>0</v>
       </c>
-      <c r="G14" s="149">
-        <v>96.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="170" t="s">
-        <v>321</v>
-      </c>
-      <c r="B15" s="148">
-        <v>801.79899999999998</v>
-      </c>
-      <c r="C15" s="148">
-        <v>0</v>
-      </c>
-      <c r="D15" s="148">
-        <v>4194.4669999999996</v>
-      </c>
-      <c r="E15" s="148">
-        <v>46936.474000000002</v>
-      </c>
-      <c r="F15" s="148">
-        <v>0</v>
-      </c>
-      <c r="G15" s="149">
+      <c r="G16" s="147">
         <v>1598.3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="170" t="s">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="168" t="s">
         <v>322</v>
       </c>
-      <c r="B16" s="148">
-        <v>1908.0029999999999</v>
-      </c>
-      <c r="C16" s="148">
-        <v>0</v>
-      </c>
-      <c r="D16" s="148">
-        <v>3560.0259999999998</v>
-      </c>
-      <c r="E16" s="148">
-        <v>55861.254000000001</v>
-      </c>
-      <c r="F16" s="148">
-        <v>0</v>
-      </c>
-      <c r="G16" s="149">
-        <v>1598.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="170" t="s">
+      <c r="B17" s="146">
+        <v>345</v>
+      </c>
+      <c r="C17" s="146">
+        <v>248.6</v>
+      </c>
+      <c r="D17" s="146">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="E17" s="146">
+        <v>10685.4</v>
+      </c>
+      <c r="F17" s="146">
+        <v>28881.3</v>
+      </c>
+      <c r="G17" s="147">
+        <v>5033.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="169" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="148">
-        <v>345</v>
-      </c>
-      <c r="C17" s="148">
-        <v>248.6</v>
-      </c>
-      <c r="D17" s="148">
-        <v>136.19999999999999</v>
-      </c>
-      <c r="E17" s="148">
-        <v>10685.4</v>
-      </c>
-      <c r="F17" s="148">
-        <v>28881.3</v>
-      </c>
-      <c r="G17" s="149">
-        <v>5033.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="171" t="s">
-        <v>324</v>
-      </c>
-      <c r="B18" s="150">
+      <c r="B18" s="148">
         <v>283.5</v>
       </c>
-      <c r="C18" s="150">
+      <c r="C18" s="148">
         <v>194.7</v>
       </c>
-      <c r="D18" s="150">
+      <c r="D18" s="148">
         <v>106</v>
       </c>
-      <c r="E18" s="150">
+      <c r="E18" s="148">
         <v>8481.4</v>
       </c>
-      <c r="F18" s="150">
+      <c r="F18" s="148">
         <v>19153.400000000001</v>
       </c>
-      <c r="G18" s="151">
+      <c r="G18" s="149">
         <v>3734.3</v>
       </c>
     </row>
@@ -8081,8 +8162,8 @@
       <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="147" t="s">
-        <v>326</v>
+      <c r="A21" s="145" t="s">
+        <v>325</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -8091,154 +8172,154 @@
       <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="161" t="s">
+      <c r="A22" s="159" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" s="160" t="s">
         <v>327</v>
       </c>
-      <c r="B22" s="162" t="s">
+      <c r="C22" s="160" t="s">
         <v>328</v>
       </c>
-      <c r="C22" s="162" t="s">
+      <c r="D22" s="161" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" s="160" t="s">
         <v>329</v>
       </c>
-      <c r="D22" s="163" t="s">
-        <v>342</v>
-      </c>
-      <c r="E22" s="162" t="s">
+      <c r="F22" s="160" t="s">
         <v>330</v>
       </c>
-      <c r="F22" s="162" t="s">
+      <c r="G22" s="160" t="s">
         <v>331</v>
       </c>
-      <c r="G22" s="162" t="s">
+      <c r="H22" s="160" t="s">
         <v>332</v>
       </c>
-      <c r="H22" s="162" t="s">
+      <c r="I22" s="160" t="s">
         <v>333</v>
       </c>
-      <c r="I22" s="162" t="s">
+      <c r="J22" s="160" t="s">
         <v>334</v>
       </c>
-      <c r="J22" s="162" t="s">
+      <c r="K22" s="160" t="s">
         <v>335</v>
       </c>
-      <c r="K22" s="162" t="s">
+      <c r="L22" s="162" t="s">
         <v>336</v>
       </c>
-      <c r="L22" s="164" t="s">
+    </row>
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="163">
+        <v>1</v>
+      </c>
+      <c r="B23" s="151" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="165">
-        <v>1</v>
-      </c>
-      <c r="B23" s="153" t="s">
+      <c r="C23" s="151">
+        <v>3</v>
+      </c>
+      <c r="D23" s="151">
+        <v>18</v>
+      </c>
+      <c r="E23" s="151">
+        <v>5</v>
+      </c>
+      <c r="F23" s="151">
+        <v>10</v>
+      </c>
+      <c r="G23" s="151">
+        <v>18</v>
+      </c>
+      <c r="H23" s="151">
+        <v>120</v>
+      </c>
+      <c r="I23" s="151">
+        <v>3</v>
+      </c>
+      <c r="J23" s="151">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K23" s="151">
+        <v>1.5</v>
+      </c>
+      <c r="L23" s="152">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="163">
+        <v>2</v>
+      </c>
+      <c r="B24" s="151" t="s">
         <v>338</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C24" s="151">
+        <v>20</v>
+      </c>
+      <c r="D24" s="151">
+        <v>19</v>
+      </c>
+      <c r="E24" s="151">
+        <v>10</v>
+      </c>
+      <c r="F24" s="151">
+        <v>10</v>
+      </c>
+      <c r="G24" s="151">
+        <v>20</v>
+      </c>
+      <c r="H24" s="151">
+        <v>160</v>
+      </c>
+      <c r="I24" s="151">
         <v>3</v>
       </c>
-      <c r="D23" s="153">
-        <v>18</v>
-      </c>
-      <c r="E23" s="153">
-        <v>5</v>
-      </c>
-      <c r="F23" s="153">
-        <v>10</v>
-      </c>
-      <c r="G23" s="153">
-        <v>18</v>
-      </c>
-      <c r="H23" s="153">
-        <v>120</v>
-      </c>
-      <c r="I23" s="153">
+      <c r="J24" s="151">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K24" s="151">
+        <v>1.5</v>
+      </c>
+      <c r="L24" s="152">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="163">
         <v>3</v>
       </c>
-      <c r="J23" s="153">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K23" s="153">
-        <v>1.5</v>
-      </c>
-      <c r="L23" s="154">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="165">
-        <v>2</v>
-      </c>
-      <c r="B24" s="153" t="s">
+      <c r="B25" s="153" t="s">
         <v>339</v>
       </c>
-      <c r="C24" s="153">
-        <v>20</v>
-      </c>
-      <c r="D24" s="153">
-        <v>19</v>
-      </c>
-      <c r="E24" s="153">
-        <v>10</v>
-      </c>
-      <c r="F24" s="153">
-        <v>10</v>
-      </c>
-      <c r="G24" s="153">
-        <v>20</v>
-      </c>
-      <c r="H24" s="153">
-        <v>160</v>
-      </c>
-      <c r="I24" s="153">
-        <v>3</v>
-      </c>
-      <c r="J24" s="153">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K24" s="153">
-        <v>1.5</v>
-      </c>
-      <c r="L24" s="154">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="165">
-        <v>3</v>
-      </c>
-      <c r="B25" s="155" t="s">
+      <c r="C25" s="151"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="152"/>
+    </row>
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="164">
+        <v>4</v>
+      </c>
+      <c r="B26" s="154" t="s">
         <v>340</v>
       </c>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="154"/>
-    </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="166">
-        <v>4</v>
-      </c>
-      <c r="B26" s="156" t="s">
-        <v>341</v>
-      </c>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="157"/>
-      <c r="L26" s="158"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="156"/>
     </row>
     <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="24"/>
@@ -8257,8 +8338,8 @@
       <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="160" t="s">
-        <v>343</v>
+      <c r="A29" s="158" t="s">
+        <v>342</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -8267,223 +8348,223 @@
       <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="159" t="s">
+      <c r="A30" s="157" t="s">
+        <v>343</v>
+      </c>
+      <c r="B30" s="157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="245" t="s">
+        <v>318</v>
+      </c>
+      <c r="D30" s="247"/>
+      <c r="E30" s="245" t="s">
+        <v>319</v>
+      </c>
+      <c r="F30" s="247"/>
+      <c r="G30" s="157" t="s">
         <v>344</v>
       </c>
-      <c r="B30" s="159" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="247" t="s">
-        <v>319</v>
-      </c>
-      <c r="D30" s="249"/>
-      <c r="E30" s="247" t="s">
-        <v>320</v>
-      </c>
-      <c r="F30" s="249"/>
-      <c r="G30" s="159" t="s">
+    </row>
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="157"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="159"/>
-      <c r="B31" s="159"/>
-      <c r="C31" s="159" t="s">
+      <c r="D31" s="157" t="s">
         <v>346</v>
       </c>
-      <c r="D31" s="159" t="s">
+      <c r="E31" s="157" t="s">
+        <v>345</v>
+      </c>
+      <c r="F31" s="157" t="s">
+        <v>346</v>
+      </c>
+      <c r="G31" s="157"/>
+    </row>
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="245" t="s">
         <v>347</v>
       </c>
-      <c r="E31" s="159" t="s">
-        <v>346</v>
-      </c>
-      <c r="F31" s="159" t="s">
-        <v>347</v>
-      </c>
-      <c r="G31" s="159"/>
-    </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="247" t="s">
+      <c r="B32" s="246"/>
+      <c r="C32" s="246"/>
+      <c r="D32" s="246"/>
+      <c r="E32" s="246"/>
+      <c r="F32" s="246"/>
+      <c r="G32" s="247"/>
+    </row>
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="157" t="s">
         <v>348</v>
       </c>
-      <c r="B32" s="248"/>
-      <c r="C32" s="248"/>
-      <c r="D32" s="248"/>
-      <c r="E32" s="248"/>
-      <c r="F32" s="248"/>
-      <c r="G32" s="249"/>
-    </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="159" t="s">
+      <c r="B33" s="157"/>
+      <c r="C33" s="157">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D33" s="157">
+        <v>0.25</v>
+      </c>
+      <c r="E33" s="157">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="F33" s="157">
+        <v>0.43</v>
+      </c>
+      <c r="G33" s="157"/>
+    </row>
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="157" t="s">
         <v>349</v>
       </c>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="D33" s="159">
-        <v>0.25</v>
-      </c>
-      <c r="E33" s="159">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="F33" s="159">
-        <v>0.43</v>
-      </c>
-      <c r="G33" s="159"/>
-    </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="159" t="s">
+      <c r="B34" s="157"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+    </row>
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="157" t="s">
         <v>350</v>
       </c>
-      <c r="B34" s="159"/>
-      <c r="C34" s="159"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-    </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="159" t="s">
+      <c r="B35" s="157" t="s">
         <v>351</v>
       </c>
-      <c r="B35" s="159" t="s">
+      <c r="C35" s="157">
+        <v>85.85</v>
+      </c>
+      <c r="D35" s="157">
+        <v>529</v>
+      </c>
+      <c r="E35" s="157">
+        <v>94.634</v>
+      </c>
+      <c r="F35" s="157">
+        <v>529</v>
+      </c>
+      <c r="G35" s="157"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="157" t="s">
         <v>352</v>
       </c>
-      <c r="C35" s="159">
-        <v>85.85</v>
-      </c>
-      <c r="D35" s="159">
-        <v>529</v>
-      </c>
-      <c r="E35" s="159">
-        <v>94.634</v>
-      </c>
-      <c r="F35" s="159">
-        <v>529</v>
-      </c>
-      <c r="G35" s="159"/>
-    </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="159" t="s">
+      <c r="B36" s="157" t="s">
+        <v>351</v>
+      </c>
+      <c r="C36" s="157">
+        <v>167.44399999999999</v>
+      </c>
+      <c r="D36" s="157">
+        <v>634.79999999999995</v>
+      </c>
+      <c r="E36" s="157">
+        <v>204.95699999999999</v>
+      </c>
+      <c r="F36" s="157">
+        <v>634.79999999999995</v>
+      </c>
+      <c r="G36" s="157"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="245" t="s">
         <v>353</v>
       </c>
-      <c r="B36" s="159" t="s">
-        <v>352</v>
-      </c>
-      <c r="C36" s="159">
-        <v>167.44399999999999</v>
-      </c>
-      <c r="D36" s="159">
-        <v>634.79999999999995</v>
-      </c>
-      <c r="E36" s="159">
-        <v>204.95699999999999</v>
-      </c>
-      <c r="F36" s="159">
-        <v>634.79999999999995</v>
-      </c>
-      <c r="G36" s="159"/>
-    </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="247" t="s">
+      <c r="B37" s="246"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="246"/>
+      <c r="E37" s="246"/>
+      <c r="F37" s="246"/>
+      <c r="G37" s="247"/>
+    </row>
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="157" t="s">
         <v>354</v>
       </c>
-      <c r="B37" s="248"/>
-      <c r="C37" s="248"/>
-      <c r="D37" s="248"/>
-      <c r="E37" s="248"/>
-      <c r="F37" s="248"/>
-      <c r="G37" s="249"/>
-    </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="159" t="s">
+      <c r="B38" s="157" t="s">
         <v>355</v>
       </c>
-      <c r="B38" s="159" t="s">
+      <c r="C38" s="157">
+        <v>21.475000000000001</v>
+      </c>
+      <c r="D38" s="157">
+        <v>100</v>
+      </c>
+      <c r="E38" s="157">
+        <v>21.978999999999999</v>
+      </c>
+      <c r="F38" s="157">
+        <v>100</v>
+      </c>
+      <c r="G38" s="157"/>
+    </row>
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="157" t="s">
         <v>356</v>
       </c>
-      <c r="C38" s="159">
-        <v>21.475000000000001</v>
-      </c>
-      <c r="D38" s="159">
-        <v>100</v>
-      </c>
-      <c r="E38" s="159">
-        <v>21.978999999999999</v>
-      </c>
-      <c r="F38" s="159">
-        <v>100</v>
-      </c>
-      <c r="G38" s="159"/>
-    </row>
-    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="159" t="s">
+      <c r="B39" s="157"/>
+      <c r="C39" s="157">
+        <v>1E-3</v>
+      </c>
+      <c r="D39" s="157">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E39" s="157">
+        <v>1E-3</v>
+      </c>
+      <c r="F39" s="157">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G39" s="157"/>
+    </row>
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="245" t="s">
         <v>357</v>
       </c>
-      <c r="B39" s="159"/>
-      <c r="C39" s="159">
-        <v>1E-3</v>
-      </c>
-      <c r="D39" s="159">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E39" s="159">
-        <v>1E-3</v>
-      </c>
-      <c r="F39" s="159">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G39" s="159"/>
-    </row>
-    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="247" t="s">
+      <c r="B40" s="246"/>
+      <c r="C40" s="246"/>
+      <c r="D40" s="246"/>
+      <c r="E40" s="246"/>
+      <c r="F40" s="246"/>
+      <c r="G40" s="247"/>
+    </row>
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="157" t="s">
         <v>358</v>
       </c>
-      <c r="B40" s="248"/>
-      <c r="C40" s="248"/>
-      <c r="D40" s="248"/>
-      <c r="E40" s="248"/>
-      <c r="F40" s="248"/>
-      <c r="G40" s="249"/>
-    </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="159" t="s">
+      <c r="B41" s="157"/>
+      <c r="C41" s="157">
+        <v>3.9729999999999999</v>
+      </c>
+      <c r="D41" s="157">
+        <v>1.6</v>
+      </c>
+      <c r="E41" s="157">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="F41" s="157">
+        <v>1.6</v>
+      </c>
+      <c r="G41" s="157"/>
+    </row>
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="157" t="s">
         <v>359</v>
       </c>
-      <c r="B41" s="159"/>
-      <c r="C41" s="159">
+      <c r="B42" s="157"/>
+      <c r="C42" s="157">
+        <v>11.586</v>
+      </c>
+      <c r="D42" s="157">
+        <v>1.3</v>
+      </c>
+      <c r="E42" s="157">
         <v>3.9729999999999999</v>
       </c>
-      <c r="D41" s="159">
-        <v>1.6</v>
-      </c>
-      <c r="E41" s="159">
-        <v>2.7970000000000002</v>
-      </c>
-      <c r="F41" s="159">
-        <v>1.6</v>
-      </c>
-      <c r="G41" s="159"/>
-    </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="159" t="s">
-        <v>360</v>
-      </c>
-      <c r="B42" s="159"/>
-      <c r="C42" s="159">
-        <v>11.586</v>
-      </c>
-      <c r="D42" s="159">
+      <c r="F42" s="157">
         <v>1.3</v>
       </c>
-      <c r="E42" s="159">
-        <v>3.9729999999999999</v>
-      </c>
-      <c r="F42" s="159">
-        <v>1.3</v>
-      </c>
-      <c r="G42" s="159"/>
+      <c r="G42" s="157"/>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="24"/>
@@ -8496,7 +8577,7 @@
     <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8703,10 +8784,10 @@
         <v>10</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="D56" s="70">
         <f t="array" ref="D56">VLOOKUP($A$2&amp;$B$2&amp;$E$2&amp;$F$2,IF({1,0},风机基础数据!A$17:A$88&amp;风机基础数据!B$17:B$88&amp;风机基础数据!C$17:C$88&amp;风机基础数据!D$17:D$88,风机基础数据!U$17:U$88),2,0)</f>
@@ -8723,7 +8804,7 @@
         <v>11</v>
       </c>
       <c r="B57" s="67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>5</v>
@@ -8742,7 +8823,7 @@
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8910,12 +8991,12 @@
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B72" s="91" t="s">
         <v>0</v>
@@ -8924,18 +9005,18 @@
         <v>1</v>
       </c>
       <c r="D72" s="103" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E72" s="92" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="135">
+      <c r="A73" s="133">
         <v>1</v>
       </c>
       <c r="B73" s="93" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C73" s="94" t="s">
         <v>99</v>
@@ -8947,11 +9028,11 @@
       <c r="E73" s="95"/>
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="135">
+      <c r="A74" s="133">
         <v>2</v>
       </c>
       <c r="B74" s="93" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C74" s="94" t="s">
         <v>99</v>
@@ -8963,11 +9044,11 @@
       <c r="E74" s="95"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="135">
+      <c r="A75" s="133">
         <v>3</v>
       </c>
       <c r="B75" s="93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C75" s="94" t="s">
         <v>99</v>
@@ -8977,11 +9058,11 @@
         <v>403.82</v>
       </c>
       <c r="E75" s="95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="135">
+      <c r="A76" s="133">
         <v>4</v>
       </c>
       <c r="B76" s="93" t="s">
@@ -8997,7 +9078,7 @@
       <c r="E76" s="96"/>
     </row>
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="135">
+      <c r="A77" s="133">
         <v>5</v>
       </c>
       <c r="B77" s="93" t="s">
@@ -9013,11 +9094,11 @@
       <c r="E77" s="95"/>
     </row>
     <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="135">
+      <c r="A78" s="133">
         <v>6</v>
       </c>
       <c r="B78" s="93" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C78" s="94" t="s">
         <v>5</v>
@@ -9029,11 +9110,11 @@
       <c r="E78" s="95"/>
     </row>
     <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="135">
+      <c r="A79" s="133">
         <v>7</v>
       </c>
       <c r="B79" s="93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C79" s="94" t="s">
         <v>5</v>
@@ -9045,11 +9126,11 @@
       <c r="E79" s="95"/>
     </row>
     <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="135">
+      <c r="A80" s="133">
         <v>8</v>
       </c>
       <c r="B80" s="93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C80" s="94" t="s">
         <v>5</v>
@@ -9059,15 +9140,15 @@
         <v>201.91</v>
       </c>
       <c r="E80" s="95" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="133">
+        <v>9</v>
+      </c>
+      <c r="B81" s="93" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="135">
-        <v>9</v>
-      </c>
-      <c r="B81" s="93" t="s">
-        <v>219</v>
       </c>
       <c r="C81" s="94" t="s">
         <v>99</v>
@@ -9077,15 +9158,15 @@
         <v>1993.67</v>
       </c>
       <c r="E81" s="95" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="135">
+      <c r="A82" s="133">
         <v>10</v>
       </c>
       <c r="B82" s="93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C82" s="94" t="s">
         <v>99</v>
@@ -9097,11 +9178,11 @@
       <c r="E82" s="95"/>
     </row>
     <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="135">
+      <c r="A83" s="133">
         <v>11</v>
       </c>
       <c r="B83" s="93" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="94" t="s">
         <v>99</v>
@@ -9113,11 +9194,11 @@
       <c r="E83" s="95"/>
     </row>
     <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="135">
+      <c r="A84" s="133">
         <v>12</v>
       </c>
       <c r="B84" s="93" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C84" s="94" t="s">
         <v>99</v>
@@ -9129,11 +9210,11 @@
       <c r="E84" s="95"/>
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="135">
+      <c r="A85" s="133">
         <v>13</v>
       </c>
       <c r="B85" s="93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C85" s="94" t="s">
         <v>99</v>
@@ -9145,22 +9226,22 @@
       <c r="E85" s="95"/>
     </row>
     <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="135">
+      <c r="A86" s="133">
         <v>14</v>
       </c>
       <c r="B86" s="97" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C86" s="94"/>
       <c r="D86" s="102"/>
       <c r="E86" s="95"/>
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="135">
+      <c r="A87" s="133">
         <v>15</v>
       </c>
       <c r="B87" s="93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C87" s="94" t="s">
         <v>5</v>
@@ -9172,11 +9253,11 @@
       <c r="E87" s="95"/>
     </row>
     <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="135">
+      <c r="A88" s="133">
         <v>16</v>
       </c>
       <c r="B88" s="93" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C88" s="94" t="s">
         <v>5</v>
@@ -9188,11 +9269,11 @@
       <c r="E88" s="95"/>
     </row>
     <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="135">
+      <c r="A89" s="133">
         <v>17</v>
       </c>
       <c r="B89" s="93" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C89" s="94" t="s">
         <v>10</v>
@@ -9204,11 +9285,11 @@
       <c r="E89" s="95"/>
     </row>
     <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="135">
+      <c r="A90" s="133">
         <v>18</v>
       </c>
       <c r="B90" s="93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C90" s="94" t="s">
         <v>5</v>
@@ -9220,11 +9301,11 @@
       <c r="E90" s="95"/>
     </row>
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="135">
+      <c r="A91" s="133">
         <v>19</v>
       </c>
       <c r="B91" s="93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C91" s="94" t="s">
         <v>5</v>
@@ -9236,11 +9317,11 @@
       <c r="E91" s="95"/>
     </row>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="135">
+      <c r="A92" s="133">
         <v>20</v>
       </c>
       <c r="B92" s="93" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C92" s="94" t="s">
         <v>10</v>
@@ -9252,11 +9333,11 @@
       <c r="E92" s="95"/>
     </row>
     <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="135">
+      <c r="A93" s="133">
         <v>21</v>
       </c>
       <c r="B93" s="93" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C93" s="94" t="s">
         <v>5</v>
@@ -9268,11 +9349,11 @@
       <c r="E93" s="95"/>
     </row>
     <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="135">
+      <c r="A94" s="133">
         <v>22</v>
       </c>
       <c r="B94" s="93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C94" s="94" t="s">
         <v>10</v>
@@ -9284,11 +9365,11 @@
       <c r="E94" s="95"/>
     </row>
     <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="135">
+      <c r="A95" s="133">
         <v>23</v>
       </c>
       <c r="B95" s="93" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="94" t="s">
         <v>101</v>
@@ -9300,14 +9381,14 @@
       <c r="E95" s="95"/>
     </row>
     <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="136">
+      <c r="A96" s="134">
         <v>24</v>
       </c>
       <c r="B96" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C96" s="99" t="s">
         <v>232</v>
-      </c>
-      <c r="C96" s="99" t="s">
-        <v>233</v>
       </c>
       <c r="D96" s="104">
         <f t="array" ref="D96">VLOOKUP($H$5&amp;$I$5&amp;$J$5,IF({1,0},升压站基础数据!A$15:A$30&amp;升压站基础数据!B$15:B$30&amp;升压站基础数据!C$15:C$30,升压站基础数据!AC$15:AC$30),2,0)</f>
@@ -9391,7 +9472,7 @@
       </c>
       <c r="O101" s="81"/>
       <c r="P101" s="81" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q101" s="42"/>
     </row>
@@ -9726,7 +9807,7 @@
       </c>
       <c r="O110" s="80"/>
       <c r="P110" s="81" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q110" s="43"/>
     </row>
@@ -10175,7 +10256,7 @@
       </c>
       <c r="O122" s="80"/>
       <c r="P122" s="81" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q122" s="43"/>
     </row>
@@ -10662,7 +10743,7 @@
       </c>
       <c r="O135" s="80"/>
       <c r="P135" s="80" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q135" s="37"/>
     </row>
@@ -10897,7 +10978,7 @@
     <row r="143" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="144" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="145" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10908,10 +10989,10 @@
         <v>0</v>
       </c>
       <c r="C145" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="D145" s="107" t="s">
         <v>244</v>
-      </c>
-      <c r="D145" s="107" t="s">
-        <v>245</v>
       </c>
       <c r="E145" s="61" t="s">
         <v>3</v>
@@ -10923,10 +11004,10 @@
         <v>0</v>
       </c>
       <c r="N145" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="O145" s="107" t="s">
         <v>244</v>
-      </c>
-      <c r="O145" s="107" t="s">
-        <v>245</v>
       </c>
       <c r="P145" s="61" t="s">
         <v>3</v>
@@ -10937,7 +11018,7 @@
         <v>1</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C146" s="26">
         <f>IF($C$2*$D$2&lt;=50,200,IF($C$2*$D$2&gt;=100,400,300))</f>
@@ -10948,13 +11029,13 @@
         <v>1000</v>
       </c>
       <c r="E146" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L146" s="25">
         <v>1</v>
       </c>
-      <c r="M146" s="124" t="s">
-        <v>406</v>
+      <c r="M146" s="122" t="s">
+        <v>405</v>
       </c>
       <c r="N146" s="26" t="str">
         <f>"{{"&amp;M146&amp;"_1}}"</f>
@@ -10965,7 +11046,7 @@
         <v>{{材料仓库_2}}</v>
       </c>
       <c r="P146" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10973,7 +11054,7 @@
         <v>2</v>
       </c>
       <c r="B147" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C147" s="26">
         <f>IF($C$2*$D$2&lt;=50,1800,IF($C$2*$D$2&gt;=100,2200,2000))</f>
@@ -10984,13 +11065,13 @@
         <v>3000</v>
       </c>
       <c r="E147" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L147" s="25">
         <v>2</v>
       </c>
       <c r="M147" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N147" s="26" t="str">
         <f t="shared" ref="N147:N150" si="14">"{{"&amp;M147&amp;"_1}}"</f>
@@ -11001,7 +11082,7 @@
         <v>{{临时住宅及办公室施工生活区_2}}</v>
       </c>
       <c r="P147" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11009,7 +11090,7 @@
         <v>3</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C148" s="26">
         <f>IF($C$2*$D$2&lt;=50,150,IF($C$2*$D$2&gt;=100,250,200))</f>
@@ -11020,13 +11101,13 @@
         <v>800</v>
       </c>
       <c r="E148" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L148" s="25">
         <v>3</v>
       </c>
       <c r="M148" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N148" s="26" t="str">
         <f t="shared" si="14"/>
@@ -11037,7 +11118,7 @@
         <v>{{钢筋加工厂_2}}</v>
       </c>
       <c r="P148" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11045,7 +11126,7 @@
         <v>4</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C149" s="26">
         <f>IF($C$2*$D$2&lt;=50,100,IF($C$2*$D$2&gt;=100,200,150))</f>
@@ -11056,13 +11137,13 @@
         <v>4500</v>
       </c>
       <c r="E149" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L149" s="25">
         <v>4</v>
       </c>
       <c r="M149" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N149" s="26" t="str">
         <f t="shared" si="14"/>
@@ -11073,7 +11154,7 @@
         <v>{{设备存放场_2}}</v>
       </c>
       <c r="P149" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="150" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11081,7 +11162,7 @@
         <v>5</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C150" s="26">
         <f>IF($C$2*$D$2&lt;=50,100,IF($C$2*$D$2&gt;=100,200,150))</f>
@@ -11096,7 +11177,7 @@
         <v>5</v>
       </c>
       <c r="M150" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N150" s="26" t="str">
         <f t="shared" si="14"/>
@@ -11113,7 +11194,7 @@
         <v>6</v>
       </c>
       <c r="B151" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C151" s="29">
         <f>SUM(C146:C150)</f>
@@ -11128,7 +11209,7 @@
         <v>6</v>
       </c>
       <c r="M151" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N151" s="26" t="str">
         <f>"{{"&amp;M151&amp;"_1}}"</f>
@@ -11144,7 +11225,7 @@
     <row r="153" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="154" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11155,21 +11236,36 @@
         <v>0</v>
       </c>
       <c r="C155" s="112" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D155" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="E155" s="113" t="s">
         <v>259</v>
       </c>
-      <c r="E155" s="113" t="s">
-        <v>260</v>
+      <c r="L155" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="M155" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="N155" s="112" t="s">
+        <v>278</v>
+      </c>
+      <c r="O155" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="P155" s="113" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="156" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="114">
         <v>1</v>
       </c>
-      <c r="B156" s="115" t="s">
-        <v>246</v>
+      <c r="B156" s="116" t="s">
+        <v>406</v>
       </c>
       <c r="C156" s="56">
         <f>E47+E48+E62+E63</f>
@@ -11179,17 +11275,35 @@
         <f>E49+E64</f>
         <v>14078.359558079368</v>
       </c>
-      <c r="E156" s="116">
+      <c r="E156" s="115">
         <f>C156-D156</f>
         <v>10419.80810276195</v>
+      </c>
+      <c r="L156" s="114">
+        <v>1</v>
+      </c>
+      <c r="M156" s="116" t="s">
+        <v>406</v>
+      </c>
+      <c r="N156" s="56" t="str">
+        <f>"{{"&amp;M156&amp;"_开挖}}"</f>
+        <v>{{风机基础及箱变_开挖}}</v>
+      </c>
+      <c r="O156" s="56" t="str">
+        <f>"{{"&amp;M156&amp;"_回填}}"</f>
+        <v>{{风机基础及箱变_回填}}</v>
+      </c>
+      <c r="P156" s="56" t="str">
+        <f>"{{"&amp;M156&amp;"_弃土}}"</f>
+        <v>{{风机基础及箱变_弃土}}</v>
       </c>
     </row>
     <row r="157" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="114">
         <v>2</v>
       </c>
-      <c r="B157" s="117" t="s">
-        <v>251</v>
+      <c r="B157" s="116" t="s">
+        <v>250</v>
       </c>
       <c r="C157" s="56">
         <f>D76+D77</f>
@@ -11199,233 +11313,371 @@
         <f>D78</f>
         <v>6152.7564999999995</v>
       </c>
-      <c r="E157" s="116">
+      <c r="E157" s="115">
         <f>C157-D157</f>
         <v>30763.782499999998</v>
+      </c>
+      <c r="L157" s="114">
+        <v>2</v>
+      </c>
+      <c r="M157" s="116" t="s">
+        <v>250</v>
+      </c>
+      <c r="N157" s="56" t="str">
+        <f t="shared" ref="N157:N161" si="16">"{{"&amp;M157&amp;"_开挖}}"</f>
+        <v>{{升压站工程_开挖}}</v>
+      </c>
+      <c r="O157" s="56" t="str">
+        <f t="shared" ref="O157:O160" si="17">"{{"&amp;M157&amp;"_回填}}"</f>
+        <v>{{升压站工程_回填}}</v>
+      </c>
+      <c r="P157" s="56" t="str">
+        <f t="shared" ref="P157:P161" si="18">"{{"&amp;M157&amp;"_弃土}}"</f>
+        <v>{{升压站工程_弃土}}</v>
       </c>
     </row>
     <row r="158" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="114">
         <v>3</v>
       </c>
-      <c r="B158" s="117" t="s">
-        <v>252</v>
-      </c>
-      <c r="C158" s="118">
+      <c r="B158" s="116" t="s">
+        <v>251</v>
+      </c>
+      <c r="C158" s="117">
         <f>E102+E103+E111+E112+E123+E124</f>
         <v>197500</v>
       </c>
-      <c r="D158" s="118">
+      <c r="D158" s="117">
         <f>E104+E113+E125</f>
         <v>58000</v>
       </c>
-      <c r="E158" s="116">
+      <c r="E158" s="115">
         <f>C158-D158</f>
         <v>139500</v>
+      </c>
+      <c r="L158" s="114">
+        <v>3</v>
+      </c>
+      <c r="M158" s="116" t="s">
+        <v>251</v>
+      </c>
+      <c r="N158" s="56" t="str">
+        <f t="shared" si="16"/>
+        <v>{{道路工程_开挖}}</v>
+      </c>
+      <c r="O158" s="56" t="str">
+        <f t="shared" si="17"/>
+        <v>{{道路工程_回填}}</v>
+      </c>
+      <c r="P158" s="56" t="str">
+        <f t="shared" si="18"/>
+        <v>{{道路工程_弃土}}</v>
       </c>
     </row>
     <row r="159" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="114">
         <v>4</v>
       </c>
-      <c r="B159" s="117" t="s">
-        <v>250</v>
-      </c>
-      <c r="C159" s="118">
+      <c r="B159" s="116" t="s">
+        <v>249</v>
+      </c>
+      <c r="C159" s="117">
         <f>E137+E138</f>
         <v>81000</v>
       </c>
-      <c r="D159" s="118">
+      <c r="D159" s="117">
         <f>E139</f>
         <v>13500</v>
       </c>
-      <c r="E159" s="116">
+      <c r="E159" s="115">
         <f>C159-D159</f>
         <v>67500</v>
+      </c>
+      <c r="L159" s="114">
+        <v>4</v>
+      </c>
+      <c r="M159" s="116" t="s">
+        <v>249</v>
+      </c>
+      <c r="N159" s="56" t="str">
+        <f t="shared" si="16"/>
+        <v>{{吊装平台_开挖}}</v>
+      </c>
+      <c r="O159" s="56" t="str">
+        <f t="shared" si="17"/>
+        <v>{{吊装平台_回填}}</v>
+      </c>
+      <c r="P159" s="56" t="str">
+        <f t="shared" si="18"/>
+        <v>{{吊装平台_弃土}}</v>
       </c>
     </row>
     <row r="160" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="114">
         <v>5</v>
       </c>
-      <c r="B160" s="115" t="s">
-        <v>247</v>
-      </c>
-      <c r="C160" s="118">
+      <c r="B160" s="116" t="s">
+        <v>407</v>
+      </c>
+      <c r="C160" s="117">
         <f>A8</f>
         <v>15000</v>
       </c>
-      <c r="D160" s="118">
+      <c r="D160" s="117">
         <f>B8</f>
         <v>10000</v>
       </c>
-      <c r="E160" s="116">
-        <f t="shared" ref="E157:E161" si="16">C160-D160</f>
+      <c r="E160" s="115">
+        <f>C160-D160</f>
         <v>5000</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="119">
+      <c r="L160" s="114">
+        <v>5</v>
+      </c>
+      <c r="M160" s="116" t="s">
+        <v>407</v>
+      </c>
+      <c r="N160" s="56" t="str">
+        <f t="shared" si="16"/>
+        <v>{{集电线路_开挖}}</v>
+      </c>
+      <c r="O160" s="56" t="str">
+        <f t="shared" si="17"/>
+        <v>{{集电线路_回填}}</v>
+      </c>
+      <c r="P160" s="56" t="str">
+        <f t="shared" si="18"/>
+        <v>{{集电线路_弃土}}</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="118">
         <v>6</v>
       </c>
-      <c r="B161" s="120" t="s">
-        <v>243</v>
-      </c>
-      <c r="C161" s="121">
+      <c r="B161" s="248" t="s">
+        <v>408</v>
+      </c>
+      <c r="C161" s="119">
         <f>SUM(C156:C160)</f>
         <v>354914.7066608413</v>
       </c>
-      <c r="D161" s="121">
+      <c r="D161" s="119">
         <f>SUM(D156:D160)</f>
         <v>101731.11605807937</v>
       </c>
-      <c r="E161" s="122">
+      <c r="E161" s="120">
+        <f t="shared" ref="E160:E161" si="19">C161-D161</f>
+        <v>253183.59060276195</v>
+      </c>
+      <c r="L161" s="118">
+        <v>6</v>
+      </c>
+      <c r="M161" s="248" t="s">
+        <v>408</v>
+      </c>
+      <c r="N161" s="56" t="str">
         <f t="shared" si="16"/>
-        <v>253183.59060276195</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>{{合计_开挖}}</v>
+      </c>
+      <c r="O161" s="56" t="str">
+        <f>"{{"&amp;M161&amp;"_回填}}"</f>
+        <v>{{合计_回填}}</v>
+      </c>
+      <c r="P161" s="56" t="str">
+        <f t="shared" si="18"/>
+        <v>{{合计_弃土}}</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="131" t="s">
         <v>277</v>
       </c>
+    </row>
+    <row r="165" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="129" t="s">
+        <v>276</v>
+      </c>
       <c r="B165" s="112" t="s">
+        <v>283</v>
+      </c>
+      <c r="C165" s="112" t="s">
+        <v>279</v>
+      </c>
+      <c r="D165" s="112" t="s">
         <v>284</v>
       </c>
-      <c r="C165" s="112" t="s">
+      <c r="E165" s="112" t="s">
+        <v>281</v>
+      </c>
+      <c r="F165" s="112" t="s">
+        <v>282</v>
+      </c>
+      <c r="G165" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="D165" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="E165" s="112" t="s">
+      <c r="L165" s="129" t="s">
+        <v>12</v>
+      </c>
+      <c r="M165" s="112" t="s">
+        <v>283</v>
+      </c>
+      <c r="N165" s="112" t="s">
+        <v>279</v>
+      </c>
+      <c r="O165" s="112" t="s">
+        <v>284</v>
+      </c>
+      <c r="P165" s="112" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q165" s="112" t="s">
         <v>282</v>
       </c>
-      <c r="F165" s="112" t="s">
-        <v>283</v>
-      </c>
-      <c r="G165" s="113" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="132">
+      <c r="R165" s="113" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="130">
         <v>1</v>
       </c>
-      <c r="B166" s="133">
+      <c r="B166" s="131">
         <f>(INT(E161/100000)+1)*10000</f>
         <v>30000</v>
       </c>
-      <c r="C166" s="133">
+      <c r="C166" s="131">
         <f>(INT(E161/100000)+1)*100000</f>
         <v>300000</v>
       </c>
-      <c r="D166" s="133">
+      <c r="D166" s="131">
         <f>B166*1.25</f>
         <v>37500</v>
       </c>
-      <c r="E166" s="133">
+      <c r="E166" s="131">
         <f>(INT(E161/100000)+1)*500*0.75</f>
         <v>1125</v>
       </c>
-      <c r="F166" s="133">
+      <c r="F166" s="131">
         <f>(INT(E161/100000)+1)*480*0.35</f>
         <v>503.99999999999994</v>
       </c>
-      <c r="G166" s="134">
+      <c r="G166" s="132">
         <f>(INT(E161/100000)+1)*4.75*80</f>
         <v>1140</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L166" s="130">
+        <v>1</v>
+      </c>
+      <c r="M166" s="131" t="str">
+        <f>"{{弃渣场_"&amp;M165&amp;"}}"</f>
+        <v>{{弃渣场_面积（m2）}}</v>
+      </c>
+      <c r="N166" s="131" t="str">
+        <f t="shared" ref="N166:R166" si="20">"{{弃渣场_"&amp;N165&amp;"}}"</f>
+        <v>{{弃渣场_容量（m3）}}</v>
+      </c>
+      <c r="O166" s="131" t="str">
+        <f t="shared" si="20"/>
+        <v>{{弃渣场_喷播植草（m2）}}</v>
+      </c>
+      <c r="P166" s="131" t="str">
+        <f t="shared" si="20"/>
+        <v>{{弃渣场_截水沟（m）}}</v>
+      </c>
+      <c r="Q166" s="131" t="str">
+        <f t="shared" si="20"/>
+        <v>{{弃渣场_排水沟（m）}}</v>
+      </c>
+      <c r="R166" s="131" t="str">
+        <f t="shared" si="20"/>
+        <v>{{弃渣场_M7.5挡土墙（m3）}}</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="123" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="121" t="s">
+        <v>263</v>
       </c>
       <c r="B170" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C170" s="107" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D170" s="61" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="25">
         <v>1</v>
       </c>
-      <c r="B171" s="124" t="s">
-        <v>256</v>
-      </c>
-      <c r="C171" s="125">
+      <c r="B171" s="122" t="s">
+        <v>255</v>
+      </c>
+      <c r="C171" s="123">
         <f t="array" ref="C171">VLOOKUP($A$2&amp;$B$2&amp;$E$2&amp;$F$2,IF({1,0},风机基础数据!A$17:A$88&amp;风机基础数据!B$17:B$88&amp;风机基础数据!C$17:C$88&amp;风机基础数据!D$17:D$88,风机基础数据!O$17:O$88),2,0)</f>
         <v>330.06357816777762</v>
       </c>
       <c r="D171" s="27"/>
     </row>
-    <row r="172" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="25">
         <v>2</v>
       </c>
-      <c r="B172" s="124" t="s">
-        <v>255</v>
-      </c>
-      <c r="C172" s="125">
+      <c r="B172" s="122" t="s">
+        <v>254</v>
+      </c>
+      <c r="C172" s="123">
         <f>VLOOKUP($C$2,风机基础数据!$A$98:$P$105,15)</f>
         <v>27</v>
       </c>
       <c r="D172" s="27"/>
     </row>
-    <row r="173" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="25">
         <v>3</v>
       </c>
       <c r="B173" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="C173" s="125">
+        <v>253</v>
+      </c>
+      <c r="C173" s="123">
         <f t="array" ref="C173">VLOOKUP($H$5&amp;$I$5&amp;$J$5,IF({1,0},升压站基础数据!A$15:A$30&amp;升压站基础数据!B$15:B$30&amp;升压站基础数据!C$15:C$30,升压站基础数据!G$15:G$30),2,0)</f>
         <v>12305.512999999999</v>
       </c>
-      <c r="D173" s="126" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D173" s="124" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A174" s="106">
         <v>4</v>
       </c>
       <c r="B174" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="C174" s="127">
+        <v>242</v>
+      </c>
+      <c r="C174" s="125">
         <f>SUM(C171:C173)</f>
         <v>12662.576578167776</v>
       </c>
-      <c r="D174" s="128">
+      <c r="D174" s="126">
         <f>C174/666.667</f>
         <v>18.993855370323978</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="177" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11436,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="C178" s="107" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D178" s="61" t="s">
         <v>3</v>
@@ -11447,7 +11699,7 @@
         <v>1</v>
       </c>
       <c r="B179" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C179" s="108">
         <f>D151</f>
@@ -11460,9 +11712,9 @@
         <v>2</v>
       </c>
       <c r="B180" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="C180" s="129">
+        <v>267</v>
+      </c>
+      <c r="C180" s="127">
         <f>D2*D136-C171-C172</f>
         <v>26642.936421832223</v>
       </c>
@@ -11473,7 +11725,7 @@
         <v>3</v>
       </c>
       <c r="B181" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C181" s="108">
         <f>E101*2.5*1000+E122*(VLOOKUP($A$5,道路基础数据!$A$16:$AJ$23,36))</f>
@@ -11486,7 +11738,7 @@
         <v>4</v>
       </c>
       <c r="B182" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C182" s="108">
         <f>(INT(E161/100000)+1)*10000</f>
@@ -11499,7 +11751,7 @@
         <v>5</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C183" s="108">
         <f>E110*(VLOOKUP($A$5,道路基础数据!$A$16:$AJ$23,36))</f>
@@ -11511,8 +11763,8 @@
       <c r="A184" s="25">
         <v>6</v>
       </c>
-      <c r="B184" s="124" t="s">
-        <v>274</v>
+      <c r="B184" s="122" t="s">
+        <v>273</v>
       </c>
       <c r="C184" s="108">
         <f>C8</f>
@@ -11525,7 +11777,7 @@
         <v>7</v>
       </c>
       <c r="B185" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C185" s="108">
         <f>D8</f>
@@ -11538,13 +11790,13 @@
         <v>8</v>
       </c>
       <c r="B186" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="C186" s="130">
+        <v>242</v>
+      </c>
+      <c r="C186" s="128">
         <f>SUM(C179:C185)</f>
         <v>222142.93642183222</v>
       </c>
-      <c r="D186" s="128">
+      <c r="D186" s="126">
         <f>C186/666.667</f>
         <v>333.2142380256293</v>
       </c>
@@ -11553,7 +11805,7 @@
     <row r="188" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="189" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B189" s="24"/>
       <c r="C189" s="24"/>
@@ -11561,8 +11813,8 @@
       <c r="E189" s="24"/>
     </row>
     <row r="190" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="123" t="s">
-        <v>277</v>
+      <c r="A190" s="121" t="s">
+        <v>276</v>
       </c>
       <c r="B190" s="58" t="s">
         <v>0</v>
@@ -11571,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="D190" s="107" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E190" s="61" t="s">
         <v>3</v>
@@ -11582,10 +11834,10 @@
         <v>1</v>
       </c>
       <c r="B191" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="C191" s="26" t="s">
         <v>288</v>
-      </c>
-      <c r="C191" s="26" t="s">
-        <v>289</v>
       </c>
       <c r="D191" s="108">
         <f>D2</f>
@@ -11598,12 +11850,12 @@
         <v>2</v>
       </c>
       <c r="B192" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C192" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C192" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="D192" s="125">
+      <c r="D192" s="123">
         <f>D83+D84+D85</f>
         <v>2197.2399999999998</v>
       </c>
@@ -11614,10 +11866,10 @@
         <v>3</v>
       </c>
       <c r="B193" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C193" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D193" s="108">
         <f>K5</f>
@@ -11629,11 +11881,11 @@
       <c r="A194" s="25">
         <v>4</v>
       </c>
-      <c r="B194" s="124" t="s">
-        <v>297</v>
-      </c>
-      <c r="C194" s="124" t="s">
-        <v>300</v>
+      <c r="B194" s="122" t="s">
+        <v>296</v>
+      </c>
+      <c r="C194" s="122" t="s">
+        <v>299</v>
       </c>
       <c r="D194" s="108">
         <f>E8</f>
@@ -11645,11 +11897,11 @@
       <c r="A195" s="25">
         <v>5</v>
       </c>
-      <c r="B195" s="124" t="s">
+      <c r="B195" s="122" t="s">
+        <v>297</v>
+      </c>
+      <c r="C195" s="122" t="s">
         <v>298</v>
-      </c>
-      <c r="C195" s="124" t="s">
-        <v>299</v>
       </c>
       <c r="D195" s="108">
         <f>F8</f>
@@ -11662,12 +11914,12 @@
         <v>6</v>
       </c>
       <c r="B196" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="C196" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="C196" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="D196" s="137">
+      <c r="D196" s="135">
         <f>C161/10000</f>
         <v>35.491470666084133</v>
       </c>
@@ -11681,9 +11933,9 @@
         <v>7</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="D197" s="137">
+        <v>293</v>
+      </c>
+      <c r="D197" s="135">
         <f>D161/10000</f>
         <v>10.173111605807936</v>
       </c>
@@ -11694,12 +11946,12 @@
         <v>8</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="D198" s="137">
+        <v>293</v>
+      </c>
+      <c r="D198" s="135">
         <f>(E50+E51+E57+E65+E66+D87+D88+D90+D91+D93+E115*0.2+E127*0.2)/10000</f>
         <v>1.2135933102761951</v>
       </c>
@@ -11715,7 +11967,7 @@
       <c r="C199" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D199" s="137">
+      <c r="D199" s="135">
         <f>E52+E68+D89+D92+D96</f>
         <v>919.21037699350632</v>
       </c>
@@ -11726,12 +11978,12 @@
         <v>10</v>
       </c>
       <c r="B200" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C200" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="D200" s="138">
+        <v>293</v>
+      </c>
+      <c r="D200" s="136">
         <f>(E107+E108+E117+E118+E129+E130+E140+E141+E166+F166+G166)/10000</f>
         <v>1.5841499999999999</v>
       </c>
@@ -12077,7 +12329,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="11">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>风机基础数据!$B$1:$B$4</xm:f>
@@ -12211,7 +12463,7 @@
       <c r="P1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="173">
+      <c r="Q1" s="171">
         <v>0.1</v>
       </c>
     </row>
@@ -12249,7 +12501,7 @@
       <c r="P2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="173">
+      <c r="Q2" s="171">
         <v>0.2</v>
       </c>
     </row>
@@ -12287,7 +12539,7 @@
       <c r="P3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="173">
+      <c r="Q3" s="171">
         <v>0.3</v>
       </c>
     </row>
@@ -12325,7 +12577,7 @@
       <c r="P4" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="173">
+      <c r="Q4" s="171">
         <v>0.4</v>
       </c>
     </row>
@@ -12351,7 +12603,7 @@
       <c r="P5" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="173">
+      <c r="Q5" s="171">
         <v>0.5</v>
       </c>
     </row>
@@ -12377,7 +12629,7 @@
       <c r="P6" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="173">
+      <c r="Q6" s="171">
         <v>0.6</v>
       </c>
     </row>
@@ -12403,7 +12655,7 @@
       <c r="P7" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="173">
+      <c r="Q7" s="171">
         <v>0.7</v>
       </c>
     </row>
@@ -12429,7 +12681,7 @@
       <c r="P8" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="Q8" s="173">
+      <c r="Q8" s="171">
         <v>0.8</v>
       </c>
     </row>
@@ -12443,7 +12695,7 @@
       <c r="P9" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="Q9" s="173">
+      <c r="Q9" s="171">
         <v>0.9</v>
       </c>
     </row>
@@ -12457,7 +12709,7 @@
       <c r="P10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="Q10" s="173">
+      <c r="Q10" s="171">
         <v>1</v>
       </c>
     </row>
@@ -12516,7 +12768,7 @@
         <v>40</v>
       </c>
       <c r="N16" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O16" s="11" t="s">
         <v>33</v>
@@ -12537,10 +12789,10 @@
         <v>45</v>
       </c>
       <c r="U16" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V16" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
@@ -13759,7 +14011,7 @@
         <v>180</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D33" s="14">
         <v>50000</v>
@@ -13835,7 +14087,7 @@
         <v>180</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D34" s="14">
         <v>60000</v>
@@ -13911,7 +14163,7 @@
         <v>180</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D35" s="14">
         <v>70000</v>
@@ -13987,7 +14239,7 @@
         <v>180</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D36" s="14">
         <v>80000</v>
@@ -14063,7 +14315,7 @@
         <v>180</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D37" s="14">
         <v>90000</v>
@@ -14139,7 +14391,7 @@
         <v>180</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D38" s="14">
         <v>100000</v>
@@ -14215,7 +14467,7 @@
         <v>180</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39" s="14">
         <v>110000</v>
@@ -14291,7 +14543,7 @@
         <v>180</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D40" s="14">
         <v>120000</v>
@@ -14509,78 +14761,78 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="237" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="237">
+    <row r="43" spans="1:22" s="235" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="235">
         <v>7</v>
       </c>
-      <c r="B43" s="237">
+      <c r="B43" s="235">
         <v>180</v>
       </c>
-      <c r="C43" s="238" t="s">
+      <c r="C43" s="236" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="237">
+      <c r="D43" s="235">
         <v>70000</v>
       </c>
-      <c r="E43" s="239">
+      <c r="E43" s="237">
         <v>10.25</v>
       </c>
-      <c r="F43" s="239">
+      <c r="F43" s="237">
         <v>3</v>
       </c>
-      <c r="G43" s="239">
+      <c r="G43" s="237">
         <v>3</v>
       </c>
-      <c r="H43" s="239">
+      <c r="H43" s="237">
         <v>1</v>
       </c>
-      <c r="I43" s="239">
+      <c r="I43" s="237">
         <v>1.6</v>
       </c>
-      <c r="J43" s="239">
+      <c r="J43" s="237">
         <v>1</v>
       </c>
-      <c r="K43" s="239">
+      <c r="K43" s="237">
         <v>0</v>
       </c>
-      <c r="L43" s="239">
+      <c r="L43" s="237">
         <v>0</v>
       </c>
-      <c r="M43" s="239">
+      <c r="M43" s="237">
         <v>0</v>
       </c>
-      <c r="N43" s="240">
+      <c r="N43" s="238">
         <v>0</v>
       </c>
-      <c r="O43" s="241">
+      <c r="O43" s="239">
         <f t="shared" si="7"/>
         <v>330.06357816777762</v>
       </c>
-      <c r="P43" s="241">
+      <c r="P43" s="239">
         <f t="shared" si="12"/>
         <v>600.97358466233754</v>
       </c>
-      <c r="Q43" s="241">
+      <c r="Q43" s="239">
         <f t="shared" si="13"/>
         <v>50.480288855125885</v>
       </c>
-      <c r="R43" s="241">
+      <c r="R43" s="239">
         <f>PI()*(E43+1.3)^2*(H43+I43+J43+0.15)*条件输入!$G$2</f>
         <v>1257.2889419115372</v>
       </c>
-      <c r="S43" s="241">
+      <c r="S43" s="239">
         <f>PI()*(E43+1.3)^2*(H43+I43+J43+0.15)*条件输入!$H$2</f>
         <v>314.32223547788419</v>
       </c>
-      <c r="T43" s="241">
+      <c r="T43" s="239">
         <f t="shared" si="10"/>
         <v>920.15730387195788</v>
       </c>
-      <c r="U43" s="241">
+      <c r="U43" s="239">
         <f t="shared" si="14"/>
         <v>552</v>
       </c>
-      <c r="V43" s="239">
+      <c r="V43" s="237">
         <v>2</v>
       </c>
     </row>
@@ -15575,7 +15827,7 @@
         <v>180</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D57" s="14">
         <v>50000</v>
@@ -15651,7 +15903,7 @@
         <v>180</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D58" s="14">
         <v>60000</v>
@@ -15727,7 +15979,7 @@
         <v>180</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D59" s="14">
         <v>70000</v>
@@ -15803,7 +16055,7 @@
         <v>180</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D60" s="14">
         <v>80000</v>
@@ -15879,7 +16131,7 @@
         <v>180</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61" s="14">
         <v>90000</v>
@@ -15955,7 +16207,7 @@
         <v>180</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D62" s="14">
         <v>100000</v>
@@ -16031,7 +16283,7 @@
         <v>180</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D63" s="14">
         <v>110000</v>
@@ -16107,7 +16359,7 @@
         <v>180</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D64" s="14">
         <v>120000</v>
@@ -17391,7 +17643,7 @@
         <v>180</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D81" s="14">
         <v>50000</v>
@@ -17467,7 +17719,7 @@
         <v>180</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D82" s="14">
         <v>60000</v>
@@ -17543,7 +17795,7 @@
         <v>180</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D83" s="14">
         <v>70000</v>
@@ -17619,7 +17871,7 @@
         <v>180</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D84" s="14">
         <v>80000</v>
@@ -17695,7 +17947,7 @@
         <v>180</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D85" s="14">
         <v>90000</v>
@@ -17771,7 +18023,7 @@
         <v>180</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D86" s="14">
         <v>100000</v>
@@ -17847,7 +18099,7 @@
         <v>180</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D87" s="14">
         <v>110000</v>
@@ -17923,7 +18175,7 @@
         <v>180</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D88" s="14">
         <v>120000</v>
@@ -18082,7 +18334,7 @@
         <v>84</v>
       </c>
       <c r="O97" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.15">
@@ -18250,57 +18502,57 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="237" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A101" s="237">
+    <row r="101" spans="1:15" s="235" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A101" s="235">
         <v>3</v>
       </c>
-      <c r="B101" s="239">
+      <c r="B101" s="237">
         <v>3300</v>
       </c>
-      <c r="C101" s="239">
+      <c r="C101" s="237">
         <v>6</v>
       </c>
-      <c r="D101" s="239">
+      <c r="D101" s="237">
         <v>4.5</v>
       </c>
-      <c r="E101" s="239">
+      <c r="E101" s="237">
         <v>1.8</v>
       </c>
-      <c r="F101" s="239">
+      <c r="F101" s="237">
         <v>0.25</v>
       </c>
-      <c r="G101" s="239">
+      <c r="G101" s="237">
         <v>0.5</v>
       </c>
-      <c r="H101" s="241">
+      <c r="H101" s="239">
         <f>(C101+0.5*2)*(D101+0.5*2)*(E101-0.2)*条件输入!$G$2</f>
         <v>49.28</v>
       </c>
-      <c r="I101" s="241">
+      <c r="I101" s="239">
         <f>(C101+0.5*2)*(D101+0.5*2)*(E101-0.2)*条件输入!$H$2</f>
         <v>12.319999999999997</v>
       </c>
-      <c r="J101" s="241">
+      <c r="J101" s="239">
         <f t="shared" si="22"/>
         <v>18.399999999999991</v>
       </c>
-      <c r="K101" s="241">
+      <c r="K101" s="239">
         <f t="shared" si="23"/>
         <v>2.5</v>
       </c>
-      <c r="L101" s="241">
+      <c r="L101" s="239">
         <f t="shared" si="24"/>
         <v>5.7749999999999995</v>
       </c>
-      <c r="M101" s="241">
+      <c r="M101" s="239">
         <f t="shared" si="25"/>
         <v>6.5</v>
       </c>
-      <c r="N101" s="241">
+      <c r="N101" s="239">
         <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
-      <c r="O101" s="239">
+      <c r="O101" s="237">
         <f t="shared" si="27"/>
         <v>27</v>
       </c>
@@ -18539,7 +18791,7 @@
   <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -18556,10 +18808,10 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
@@ -18620,28 +18872,28 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>201</v>
-      </c>
       <c r="D13" s="85" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="F13" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="G13" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="G13" s="86" t="s">
-        <v>209</v>
-      </c>
       <c r="H13" s="86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I13" s="86" t="s">
         <v>4</v>
@@ -18650,61 +18902,61 @@
         <v>6</v>
       </c>
       <c r="K13" s="86" t="s">
+        <v>178</v>
+      </c>
+      <c r="L13" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="L13" s="86" t="s">
+      <c r="M13" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="M13" s="86" t="s">
+      <c r="N13" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="N13" s="86" t="s">
+      <c r="O13" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="O13" s="86" t="s">
+      <c r="P13" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="P13" s="86" t="s">
+      <c r="Q13" s="86" t="s">
         <v>184</v>
       </c>
-      <c r="Q13" s="86" t="s">
+      <c r="R13" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="R13" s="86" t="s">
+      <c r="S13" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="S13" s="87" t="s">
+      <c r="T13" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="T13" s="86" t="s">
+      <c r="U13" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="U13" s="84" t="s">
+      <c r="V13" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="V13" s="86" t="s">
+      <c r="W13" s="86" t="s">
         <v>190</v>
       </c>
-      <c r="W13" s="86" t="s">
+      <c r="X13" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="X13" s="86" t="s">
+      <c r="Y13" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="Y13" s="86" t="s">
+      <c r="Z13" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="Z13" s="86" t="s">
+      <c r="AA13" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="AA13" s="86" t="s">
+      <c r="AB13" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="AB13" s="86" t="s">
+      <c r="AC13" s="86" t="s">
         <v>196</v>
-      </c>
-      <c r="AC13" s="86" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="16.5" x14ac:dyDescent="0.15">
@@ -18714,63 +18966,63 @@
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
       <c r="F14" s="88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G14" s="88"/>
       <c r="H14" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="I14" s="88" t="s">
         <v>198</v>
       </c>
-      <c r="I14" s="88" t="s">
-        <v>199</v>
-      </c>
       <c r="J14" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K14" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L14" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M14" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N14" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="O14" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="P14" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q14" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="R14" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="S14" s="170"/>
+      <c r="T14" s="88" t="s">
         <v>198</v>
       </c>
-      <c r="O14" s="88" t="s">
+      <c r="U14" s="88" t="s">
         <v>198</v>
-      </c>
-      <c r="P14" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q14" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="R14" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="S14" s="172"/>
-      <c r="T14" s="88" t="s">
-        <v>199</v>
-      </c>
-      <c r="U14" s="88" t="s">
-        <v>199</v>
       </c>
       <c r="V14" s="88" t="s">
         <v>10</v>
       </c>
       <c r="W14" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X14" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y14" s="88" t="s">
         <v>10</v>
       </c>
       <c r="Z14" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA14" s="88" t="s">
         <v>10</v>
@@ -18784,7 +19036,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="24">
         <v>110</v>
@@ -18845,7 +19097,7 @@
       <c r="R15" s="66">
         <v>370.44</v>
       </c>
-      <c r="S15" s="172"/>
+      <c r="S15" s="170"/>
       <c r="T15" s="66">
         <v>60</v>
       </c>
@@ -18879,7 +19131,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" s="24">
         <v>110</v>
@@ -18974,7 +19226,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B17" s="24">
         <v>110</v>
@@ -19011,7 +19263,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" s="24">
         <v>110</v>
@@ -19048,7 +19300,7 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B19" s="24">
         <v>220</v>
@@ -19085,7 +19337,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A20" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B20" s="24">
         <v>220</v>
@@ -19122,7 +19374,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="24">
         <v>220</v>
@@ -19159,7 +19411,7 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="24">
         <v>220</v>
@@ -19196,7 +19448,7 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="24">
         <v>110</v>
@@ -19239,7 +19491,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B24" s="24">
         <v>110</v>
@@ -19282,7 +19534,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" s="24">
         <v>110</v>
@@ -19325,7 +19577,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" s="24">
         <v>110</v>
@@ -19368,7 +19620,7 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="24">
         <v>220</v>
@@ -19411,7 +19663,7 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="24">
         <v>220</v>
@@ -19454,7 +19706,7 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A29" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B29" s="24">
         <v>220</v>
@@ -19497,7 +19749,7 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B30" s="24">
         <v>220</v>
@@ -19578,7 +19830,7 @@
         <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.15">
@@ -19592,7 +19844,7 @@
         <v>133</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.15">
@@ -19603,7 +19855,7 @@
         <v>62</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.15">
@@ -19788,16 +20040,16 @@
         <v>7</v>
       </c>
       <c r="F14" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G14" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H14" s="66" t="s">
         <v>135</v>
       </c>
       <c r="I14" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J14" s="66" t="s">
         <v>104</v>
@@ -19818,16 +20070,16 @@
         <v>146</v>
       </c>
       <c r="P14" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R14" s="66" t="s">
         <v>135</v>
       </c>
       <c r="S14" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T14" s="66" t="s">
         <v>104</v>
@@ -19854,16 +20106,16 @@
         <v>138</v>
       </c>
       <c r="AB14" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC14" s="66" t="s">
         <v>169</v>
-      </c>
-      <c r="AC14" s="66" t="s">
-        <v>170</v>
       </c>
       <c r="AD14" s="66" t="s">
         <v>135</v>
       </c>
       <c r="AE14" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF14" s="66" t="s">
         <v>139</v>
@@ -19878,7 +20130,7 @@
         <v>140</v>
       </c>
       <c r="AJ14" s="65" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AK14" s="24"/>
       <c r="AL14" s="24"/>
@@ -19902,58 +20154,58 @@
         <v>141</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E15" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F15" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G15" s="66" t="s">
         <v>101</v>
       </c>
       <c r="H15" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I15" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J15" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K15" s="77" t="s">
         <v>141</v>
       </c>
       <c r="L15" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M15" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N15" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O15" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P15" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q15" s="66" t="s">
         <v>101</v>
       </c>
       <c r="R15" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S15" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T15" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U15" s="66" t="s">
         <v>149</v>
@@ -19965,31 +20217,31 @@
         <v>142</v>
       </c>
       <c r="X15" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y15" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z15" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA15" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AB15" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AC15" s="66" t="s">
         <v>101</v>
       </c>
       <c r="AD15" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AE15" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF15" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG15" s="66" t="s">
         <v>149</v>
@@ -19998,10 +20250,10 @@
         <v>150</v>
       </c>
       <c r="AI15" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AJ15" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AK15" s="24"/>
       <c r="AL15" s="24"/>
@@ -21324,7 +21576,7 @@
         <v>144</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I27" s="66" t="s">
         <v>155</v>
@@ -21378,25 +21630,25 @@
         <v>145</v>
       </c>
       <c r="C28" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="66" t="s">
-        <v>163</v>
-      </c>
       <c r="E28" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F28" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G28" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H28" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I28" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>

--- a/autocrword/models/chapter_8/土建用量表.xlsx
+++ b/autocrword/models/chapter_8/土建用量表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\Odoo_addons_NB\autocrword\models\chapter_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB7CD3B-10A6-401C-950E-612AE523D587}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52C5B64-9DB1-4D0D-A346-DE05587B1651}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1740" yWindow="2160" windowWidth="29100" windowHeight="13830" tabRatio="569" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="成果输出" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="413">
   <si>
     <t>项目</t>
   </si>
@@ -2301,6 +2301,18 @@
   </si>
   <si>
     <t>陡坡低山</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>变电站</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{合计亩_永久用地面积}}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3429,7 +3441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4150,6 +4162,12 @@
     <xf numFmtId="176" fontId="34" fillId="9" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4174,10 +4192,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5084,14 +5099,14 @@
       <c r="B20" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="240" t="s">
+      <c r="C20" s="242" t="s">
         <v>318</v>
       </c>
-      <c r="D20" s="241"/>
-      <c r="E20" s="240" t="s">
+      <c r="D20" s="243"/>
+      <c r="E20" s="242" t="s">
         <v>319</v>
       </c>
-      <c r="F20" s="241"/>
+      <c r="F20" s="243"/>
       <c r="G20" s="177" t="s">
         <v>344</v>
       </c>
@@ -5114,15 +5129,15 @@
       <c r="G21" s="179"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="242" t="s">
+      <c r="A22" s="244" t="s">
         <v>347</v>
       </c>
-      <c r="B22" s="243"/>
-      <c r="C22" s="243"/>
-      <c r="D22" s="243"/>
-      <c r="E22" s="243"/>
-      <c r="F22" s="243"/>
-      <c r="G22" s="244"/>
+      <c r="B22" s="245"/>
+      <c r="C22" s="245"/>
+      <c r="D22" s="245"/>
+      <c r="E22" s="245"/>
+      <c r="F22" s="245"/>
+      <c r="G22" s="246"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="178" t="s">
@@ -5209,15 +5224,15 @@
       <c r="G26" s="179"/>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="242" t="s">
+      <c r="A27" s="244" t="s">
         <v>353</v>
       </c>
-      <c r="B27" s="243"/>
-      <c r="C27" s="243"/>
-      <c r="D27" s="243"/>
-      <c r="E27" s="243"/>
-      <c r="F27" s="243"/>
-      <c r="G27" s="244"/>
+      <c r="B27" s="245"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="245"/>
+      <c r="E27" s="245"/>
+      <c r="F27" s="245"/>
+      <c r="G27" s="246"/>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="178" t="s">
@@ -5268,15 +5283,15 @@
       <c r="G29" s="179"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="242" t="s">
+      <c r="A30" s="244" t="s">
         <v>357</v>
       </c>
-      <c r="B30" s="243"/>
-      <c r="C30" s="243"/>
-      <c r="D30" s="243"/>
-      <c r="E30" s="243"/>
-      <c r="F30" s="243"/>
-      <c r="G30" s="244"/>
+      <c r="B30" s="245"/>
+      <c r="C30" s="245"/>
+      <c r="D30" s="245"/>
+      <c r="E30" s="245"/>
+      <c r="F30" s="245"/>
+      <c r="G30" s="246"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="178" t="s">
@@ -7750,8 +7765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H193" sqref="H193"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7879,7 +7894,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="249" t="s">
+      <c r="A5" s="241" t="s">
         <v>409</v>
       </c>
       <c r="B5" s="32">
@@ -8354,14 +8369,14 @@
       <c r="B30" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="245" t="s">
+      <c r="C30" s="247" t="s">
         <v>318</v>
       </c>
-      <c r="D30" s="247"/>
-      <c r="E30" s="245" t="s">
+      <c r="D30" s="249"/>
+      <c r="E30" s="247" t="s">
         <v>319</v>
       </c>
-      <c r="F30" s="247"/>
+      <c r="F30" s="249"/>
       <c r="G30" s="157" t="s">
         <v>344</v>
       </c>
@@ -8384,15 +8399,15 @@
       <c r="G31" s="157"/>
     </row>
     <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="245" t="s">
+      <c r="A32" s="247" t="s">
         <v>347</v>
       </c>
-      <c r="B32" s="246"/>
-      <c r="C32" s="246"/>
-      <c r="D32" s="246"/>
-      <c r="E32" s="246"/>
-      <c r="F32" s="246"/>
-      <c r="G32" s="247"/>
+      <c r="B32" s="248"/>
+      <c r="C32" s="248"/>
+      <c r="D32" s="248"/>
+      <c r="E32" s="248"/>
+      <c r="F32" s="248"/>
+      <c r="G32" s="249"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="157" t="s">
@@ -8467,15 +8482,15 @@
       <c r="G36" s="157"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="245" t="s">
+      <c r="A37" s="247" t="s">
         <v>353</v>
       </c>
-      <c r="B37" s="246"/>
-      <c r="C37" s="246"/>
-      <c r="D37" s="246"/>
-      <c r="E37" s="246"/>
-      <c r="F37" s="246"/>
-      <c r="G37" s="247"/>
+      <c r="B37" s="248"/>
+      <c r="C37" s="248"/>
+      <c r="D37" s="248"/>
+      <c r="E37" s="248"/>
+      <c r="F37" s="248"/>
+      <c r="G37" s="249"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="157" t="s">
@@ -8518,15 +8533,15 @@
       <c r="G39" s="157"/>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="245" t="s">
+      <c r="A40" s="247" t="s">
         <v>357</v>
       </c>
-      <c r="B40" s="246"/>
-      <c r="C40" s="246"/>
-      <c r="D40" s="246"/>
-      <c r="E40" s="246"/>
-      <c r="F40" s="246"/>
-      <c r="G40" s="247"/>
+      <c r="B40" s="248"/>
+      <c r="C40" s="248"/>
+      <c r="D40" s="248"/>
+      <c r="E40" s="248"/>
+      <c r="F40" s="248"/>
+      <c r="G40" s="249"/>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="157" t="s">
@@ -11454,7 +11469,7 @@
       <c r="A161" s="118">
         <v>6</v>
       </c>
-      <c r="B161" s="248" t="s">
+      <c r="B161" s="240" t="s">
         <v>408</v>
       </c>
       <c r="C161" s="119">
@@ -11466,13 +11481,13 @@
         <v>101731.11605807937</v>
       </c>
       <c r="E161" s="120">
-        <f t="shared" ref="E160:E161" si="19">C161-D161</f>
+        <f t="shared" ref="E161" si="19">C161-D161</f>
         <v>253183.59060276195</v>
       </c>
       <c r="L161" s="118">
         <v>6</v>
       </c>
-      <c r="M161" s="248" t="s">
+      <c r="M161" s="240" t="s">
         <v>408</v>
       </c>
       <c r="N161" s="56" t="str">
@@ -11615,6 +11630,18 @@
       <c r="D170" s="61" t="s">
         <v>3</v>
       </c>
+      <c r="L170" s="121" t="s">
+        <v>12</v>
+      </c>
+      <c r="M170" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="N170" s="107" t="s">
+        <v>257</v>
+      </c>
+      <c r="O170" s="61" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="171" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="25">
@@ -11628,26 +11655,48 @@
         <v>330.06357816777762</v>
       </c>
       <c r="D171" s="27"/>
+      <c r="L171" s="25">
+        <v>1</v>
+      </c>
+      <c r="M171" s="122" t="s">
+        <v>255</v>
+      </c>
+      <c r="N171" s="123" t="str">
+        <f>"{{"&amp;M171&amp;"_永久用地面积}}"</f>
+        <v>{{风电机组基础_永久用地面积}}</v>
+      </c>
+      <c r="O171" s="27"/>
     </row>
     <row r="172" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="25">
         <v>2</v>
       </c>
       <c r="B172" s="122" t="s">
-        <v>254</v>
+        <v>70</v>
       </c>
       <c r="C172" s="123">
         <f>VLOOKUP($C$2,风机基础数据!$A$98:$P$105,15)</f>
         <v>27</v>
       </c>
       <c r="D172" s="27"/>
+      <c r="L172" s="25">
+        <v>2</v>
+      </c>
+      <c r="M172" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="N172" s="123" t="str">
+        <f t="shared" ref="N172:N174" si="21">"{{"&amp;M172&amp;"_永久用地面积}}"</f>
+        <v>{{箱变基础_永久用地面积}}</v>
+      </c>
+      <c r="O172" s="27"/>
     </row>
     <row r="173" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="25">
         <v>3</v>
       </c>
-      <c r="B173" s="26" t="s">
-        <v>253</v>
+      <c r="B173" s="122" t="s">
+        <v>410</v>
       </c>
       <c r="C173" s="123">
         <f t="array" ref="C173">VLOOKUP($H$5&amp;$I$5&amp;$J$5,IF({1,0},升压站基础数据!A$15:A$30&amp;升压站基础数据!B$15:B$30&amp;升压站基础数据!C$15:C$30,升压站基础数据!G$15:G$30),2,0)</f>
@@ -11656,13 +11705,26 @@
       <c r="D173" s="124" t="s">
         <v>256</v>
       </c>
+      <c r="L173" s="25">
+        <v>3</v>
+      </c>
+      <c r="M173" s="122" t="s">
+        <v>410</v>
+      </c>
+      <c r="N173" s="123" t="str">
+        <f t="shared" si="21"/>
+        <v>{{变电站_永久用地面积}}</v>
+      </c>
+      <c r="O173" s="124" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="174" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A174" s="106">
         <v>4</v>
       </c>
-      <c r="B174" s="29" t="s">
-        <v>242</v>
+      <c r="B174" s="250" t="s">
+        <v>411</v>
       </c>
       <c r="C174" s="125">
         <f>SUM(C171:C173)</f>
@@ -11671,6 +11733,19 @@
       <c r="D174" s="126">
         <f>C174/666.667</f>
         <v>18.993855370323978</v>
+      </c>
+      <c r="L174" s="106">
+        <v>4</v>
+      </c>
+      <c r="M174" s="250" t="s">
+        <v>411</v>
+      </c>
+      <c r="N174" s="123" t="str">
+        <f>"{{"&amp;M174&amp;"_永久用地面积}}"</f>
+        <v>{{合计_永久用地面积}}</v>
+      </c>
+      <c r="O174" s="126" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="175" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12406,7 +12481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V105"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>

--- a/autocrword/models/chapter_8/土建用量表.xlsx
+++ b/autocrword/models/chapter_8/土建用量表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\Odoo_addons_NB\autocrword\models\chapter_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52C5B64-9DB1-4D0D-A346-DE05587B1651}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0350363E-8608-4021-B72C-B0EA6AECCDC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1740" yWindow="2160" windowWidth="29100" windowHeight="13830" tabRatio="569" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="569" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="成果输出" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="421">
   <si>
     <t>项目</t>
   </si>
@@ -2313,6 +2313,38 @@
   </si>
   <si>
     <t>{{合计亩_永久用地面积}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工辅企</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>风电机组安装平台</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工道路</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃渣场</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>进场道路</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>电缆沟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{合计亩_临时用地面积}}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4168,6 +4200,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4190,9 +4225,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5099,14 +5131,14 @@
       <c r="B20" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="242" t="s">
+      <c r="C20" s="243" t="s">
         <v>318</v>
       </c>
-      <c r="D20" s="243"/>
-      <c r="E20" s="242" t="s">
+      <c r="D20" s="244"/>
+      <c r="E20" s="243" t="s">
         <v>319</v>
       </c>
-      <c r="F20" s="243"/>
+      <c r="F20" s="244"/>
       <c r="G20" s="177" t="s">
         <v>344</v>
       </c>
@@ -5129,15 +5161,15 @@
       <c r="G21" s="179"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="244" t="s">
+      <c r="A22" s="245" t="s">
         <v>347</v>
       </c>
-      <c r="B22" s="245"/>
-      <c r="C22" s="245"/>
-      <c r="D22" s="245"/>
-      <c r="E22" s="245"/>
-      <c r="F22" s="245"/>
-      <c r="G22" s="246"/>
+      <c r="B22" s="246"/>
+      <c r="C22" s="246"/>
+      <c r="D22" s="246"/>
+      <c r="E22" s="246"/>
+      <c r="F22" s="246"/>
+      <c r="G22" s="247"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="178" t="s">
@@ -5224,15 +5256,15 @@
       <c r="G26" s="179"/>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="244" t="s">
+      <c r="A27" s="245" t="s">
         <v>353</v>
       </c>
-      <c r="B27" s="245"/>
-      <c r="C27" s="245"/>
-      <c r="D27" s="245"/>
-      <c r="E27" s="245"/>
-      <c r="F27" s="245"/>
-      <c r="G27" s="246"/>
+      <c r="B27" s="246"/>
+      <c r="C27" s="246"/>
+      <c r="D27" s="246"/>
+      <c r="E27" s="246"/>
+      <c r="F27" s="246"/>
+      <c r="G27" s="247"/>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="178" t="s">
@@ -5283,15 +5315,15 @@
       <c r="G29" s="179"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="244" t="s">
+      <c r="A30" s="245" t="s">
         <v>357</v>
       </c>
-      <c r="B30" s="245"/>
-      <c r="C30" s="245"/>
-      <c r="D30" s="245"/>
-      <c r="E30" s="245"/>
-      <c r="F30" s="245"/>
-      <c r="G30" s="246"/>
+      <c r="B30" s="246"/>
+      <c r="C30" s="246"/>
+      <c r="D30" s="246"/>
+      <c r="E30" s="246"/>
+      <c r="F30" s="246"/>
+      <c r="G30" s="247"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="178" t="s">
@@ -7765,8 +7797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -8369,14 +8401,14 @@
       <c r="B30" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="247" t="s">
+      <c r="C30" s="248" t="s">
         <v>318</v>
       </c>
-      <c r="D30" s="249"/>
-      <c r="E30" s="247" t="s">
+      <c r="D30" s="250"/>
+      <c r="E30" s="248" t="s">
         <v>319</v>
       </c>
-      <c r="F30" s="249"/>
+      <c r="F30" s="250"/>
       <c r="G30" s="157" t="s">
         <v>344</v>
       </c>
@@ -8399,15 +8431,15 @@
       <c r="G31" s="157"/>
     </row>
     <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="247" t="s">
+      <c r="A32" s="248" t="s">
         <v>347</v>
       </c>
-      <c r="B32" s="248"/>
-      <c r="C32" s="248"/>
-      <c r="D32" s="248"/>
-      <c r="E32" s="248"/>
-      <c r="F32" s="248"/>
-      <c r="G32" s="249"/>
+      <c r="B32" s="249"/>
+      <c r="C32" s="249"/>
+      <c r="D32" s="249"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="250"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="157" t="s">
@@ -8482,15 +8514,15 @@
       <c r="G36" s="157"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="247" t="s">
+      <c r="A37" s="248" t="s">
         <v>353</v>
       </c>
-      <c r="B37" s="248"/>
-      <c r="C37" s="248"/>
-      <c r="D37" s="248"/>
-      <c r="E37" s="248"/>
-      <c r="F37" s="248"/>
-      <c r="G37" s="249"/>
+      <c r="B37" s="249"/>
+      <c r="C37" s="249"/>
+      <c r="D37" s="249"/>
+      <c r="E37" s="249"/>
+      <c r="F37" s="249"/>
+      <c r="G37" s="250"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="157" t="s">
@@ -8533,15 +8565,15 @@
       <c r="G39" s="157"/>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="247" t="s">
+      <c r="A40" s="248" t="s">
         <v>357</v>
       </c>
-      <c r="B40" s="248"/>
-      <c r="C40" s="248"/>
-      <c r="D40" s="248"/>
-      <c r="E40" s="248"/>
-      <c r="F40" s="248"/>
-      <c r="G40" s="249"/>
+      <c r="B40" s="249"/>
+      <c r="C40" s="249"/>
+      <c r="D40" s="249"/>
+      <c r="E40" s="249"/>
+      <c r="F40" s="249"/>
+      <c r="G40" s="250"/>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="157" t="s">
@@ -11686,7 +11718,7 @@
         <v>70</v>
       </c>
       <c r="N172" s="123" t="str">
-        <f t="shared" ref="N172:N174" si="21">"{{"&amp;M172&amp;"_永久用地面积}}"</f>
+        <f t="shared" ref="N172:N173" si="21">"{{"&amp;M172&amp;"_永久用地面积}}"</f>
         <v>{{箱变基础_永久用地面积}}</v>
       </c>
       <c r="O172" s="27"/>
@@ -11723,7 +11755,7 @@
       <c r="A174" s="106">
         <v>4</v>
       </c>
-      <c r="B174" s="250" t="s">
+      <c r="B174" s="242" t="s">
         <v>411</v>
       </c>
       <c r="C174" s="125">
@@ -11737,7 +11769,7 @@
       <c r="L174" s="106">
         <v>4</v>
       </c>
-      <c r="M174" s="250" t="s">
+      <c r="M174" s="242" t="s">
         <v>411</v>
       </c>
       <c r="N174" s="123" t="str">
@@ -11749,13 +11781,25 @@
       </c>
     </row>
     <row r="175" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="177" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L177" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="M177" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="N177" s="107" t="s">
+        <v>252</v>
+      </c>
+      <c r="O177" s="61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="105" t="s">
         <v>85</v>
       </c>
@@ -11768,73 +11812,139 @@
       <c r="D178" s="61" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L178" s="25">
+        <v>1</v>
+      </c>
+      <c r="M178" s="122" t="s">
+        <v>413</v>
+      </c>
+      <c r="N178" s="108" t="str">
+        <f>"{{"&amp;M178&amp;"_临时用地面积}}"</f>
+        <v>{{施工辅企_临时用地面积}}</v>
+      </c>
+      <c r="O178" s="27"/>
+    </row>
+    <row r="179" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="25">
         <v>1</v>
       </c>
-      <c r="B179" s="26" t="s">
-        <v>266</v>
+      <c r="B179" s="122" t="s">
+        <v>413</v>
       </c>
       <c r="C179" s="108">
         <f>D151</f>
         <v>10500</v>
       </c>
       <c r="D179" s="27"/>
-    </row>
-    <row r="180" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L179" s="25">
+        <v>2</v>
+      </c>
+      <c r="M179" s="122" t="s">
+        <v>414</v>
+      </c>
+      <c r="N179" s="108" t="str">
+        <f t="shared" ref="N179:N185" si="22">"{{"&amp;M179&amp;"_临时用地面积}}"</f>
+        <v>{{风电机组安装平台_临时用地面积}}</v>
+      </c>
+      <c r="O179" s="27"/>
+    </row>
+    <row r="180" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="25">
         <v>2</v>
       </c>
-      <c r="B180" s="26" t="s">
-        <v>267</v>
+      <c r="B180" s="122" t="s">
+        <v>414</v>
       </c>
       <c r="C180" s="127">
         <f>D2*D136-C171-C172</f>
         <v>26642.936421832223</v>
       </c>
       <c r="D180" s="27"/>
-    </row>
-    <row r="181" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L180" s="25">
+        <v>3</v>
+      </c>
+      <c r="M180" s="122" t="s">
+        <v>415</v>
+      </c>
+      <c r="N180" s="108" t="str">
+        <f t="shared" si="22"/>
+        <v>{{施工道路_临时用地面积}}</v>
+      </c>
+      <c r="O180" s="27"/>
+    </row>
+    <row r="181" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="25">
         <v>3</v>
       </c>
-      <c r="B181" s="26" t="s">
-        <v>268</v>
+      <c r="B181" s="122" t="s">
+        <v>415</v>
       </c>
       <c r="C181" s="108">
         <f>E101*2.5*1000+E122*(VLOOKUP($A$5,道路基础数据!$A$16:$AJ$23,36))</f>
         <v>132500</v>
       </c>
       <c r="D181" s="27"/>
-    </row>
-    <row r="182" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L181" s="25">
+        <v>4</v>
+      </c>
+      <c r="M181" s="122" t="s">
+        <v>416</v>
+      </c>
+      <c r="N181" s="108" t="str">
+        <f t="shared" si="22"/>
+        <v>{{弃渣场_临时用地面积}}</v>
+      </c>
+      <c r="O181" s="27"/>
+    </row>
+    <row r="182" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="25">
         <v>4</v>
       </c>
-      <c r="B182" s="26" t="s">
-        <v>269</v>
+      <c r="B182" s="122" t="s">
+        <v>416</v>
       </c>
       <c r="C182" s="108">
         <f>(INT(E161/100000)+1)*10000</f>
         <v>30000</v>
       </c>
       <c r="D182" s="27"/>
-    </row>
-    <row r="183" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L182" s="25">
+        <v>5</v>
+      </c>
+      <c r="M182" s="122" t="s">
+        <v>417</v>
+      </c>
+      <c r="N182" s="108" t="str">
+        <f t="shared" si="22"/>
+        <v>{{进场道路_临时用地面积}}</v>
+      </c>
+      <c r="O182" s="27"/>
+    </row>
+    <row r="183" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="25">
         <v>5</v>
       </c>
-      <c r="B183" s="26" t="s">
-        <v>270</v>
+      <c r="B183" s="122" t="s">
+        <v>417</v>
       </c>
       <c r="C183" s="108">
         <f>E110*(VLOOKUP($A$5,道路基础数据!$A$16:$AJ$23,36))</f>
         <v>18000</v>
       </c>
       <c r="D183" s="27"/>
-    </row>
-    <row r="184" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L183" s="25">
+        <v>6</v>
+      </c>
+      <c r="M183" s="122" t="s">
+        <v>273</v>
+      </c>
+      <c r="N183" s="108" t="str">
+        <f t="shared" si="22"/>
+        <v>{{架空线路_临时用地面积}}</v>
+      </c>
+      <c r="O183" s="27"/>
+    </row>
+    <row r="184" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="25">
         <v>6</v>
       </c>
@@ -11846,26 +11956,50 @@
         <v>1500</v>
       </c>
       <c r="D184" s="27"/>
-    </row>
-    <row r="185" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L184" s="25">
+        <v>7</v>
+      </c>
+      <c r="M184" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="N184" s="108" t="str">
+        <f t="shared" si="22"/>
+        <v>{{电缆沟_临时用地面积}}</v>
+      </c>
+      <c r="O184" s="27"/>
+    </row>
+    <row r="185" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A185" s="25">
         <v>7</v>
       </c>
-      <c r="B185" s="26" t="s">
-        <v>271</v>
+      <c r="B185" s="122" t="s">
+        <v>418</v>
       </c>
       <c r="C185" s="108">
         <f>D8</f>
         <v>3000</v>
       </c>
       <c r="D185" s="27"/>
-    </row>
-    <row r="186" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L185" s="106">
+        <v>8</v>
+      </c>
+      <c r="M185" s="242" t="s">
+        <v>419</v>
+      </c>
+      <c r="N185" s="108" t="str">
+        <f t="shared" si="22"/>
+        <v>{{合计_临时用地面积}}</v>
+      </c>
+      <c r="O185" s="126" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A186" s="106">
         <v>8</v>
       </c>
-      <c r="B186" s="29" t="s">
-        <v>242</v>
+      <c r="B186" s="242" t="s">
+        <v>419</v>
       </c>
       <c r="C186" s="128">
         <f>SUM(C179:C185)</f>
@@ -11876,9 +12010,9 @@
         <v>333.2142380256293</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
         <v>285</v>
       </c>
@@ -11887,7 +12021,7 @@
       <c r="D189" s="24"/>
       <c r="E189" s="24"/>
     </row>
-    <row r="190" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="121" t="s">
         <v>276</v>
       </c>
@@ -11904,7 +12038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="25">
         <v>1</v>
       </c>
@@ -11920,7 +12054,7 @@
       </c>
       <c r="E191" s="27"/>
     </row>
-    <row r="192" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="25">
         <v>2</v>
       </c>
@@ -19878,7 +20012,7 @@
   <dimension ref="A1:AY36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:I36"/>
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/autocrword/models/chapter_8/土建用量表.xlsx
+++ b/autocrword/models/chapter_8/土建用量表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\Odoo_addons_NB\autocrword\models\chapter_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0350363E-8608-4021-B72C-B0EA6AECCDC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BFAA18-E906-4363-9F54-346CEB75EAFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="569" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="1080" windowWidth="19335" windowHeight="13830" tabRatio="569" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="成果输出" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="428">
   <si>
     <t>项目</t>
   </si>
@@ -1720,10 +1720,6 @@
     <t>浆砌石</t>
   </si>
   <si>
-    <t>架空线路</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>直埋电缆</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2345,6 +2341,38 @@
   </si>
   <si>
     <t>{{合计亩_临时用地面积}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑面积</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>土石方开挖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>浆砌石</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>风机机组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主变压器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>土石方回填</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>混凝土</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢筋</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4663,11 +4691,11 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="145" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -4675,30 +4703,30 @@
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="121" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="174" t="s">
         <v>311</v>
       </c>
-      <c r="B2" s="174" t="s">
+      <c r="C2" s="174" t="s">
         <v>312</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="D2" s="174" t="s">
         <v>313</v>
       </c>
-      <c r="D2" s="174" t="s">
+      <c r="E2" s="174" t="s">
         <v>314</v>
       </c>
-      <c r="E2" s="174" t="s">
+      <c r="F2" s="174" t="s">
         <v>315</v>
       </c>
-      <c r="F2" s="174" t="s">
+      <c r="G2" s="177" t="s">
         <v>316</v>
-      </c>
-      <c r="G2" s="177" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="178" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B3" s="175">
         <f>条件输入!B13</f>
@@ -4727,7 +4755,7 @@
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="178" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="175">
         <f>条件输入!B14</f>
@@ -4756,7 +4784,7 @@
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="178" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" s="175">
         <f>条件输入!B15</f>
@@ -4785,7 +4813,7 @@
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="178" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B6" s="175">
         <f>条件输入!B16</f>
@@ -4814,7 +4842,7 @@
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="178" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="175">
         <f>条件输入!B17</f>
@@ -4843,7 +4871,7 @@
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="180" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B8" s="176">
         <f>条件输入!B18</f>
@@ -4874,11 +4902,11 @@
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="145" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -4886,40 +4914,40 @@
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="121" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="174" t="s">
         <v>326</v>
       </c>
-      <c r="B12" s="174" t="s">
+      <c r="C12" s="174" t="s">
         <v>327</v>
       </c>
-      <c r="C12" s="174" t="s">
+      <c r="D12" s="174" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" s="174" t="s">
         <v>328</v>
       </c>
-      <c r="D12" s="174" t="s">
-        <v>341</v>
-      </c>
-      <c r="E12" s="174" t="s">
+      <c r="F12" s="174" t="s">
         <v>329</v>
       </c>
-      <c r="F12" s="174" t="s">
+      <c r="G12" s="174" t="s">
         <v>330</v>
       </c>
-      <c r="G12" s="174" t="s">
+      <c r="H12" s="174" t="s">
         <v>331</v>
       </c>
-      <c r="H12" s="174" t="s">
+      <c r="I12" s="174" t="s">
         <v>332</v>
       </c>
-      <c r="I12" s="174" t="s">
+      <c r="J12" s="174" t="s">
         <v>333</v>
       </c>
-      <c r="J12" s="174" t="s">
+      <c r="K12" s="174" t="s">
         <v>334</v>
       </c>
-      <c r="K12" s="174" t="s">
+      <c r="L12" s="177" t="s">
         <v>335</v>
-      </c>
-      <c r="L12" s="177" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -4927,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="175" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C13" s="175">
         <f>条件输入!C23</f>
@@ -4975,7 +5003,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="175" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C14" s="175">
         <f>条件输入!C24</f>
@@ -5023,7 +5051,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="175" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C15" s="175">
         <f>条件输入!C25</f>
@@ -5071,7 +5099,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="176" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C16" s="176">
         <f>条件输入!C26</f>
@@ -5118,51 +5146,51 @@
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="121" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B20" s="174" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D20" s="244"/>
       <c r="E20" s="243" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F20" s="244"/>
       <c r="G20" s="177" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="178"/>
       <c r="B21" s="175"/>
       <c r="C21" s="175" t="s">
+        <v>344</v>
+      </c>
+      <c r="D21" s="175" t="s">
         <v>345</v>
       </c>
-      <c r="D21" s="175" t="s">
-        <v>346</v>
-      </c>
       <c r="E21" s="175" t="s">
+        <v>344</v>
+      </c>
+      <c r="F21" s="175" t="s">
         <v>345</v>
-      </c>
-      <c r="F21" s="175" t="s">
-        <v>346</v>
       </c>
       <c r="G21" s="179"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="245" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B22" s="246"/>
       <c r="C22" s="246"/>
@@ -5173,7 +5201,7 @@
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="178" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B23" s="175"/>
       <c r="C23" s="175">
@@ -5196,7 +5224,7 @@
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="178" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B24" s="175"/>
       <c r="C24" s="175"/>
@@ -5207,10 +5235,10 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="178" t="s">
+        <v>349</v>
+      </c>
+      <c r="B25" s="175" t="s">
         <v>350</v>
-      </c>
-      <c r="B25" s="175" t="s">
-        <v>351</v>
       </c>
       <c r="C25" s="175">
         <f>条件输入!C35</f>
@@ -5232,10 +5260,10 @@
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="178" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B26" s="175" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C26" s="175">
         <f>条件输入!C36</f>
@@ -5257,7 +5285,7 @@
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="245" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B27" s="246"/>
       <c r="C27" s="246"/>
@@ -5268,10 +5296,10 @@
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="178" t="s">
+        <v>353</v>
+      </c>
+      <c r="B28" s="175" t="s">
         <v>354</v>
-      </c>
-      <c r="B28" s="175" t="s">
-        <v>355</v>
       </c>
       <c r="C28" s="175">
         <f>条件输入!C38</f>
@@ -5293,7 +5321,7 @@
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="178" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B29" s="175"/>
       <c r="C29" s="175">
@@ -5316,7 +5344,7 @@
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="245" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B30" s="246"/>
       <c r="C30" s="246"/>
@@ -5327,7 +5355,7 @@
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="178" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B31" s="175"/>
       <c r="C31" s="175">
@@ -5350,7 +5378,7 @@
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="180" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B32" s="176"/>
       <c r="C32" s="176">
@@ -5375,11 +5403,11 @@
     <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B35" s="193"/>
       <c r="C35" s="193" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D35" s="193"/>
       <c r="E35" s="193"/>
@@ -5472,7 +5500,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>5</v>
@@ -5609,10 +5637,10 @@
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C49" s="50" t="s">
         <v>369</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -5779,10 +5807,10 @@
     </row>
     <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -5850,7 +5878,7 @@
         <v>403.82</v>
       </c>
       <c r="E64" s="95" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -5950,7 +5978,7 @@
         <v>1993.67</v>
       </c>
       <c r="E70" s="95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -6193,10 +6221,10 @@
     </row>
     <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C88" s="191" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
@@ -6306,7 +6334,7 @@
         <v>4</v>
       </c>
       <c r="B94" s="182" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C94" s="183" t="s">
         <v>99</v>
@@ -6326,7 +6354,7 @@
         <v>5</v>
       </c>
       <c r="B95" s="185" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C95" s="183" t="s">
         <v>101</v>
@@ -6366,7 +6394,7 @@
         <v>7</v>
       </c>
       <c r="B97" s="185" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C97" s="183" t="s">
         <v>5</v>
@@ -6486,7 +6514,7 @@
         <v>4</v>
       </c>
       <c r="B103" s="182" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C103" s="183" t="s">
         <v>99</v>
@@ -6506,7 +6534,7 @@
         <v>5</v>
       </c>
       <c r="B104" s="182" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C104" s="183" t="s">
         <v>99</v>
@@ -6526,7 +6554,7 @@
         <v>6</v>
       </c>
       <c r="B105" s="185" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C105" s="183" t="s">
         <v>101</v>
@@ -6566,7 +6594,7 @@
         <v>8</v>
       </c>
       <c r="B107" s="185" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C107" s="183" t="s">
         <v>5</v>
@@ -6746,7 +6774,7 @@
         <v>5</v>
       </c>
       <c r="B116" s="182" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C116" s="183" t="s">
         <v>99</v>
@@ -6766,7 +6794,7 @@
         <v>6</v>
       </c>
       <c r="B117" s="185" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C117" s="183" t="s">
         <v>101</v>
@@ -6806,7 +6834,7 @@
         <v>8</v>
       </c>
       <c r="B119" s="185" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C119" s="183" t="s">
         <v>5</v>
@@ -7043,10 +7071,10 @@
     </row>
     <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C133" s="192" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
@@ -7172,10 +7200,10 @@
     </row>
     <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
@@ -7320,10 +7348,10 @@
     </row>
     <row r="153" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
@@ -7331,13 +7359,13 @@
         <v>12</v>
       </c>
       <c r="B154" s="226" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C154" s="226" t="s">
         <v>279</v>
       </c>
       <c r="D154" s="226" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E154" s="226" t="s">
         <v>281</v>
@@ -7380,10 +7408,10 @@
     </row>
     <row r="158" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
@@ -7460,10 +7488,10 @@
     </row>
     <row r="166" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
@@ -7590,11 +7618,11 @@
     </row>
     <row r="178" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B178" s="14"/>
       <c r="C178" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
@@ -7673,7 +7701,7 @@
         <v>273</v>
       </c>
       <c r="C183" s="175" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D183" s="203">
         <f>条件输入!D194</f>
@@ -7686,7 +7714,7 @@
         <v>5</v>
       </c>
       <c r="B184" s="175" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C184" s="175" t="s">
         <v>98</v>
@@ -7797,8 +7825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O194" sqref="O194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7848,7 +7876,7 @@
         <v>116</v>
       </c>
       <c r="M1" s="138" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7878,13 +7906,13 @@
         <v>0.19999999999999996</v>
       </c>
       <c r="M2" s="137" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="10"/>
       <c r="M3" s="140" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7907,7 +7935,7 @@
         <v>118</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>68</v>
@@ -7919,15 +7947,15 @@
         <v>202</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M4" s="142" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="241" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B5" s="32">
         <v>5</v>
@@ -7961,16 +7989,16 @@
         <v>2</v>
       </c>
       <c r="M5" s="143" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>274</v>
@@ -7979,10 +8007,10 @@
         <v>275</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8023,7 +8051,7 @@
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="145" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -8033,30 +8061,30 @@
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="165" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="166" t="s">
         <v>311</v>
       </c>
-      <c r="B12" s="166" t="s">
+      <c r="C12" s="166" t="s">
         <v>312</v>
       </c>
-      <c r="C12" s="166" t="s">
+      <c r="D12" s="166" t="s">
         <v>313</v>
       </c>
-      <c r="D12" s="166" t="s">
+      <c r="E12" s="166" t="s">
         <v>314</v>
       </c>
-      <c r="E12" s="166" t="s">
+      <c r="F12" s="166" t="s">
         <v>315</v>
       </c>
-      <c r="F12" s="166" t="s">
+      <c r="G12" s="167" t="s">
         <v>316</v>
-      </c>
-      <c r="G12" s="167" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="168" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B13" s="146">
         <v>588.5</v>
@@ -8079,7 +8107,7 @@
     </row>
     <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="168" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B14" s="146">
         <v>803.5</v>
@@ -8102,7 +8130,7 @@
     </row>
     <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="168" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B15" s="146">
         <v>801.79899999999998</v>
@@ -8125,7 +8153,7 @@
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="168" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B16" s="146">
         <v>1908.0029999999999</v>
@@ -8148,7 +8176,7 @@
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="168" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B17" s="146">
         <v>345</v>
@@ -8171,7 +8199,7 @@
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="169" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B18" s="148">
         <v>283.5</v>
@@ -8210,7 +8238,7 @@
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="145" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -8220,40 +8248,40 @@
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="159" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" s="160" t="s">
         <v>326</v>
       </c>
-      <c r="B22" s="160" t="s">
+      <c r="C22" s="160" t="s">
         <v>327</v>
       </c>
-      <c r="C22" s="160" t="s">
+      <c r="D22" s="161" t="s">
+        <v>340</v>
+      </c>
+      <c r="E22" s="160" t="s">
         <v>328</v>
       </c>
-      <c r="D22" s="161" t="s">
-        <v>341</v>
-      </c>
-      <c r="E22" s="160" t="s">
+      <c r="F22" s="160" t="s">
         <v>329</v>
       </c>
-      <c r="F22" s="160" t="s">
+      <c r="G22" s="160" t="s">
         <v>330</v>
       </c>
-      <c r="G22" s="160" t="s">
+      <c r="H22" s="160" t="s">
         <v>331</v>
       </c>
-      <c r="H22" s="160" t="s">
+      <c r="I22" s="160" t="s">
         <v>332</v>
       </c>
-      <c r="I22" s="160" t="s">
+      <c r="J22" s="160" t="s">
         <v>333</v>
       </c>
-      <c r="J22" s="160" t="s">
+      <c r="K22" s="160" t="s">
         <v>334</v>
       </c>
-      <c r="K22" s="160" t="s">
+      <c r="L22" s="162" t="s">
         <v>335</v>
-      </c>
-      <c r="L22" s="162" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8261,7 +8289,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="151" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C23" s="151">
         <v>3</v>
@@ -8299,7 +8327,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C24" s="151">
         <v>20</v>
@@ -8337,7 +8365,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="153" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C25" s="151"/>
       <c r="D25" s="151"/>
@@ -8355,7 +8383,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="154" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C26" s="155"/>
       <c r="D26" s="155"/>
@@ -8386,7 +8414,7 @@
     </row>
     <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="158" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -8396,43 +8424,43 @@
     </row>
     <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="157" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B30" s="157" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="248" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D30" s="250"/>
       <c r="E30" s="248" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F30" s="250"/>
       <c r="G30" s="157" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="157"/>
       <c r="B31" s="157"/>
       <c r="C31" s="157" t="s">
+        <v>344</v>
+      </c>
+      <c r="D31" s="157" t="s">
         <v>345</v>
       </c>
-      <c r="D31" s="157" t="s">
-        <v>346</v>
-      </c>
       <c r="E31" s="157" t="s">
+        <v>344</v>
+      </c>
+      <c r="F31" s="157" t="s">
         <v>345</v>
-      </c>
-      <c r="F31" s="157" t="s">
-        <v>346</v>
       </c>
       <c r="G31" s="157"/>
     </row>
     <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="248" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B32" s="249"/>
       <c r="C32" s="249"/>
@@ -8443,7 +8471,7 @@
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="157" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B33" s="157"/>
       <c r="C33" s="157">
@@ -8462,7 +8490,7 @@
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="157" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B34" s="157"/>
       <c r="C34" s="157"/>
@@ -8473,10 +8501,10 @@
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="157" t="s">
+        <v>349</v>
+      </c>
+      <c r="B35" s="157" t="s">
         <v>350</v>
-      </c>
-      <c r="B35" s="157" t="s">
-        <v>351</v>
       </c>
       <c r="C35" s="157">
         <v>85.85</v>
@@ -8494,10 +8522,10 @@
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="157" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B36" s="157" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C36" s="157">
         <v>167.44399999999999</v>
@@ -8515,7 +8543,7 @@
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="248" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B37" s="249"/>
       <c r="C37" s="249"/>
@@ -8526,10 +8554,10 @@
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="157" t="s">
+        <v>353</v>
+      </c>
+      <c r="B38" s="157" t="s">
         <v>354</v>
-      </c>
-      <c r="B38" s="157" t="s">
-        <v>355</v>
       </c>
       <c r="C38" s="157">
         <v>21.475000000000001</v>
@@ -8547,7 +8575,7 @@
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="157" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B39" s="157"/>
       <c r="C39" s="157">
@@ -8566,7 +8594,7 @@
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="248" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B40" s="249"/>
       <c r="C40" s="249"/>
@@ -8577,7 +8605,7 @@
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="157" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B41" s="157"/>
       <c r="C41" s="157">
@@ -8596,7 +8624,7 @@
     </row>
     <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="157" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B42" s="157"/>
       <c r="C42" s="157">
@@ -8624,7 +8652,7 @@
     <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8870,7 +8898,7 @@
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9519,7 +9547,7 @@
       </c>
       <c r="O101" s="81"/>
       <c r="P101" s="81" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q101" s="42"/>
     </row>
@@ -9854,7 +9882,7 @@
       </c>
       <c r="O110" s="80"/>
       <c r="P110" s="81" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q110" s="43"/>
     </row>
@@ -10025,7 +10053,7 @@
         <v>6000</v>
       </c>
       <c r="E115" s="80">
-        <f t="shared" si="5"/>
+        <f>D115*$E$110</f>
         <v>9000</v>
       </c>
       <c r="F115" s="37"/>
@@ -10303,7 +10331,7 @@
       </c>
       <c r="O122" s="80"/>
       <c r="P122" s="81" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q122" s="43"/>
     </row>
@@ -10790,7 +10818,7 @@
       </c>
       <c r="O135" s="80"/>
       <c r="P135" s="80" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q135" s="37"/>
     </row>
@@ -11082,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="M146" s="122" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N146" s="26" t="str">
         <f>"{{"&amp;M146&amp;"_1}}"</f>
@@ -11312,7 +11340,7 @@
         <v>1</v>
       </c>
       <c r="B156" s="116" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C156" s="56">
         <f>E47+E48+E62+E63</f>
@@ -11330,7 +11358,7 @@
         <v>1</v>
       </c>
       <c r="M156" s="116" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N156" s="56" t="str">
         <f>"{{"&amp;M156&amp;"_开挖}}"</f>
@@ -11464,7 +11492,7 @@
         <v>5</v>
       </c>
       <c r="B160" s="116" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C160" s="117">
         <f>A8</f>
@@ -11482,7 +11510,7 @@
         <v>5</v>
       </c>
       <c r="M160" s="116" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N160" s="56" t="str">
         <f t="shared" si="16"/>
@@ -11502,7 +11530,7 @@
         <v>6</v>
       </c>
       <c r="B161" s="240" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C161" s="119">
         <f>SUM(C156:C160)</f>
@@ -11520,7 +11548,7 @@
         <v>6</v>
       </c>
       <c r="M161" s="240" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N161" s="56" t="str">
         <f t="shared" si="16"/>
@@ -11728,7 +11756,7 @@
         <v>3</v>
       </c>
       <c r="B173" s="122" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C173" s="123">
         <f t="array" ref="C173">VLOOKUP($H$5&amp;$I$5&amp;$J$5,IF({1,0},升压站基础数据!A$15:A$30&amp;升压站基础数据!B$15:B$30&amp;升压站基础数据!C$15:C$30,升压站基础数据!G$15:G$30),2,0)</f>
@@ -11741,7 +11769,7 @@
         <v>3</v>
       </c>
       <c r="M173" s="122" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N173" s="123" t="str">
         <f t="shared" si="21"/>
@@ -11756,7 +11784,7 @@
         <v>4</v>
       </c>
       <c r="B174" s="242" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C174" s="125">
         <f>SUM(C171:C173)</f>
@@ -11770,19 +11798,19 @@
         <v>4</v>
       </c>
       <c r="M174" s="242" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N174" s="123" t="str">
         <f>"{{"&amp;M174&amp;"_永久用地面积}}"</f>
         <v>{{合计_永久用地面积}}</v>
       </c>
       <c r="O174" s="126" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="175" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="176" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="177" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>265</v>
       </c>
@@ -11799,7 +11827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="105" t="s">
         <v>85</v>
       </c>
@@ -11816,7 +11844,7 @@
         <v>1</v>
       </c>
       <c r="M178" s="122" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N178" s="108" t="str">
         <f>"{{"&amp;M178&amp;"_临时用地面积}}"</f>
@@ -11824,12 +11852,12 @@
       </c>
       <c r="O178" s="27"/>
     </row>
-    <row r="179" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="25">
         <v>1</v>
       </c>
       <c r="B179" s="122" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C179" s="108">
         <f>D151</f>
@@ -11840,7 +11868,7 @@
         <v>2</v>
       </c>
       <c r="M179" s="122" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N179" s="108" t="str">
         <f t="shared" ref="N179:N185" si="22">"{{"&amp;M179&amp;"_临时用地面积}}"</f>
@@ -11848,12 +11876,12 @@
       </c>
       <c r="O179" s="27"/>
     </row>
-    <row r="180" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="25">
         <v>2</v>
       </c>
       <c r="B180" s="122" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C180" s="127">
         <f>D2*D136-C171-C172</f>
@@ -11864,7 +11892,7 @@
         <v>3</v>
       </c>
       <c r="M180" s="122" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N180" s="108" t="str">
         <f t="shared" si="22"/>
@@ -11872,12 +11900,12 @@
       </c>
       <c r="O180" s="27"/>
     </row>
-    <row r="181" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="25">
         <v>3</v>
       </c>
       <c r="B181" s="122" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C181" s="108">
         <f>E101*2.5*1000+E122*(VLOOKUP($A$5,道路基础数据!$A$16:$AJ$23,36))</f>
@@ -11888,7 +11916,7 @@
         <v>4</v>
       </c>
       <c r="M181" s="122" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N181" s="108" t="str">
         <f t="shared" si="22"/>
@@ -11896,12 +11924,12 @@
       </c>
       <c r="O181" s="27"/>
     </row>
-    <row r="182" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="25">
         <v>4</v>
       </c>
       <c r="B182" s="122" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C182" s="108">
         <f>(INT(E161/100000)+1)*10000</f>
@@ -11912,7 +11940,7 @@
         <v>5</v>
       </c>
       <c r="M182" s="122" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N182" s="108" t="str">
         <f t="shared" si="22"/>
@@ -11920,12 +11948,12 @@
       </c>
       <c r="O182" s="27"/>
     </row>
-    <row r="183" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="25">
         <v>5</v>
       </c>
       <c r="B183" s="122" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C183" s="108">
         <f>E110*(VLOOKUP($A$5,道路基础数据!$A$16:$AJ$23,36))</f>
@@ -11944,7 +11972,7 @@
       </c>
       <c r="O183" s="27"/>
     </row>
-    <row r="184" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="25">
         <v>6</v>
       </c>
@@ -11960,7 +11988,7 @@
         <v>7</v>
       </c>
       <c r="M184" s="122" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N184" s="108" t="str">
         <f t="shared" si="22"/>
@@ -11968,12 +11996,12 @@
       </c>
       <c r="O184" s="27"/>
     </row>
-    <row r="185" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A185" s="25">
         <v>7</v>
       </c>
       <c r="B185" s="122" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C185" s="108">
         <f>D8</f>
@@ -11984,22 +12012,22 @@
         <v>8</v>
       </c>
       <c r="M185" s="242" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N185" s="108" t="str">
         <f t="shared" si="22"/>
         <v>{{合计_临时用地面积}}</v>
       </c>
       <c r="O185" s="126" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A186" s="106">
         <v>8</v>
       </c>
       <c r="B186" s="242" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C186" s="128">
         <f>SUM(C179:C185)</f>
@@ -12010,9 +12038,9 @@
         <v>333.2142380256293</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
         <v>285</v>
       </c>
@@ -12020,8 +12048,23 @@
       <c r="C189" s="24"/>
       <c r="D189" s="24"/>
       <c r="E189" s="24"/>
-    </row>
-    <row r="190" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L189" s="121" t="s">
+        <v>12</v>
+      </c>
+      <c r="M189" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="N189" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="O189" s="107" t="s">
+        <v>286</v>
+      </c>
+      <c r="P189" s="61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="121" t="s">
         <v>276</v>
       </c>
@@ -12037,13 +12080,27 @@
       <c r="E190" s="61" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L190" s="25">
+        <v>1</v>
+      </c>
+      <c r="M190" s="122" t="s">
+        <v>423</v>
+      </c>
+      <c r="N190" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="O190" s="108" t="str">
+        <f>"{{"&amp;M190&amp;"_主要施工工程量}}"</f>
+        <v>{{风机机组_主要施工工程量}}</v>
+      </c>
+      <c r="P190" s="27"/>
+    </row>
+    <row r="191" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="25">
         <v>1</v>
       </c>
-      <c r="B191" s="26" t="s">
-        <v>287</v>
+      <c r="B191" s="122" t="s">
+        <v>423</v>
       </c>
       <c r="C191" s="26" t="s">
         <v>288</v>
@@ -12053,13 +12110,27 @@
         <v>15</v>
       </c>
       <c r="E191" s="27"/>
-    </row>
-    <row r="192" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L191" s="25">
+        <v>2</v>
+      </c>
+      <c r="M191" s="122" t="s">
+        <v>420</v>
+      </c>
+      <c r="N191" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="O191" s="108" t="str">
+        <f t="shared" ref="O191:O199" si="23">"{{"&amp;M191&amp;"_主要施工工程量}}"</f>
+        <v>{{建筑面积_主要施工工程量}}</v>
+      </c>
+      <c r="P191" s="27"/>
+    </row>
+    <row r="192" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="25">
         <v>2</v>
       </c>
-      <c r="B192" s="26" t="s">
-        <v>289</v>
+      <c r="B192" s="122" t="s">
+        <v>420</v>
       </c>
       <c r="C192" s="26" t="s">
         <v>290</v>
@@ -12069,13 +12140,27 @@
         <v>2197.2399999999998</v>
       </c>
       <c r="E192" s="27"/>
-    </row>
-    <row r="193" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L192" s="25">
+        <v>3</v>
+      </c>
+      <c r="M192" s="122" t="s">
+        <v>424</v>
+      </c>
+      <c r="N192" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="O192" s="108" t="str">
+        <f t="shared" si="23"/>
+        <v>{{主变压器_主要施工工程量}}</v>
+      </c>
+      <c r="P192" s="27"/>
+    </row>
+    <row r="193" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="25">
         <v>3</v>
       </c>
-      <c r="B193" s="26" t="s">
-        <v>291</v>
+      <c r="B193" s="122" t="s">
+        <v>424</v>
       </c>
       <c r="C193" s="26" t="s">
         <v>288</v>
@@ -12085,45 +12170,87 @@
         <v>2</v>
       </c>
       <c r="E193" s="27"/>
-    </row>
-    <row r="194" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L193" s="25">
+        <v>4</v>
+      </c>
+      <c r="M193" s="122" t="s">
+        <v>273</v>
+      </c>
+      <c r="N193" s="122" t="s">
+        <v>298</v>
+      </c>
+      <c r="O193" s="108" t="str">
+        <f t="shared" si="23"/>
+        <v>{{架空线路_主要施工工程量}}</v>
+      </c>
+      <c r="P193" s="27"/>
+    </row>
+    <row r="194" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="25">
         <v>4</v>
       </c>
       <c r="B194" s="122" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C194" s="122" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D194" s="108">
         <f>E8</f>
         <v>20</v>
       </c>
       <c r="E194" s="27"/>
-    </row>
-    <row r="195" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L194" s="25">
+        <v>5</v>
+      </c>
+      <c r="M194" s="122" t="s">
+        <v>296</v>
+      </c>
+      <c r="N194" s="122" t="s">
+        <v>98</v>
+      </c>
+      <c r="O194" s="108" t="str">
+        <f t="shared" si="23"/>
+        <v>{{直埋电缆_主要施工工程量}}</v>
+      </c>
+      <c r="P194" s="27"/>
+    </row>
+    <row r="195" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="25">
         <v>5</v>
       </c>
       <c r="B195" s="122" t="s">
+        <v>296</v>
+      </c>
+      <c r="C195" s="122" t="s">
         <v>297</v>
-      </c>
-      <c r="C195" s="122" t="s">
-        <v>298</v>
       </c>
       <c r="D195" s="108">
         <f>F8</f>
         <v>2</v>
       </c>
       <c r="E195" s="27"/>
-    </row>
-    <row r="196" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L195" s="25">
+        <v>6</v>
+      </c>
+      <c r="M195" s="122" t="s">
+        <v>421</v>
+      </c>
+      <c r="N195" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="O195" s="108" t="str">
+        <f t="shared" si="23"/>
+        <v>{{土石方开挖_主要施工工程量}}</v>
+      </c>
+      <c r="P195" s="27"/>
+    </row>
+    <row r="196" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="25">
         <v>6</v>
       </c>
-      <c r="B196" s="26" t="s">
-        <v>292</v>
+      <c r="B196" s="122" t="s">
+        <v>421</v>
       </c>
       <c r="C196" s="26" t="s">
         <v>293</v>
@@ -12133,13 +12260,27 @@
         <v>35.491470666084133</v>
       </c>
       <c r="E196" s="27"/>
-    </row>
-    <row r="197" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L196" s="25">
+        <v>7</v>
+      </c>
+      <c r="M196" s="122" t="s">
+        <v>425</v>
+      </c>
+      <c r="N196" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="O196" s="108" t="str">
+        <f t="shared" si="23"/>
+        <v>{{土石方回填_主要施工工程量}}</v>
+      </c>
+      <c r="P196" s="27"/>
+    </row>
+    <row r="197" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="25">
         <v>7</v>
       </c>
-      <c r="B197" s="26" t="s">
-        <v>7</v>
+      <c r="B197" s="122" t="s">
+        <v>425</v>
       </c>
       <c r="C197" s="26" t="s">
         <v>293</v>
@@ -12149,13 +12290,27 @@
         <v>10.173111605807936</v>
       </c>
       <c r="E197" s="27"/>
-    </row>
-    <row r="198" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L197" s="25">
+        <v>8</v>
+      </c>
+      <c r="M197" s="122" t="s">
+        <v>426</v>
+      </c>
+      <c r="N197" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="O197" s="108" t="str">
+        <f t="shared" si="23"/>
+        <v>{{混凝土_主要施工工程量}}</v>
+      </c>
+      <c r="P197" s="27"/>
+    </row>
+    <row r="198" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="25">
         <v>8</v>
       </c>
-      <c r="B198" s="26" t="s">
-        <v>294</v>
+      <c r="B198" s="122" t="s">
+        <v>426</v>
       </c>
       <c r="C198" s="26" t="s">
         <v>293</v>
@@ -12165,13 +12320,27 @@
         <v>1.2135933102761951</v>
       </c>
       <c r="E198" s="27"/>
-    </row>
-    <row r="199" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L198" s="25">
+        <v>9</v>
+      </c>
+      <c r="M198" s="122" t="s">
+        <v>427</v>
+      </c>
+      <c r="N198" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O198" s="108" t="str">
+        <f t="shared" si="23"/>
+        <v>{{钢筋_主要施工工程量}}</v>
+      </c>
+      <c r="P198" s="27"/>
+    </row>
+    <row r="199" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A199" s="25">
         <v>9</v>
       </c>
-      <c r="B199" s="26" t="s">
-        <v>9</v>
+      <c r="B199" s="122" t="s">
+        <v>427</v>
       </c>
       <c r="C199" s="26" t="s">
         <v>10</v>
@@ -12181,13 +12350,27 @@
         <v>919.21037699350632</v>
       </c>
       <c r="E199" s="27"/>
-    </row>
-    <row r="200" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L199" s="106">
+        <v>10</v>
+      </c>
+      <c r="M199" s="242" t="s">
+        <v>422</v>
+      </c>
+      <c r="N199" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="O199" s="108" t="str">
+        <f t="shared" si="23"/>
+        <v>{{浆砌石_主要施工工程量}}</v>
+      </c>
+      <c r="P199" s="30"/>
+    </row>
+    <row r="200" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A200" s="106">
         <v>10</v>
       </c>
-      <c r="B200" s="29" t="s">
-        <v>295</v>
+      <c r="B200" s="242" t="s">
+        <v>422</v>
       </c>
       <c r="C200" s="29" t="s">
         <v>293</v>
@@ -12198,14 +12381,14 @@
       </c>
       <c r="E200" s="30"/>
     </row>
-    <row r="201" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="209" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="210" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="211" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/autocrword/models/chapter_8/土建用量表.xlsx
+++ b/autocrword/models/chapter_8/土建用量表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\Odoo_addons_NB\autocrword\models\chapter_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BFAA18-E906-4363-9F54-346CEB75EAFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D936C6-D2EF-413D-9BF9-FA7CB68DD6A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="1080" windowWidth="19335" windowHeight="13830" tabRatio="569" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="960" windowWidth="27885" windowHeight="13830" tabRatio="713" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="成果输出" sheetId="1" r:id="rId1"/>
@@ -7825,7 +7825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A181" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O194" sqref="O194"/>
     </sheetView>
   </sheetViews>
@@ -12798,8 +12798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V105"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -19182,7 +19182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -20194,8 +20194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AY36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
